--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="708">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2052,6 +2052,90 @@
   </si>
   <si>
     <t>7:43 PM</t>
+  </si>
+  <si>
+    <t>8:20 PM</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>(BUD)</t>
+  </si>
+  <si>
+    <t>8:44 PM</t>
+  </si>
+  <si>
+    <t>8:35 PM</t>
+  </si>
+  <si>
+    <t>FR7696</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>(OPO)</t>
+  </si>
+  <si>
+    <t>(EI-GJT)</t>
+  </si>
+  <si>
+    <t>8:54 PM</t>
+  </si>
+  <si>
+    <t>U23818</t>
+  </si>
+  <si>
+    <t>9:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 25 minutes</t>
+  </si>
+  <si>
+    <t>8:55 PM</t>
+  </si>
+  <si>
+    <t>FR3614</t>
+  </si>
+  <si>
+    <t>(SP-RSY)</t>
+  </si>
+  <si>
+    <t>9:04 PM</t>
+  </si>
+  <si>
+    <t>9:25 PM</t>
+  </si>
+  <si>
+    <t>LO3922</t>
+  </si>
+  <si>
+    <t>E170</t>
+  </si>
+  <si>
+    <t>(SP-LDF)</t>
+  </si>
+  <si>
+    <t>9:45 PM</t>
+  </si>
+  <si>
+    <t>(SP-RSM)</t>
+  </si>
+  <si>
+    <t>9:47 PM</t>
+  </si>
+  <si>
+    <t>DY1043</t>
+  </si>
+  <si>
+    <t>(LN-NIH)</t>
+  </si>
+  <si>
+    <t>10:05 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 15 minutes</t>
   </si>
 </sst>
 </file>
@@ -2096,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M140"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7278,6 +7362,265 @@
       </c>
       <c r="M140" s="0"/>
     </row>
+    <row r="141">
+      <c r="A141" t="n" s="0">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>681</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>682</v>
+      </c>
+      <c r="G141" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H141" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I141" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="J141" t="s" s="0">
+        <v>683</v>
+      </c>
+      <c r="K141" s="0"/>
+      <c r="L141" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M141" s="0"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="n" s="0">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="G142" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H142" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s" s="0">
+        <v>688</v>
+      </c>
+      <c r="J142" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="K142" s="0"/>
+      <c r="L142" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M142" s="0"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="n" s="0">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G143" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H143" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I143" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="J143" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="K143" s="0"/>
+      <c r="L143" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M143" s="0"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="n" s="0">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G144" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H144" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I144" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J144" t="s" s="0">
+        <v>696</v>
+      </c>
+      <c r="K144" s="0"/>
+      <c r="L144" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M144" s="0"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G145" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H145" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I145" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="J145" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="K145" s="0"/>
+      <c r="L145" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M145" s="0"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="n" s="0">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G146" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H146" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I146" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="J146" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="K146" s="0"/>
+      <c r="L146" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M146" s="0"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="n" s="0">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G147" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H147" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="J147" t="s" s="0">
+        <v>706</v>
+      </c>
+      <c r="K147" s="0"/>
+      <c r="L147" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M147" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="712">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2136,6 +2136,18 @@
   </si>
   <si>
     <t>0 hours, 15 minutes</t>
+  </si>
+  <si>
+    <t>10:25 PM</t>
+  </si>
+  <si>
+    <t>U21872</t>
+  </si>
+  <si>
+    <t>(G-EZUS)</t>
+  </si>
+  <si>
+    <t>10:46 PM</t>
   </si>
 </sst>
 </file>
@@ -2180,7 +2192,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7621,6 +7633,43 @@
       </c>
       <c r="M147" s="0"/>
     </row>
+    <row r="148">
+      <c r="A148" t="n" s="0">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F148" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G148" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H148" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I148" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="J148" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="K148" s="0"/>
+      <c r="L148" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M148" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="808">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2148,6 +2148,294 @@
   </si>
   <si>
     <t>10:46 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 09</t>
+  </si>
+  <si>
+    <t>(SP-LNP)</t>
+  </si>
+  <si>
+    <t>5:50 AM</t>
+  </si>
+  <si>
+    <t>W65013</t>
+  </si>
+  <si>
+    <t>6:06 AM</t>
+  </si>
+  <si>
+    <t>FR4023</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>(LIS)</t>
+  </si>
+  <si>
+    <t>6:12 AM</t>
+  </si>
+  <si>
+    <t>(PH-EZY)</t>
+  </si>
+  <si>
+    <t>6:07 AM</t>
+  </si>
+  <si>
+    <t>6:15 AM</t>
+  </si>
+  <si>
+    <t>FR6208</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>(MAD)</t>
+  </si>
+  <si>
+    <t>6:23 AM</t>
+  </si>
+  <si>
+    <t>(D-AIEC)</t>
+  </si>
+  <si>
+    <t>6:34 AM</t>
+  </si>
+  <si>
+    <t>FR2229</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>(VLC)</t>
+  </si>
+  <si>
+    <t>6:54 AM</t>
+  </si>
+  <si>
+    <t>FR8672</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>(GRO)</t>
+  </si>
+  <si>
+    <t>6:49 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 4 minutes</t>
+  </si>
+  <si>
+    <t>6:51 AM</t>
+  </si>
+  <si>
+    <t>6:56 AM</t>
+  </si>
+  <si>
+    <t>FR6222</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>(BOH)</t>
+  </si>
+  <si>
+    <t>7:13 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrian Airlines (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(OE-LWH)</t>
+  </si>
+  <si>
+    <t>7:28 AM</t>
+  </si>
+  <si>
+    <t>(D-AIZC)</t>
+  </si>
+  <si>
+    <t>7:41 AM</t>
+  </si>
+  <si>
+    <t>W65075</t>
+  </si>
+  <si>
+    <t>8:23 AM</t>
+  </si>
+  <si>
+    <t>8:59 AM</t>
+  </si>
+  <si>
+    <t>9:10 AM</t>
+  </si>
+  <si>
+    <t>9:44 AM</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>(VNO)</t>
+  </si>
+  <si>
+    <t>10:42 AM</t>
+  </si>
+  <si>
+    <t>10:40 AM</t>
+  </si>
+  <si>
+    <t>FR2589</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>(AGP)</t>
+  </si>
+  <si>
+    <t>(EI-HGH)</t>
+  </si>
+  <si>
+    <t>10:44 AM</t>
+  </si>
+  <si>
+    <t>FR6250</t>
+  </si>
+  <si>
+    <t>Riga</t>
+  </si>
+  <si>
+    <t>(RIX)</t>
+  </si>
+  <si>
+    <t>(SP-RKV)</t>
+  </si>
+  <si>
+    <t>(EI-DYX)</t>
+  </si>
+  <si>
+    <t>11:35 AM</t>
+  </si>
+  <si>
+    <t>AY1164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnair </t>
+  </si>
+  <si>
+    <t>(OH-LKM)</t>
+  </si>
+  <si>
+    <t>FR239</t>
+  </si>
+  <si>
+    <t>Gdansk</t>
+  </si>
+  <si>
+    <t>(GDN)</t>
+  </si>
+  <si>
+    <t>(SP-RKI)</t>
+  </si>
+  <si>
+    <t>12:03 PM</t>
+  </si>
+  <si>
+    <t>(EI-DHE)</t>
+  </si>
+  <si>
+    <t>12:09 PM</t>
+  </si>
+  <si>
+    <t>12:15 PM</t>
+  </si>
+  <si>
+    <t>W65071</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>(NCE)</t>
+  </si>
+  <si>
+    <t>12:24 PM</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>(HA-LVO)</t>
+  </si>
+  <si>
+    <t>12:41 PM</t>
+  </si>
+  <si>
+    <t>12:54 PM</t>
+  </si>
+  <si>
+    <t>12:45 PM</t>
+  </si>
+  <si>
+    <t>12:56 PM</t>
+  </si>
+  <si>
+    <t>LH1367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lufthansa (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(D-AIRW)</t>
+  </si>
+  <si>
+    <t>0 hours, 41 minutes</t>
+  </si>
+  <si>
+    <t>1:05 PM</t>
+  </si>
+  <si>
+    <t>U28512</t>
+  </si>
+  <si>
+    <t>A319</t>
+  </si>
+  <si>
+    <t>(G-EZGO)</t>
+  </si>
+  <si>
+    <t>1:22 PM</t>
+  </si>
+  <si>
+    <t>1:28 PM</t>
+  </si>
+  <si>
+    <t>(D-AIZI)</t>
+  </si>
+  <si>
+    <t>1:30 PM</t>
+  </si>
+  <si>
+    <t>FR5119</t>
+  </si>
+  <si>
+    <t>(EI-EXD)</t>
+  </si>
+  <si>
+    <t>1:52 PM</t>
+  </si>
+  <si>
+    <t>1:55 PM</t>
+  </si>
+  <si>
+    <t>1:59 PM</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -7670,6 +7958,1447 @@
       </c>
       <c r="M148" s="0"/>
     </row>
+    <row r="149">
+      <c r="A149" t="n" s="0">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G149" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H149" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I149" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="J149" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="K149" s="0"/>
+      <c r="L149" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M149" s="0"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="n" s="0">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G150" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H150" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I150" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="J150" t="s" s="0">
+        <v>716</v>
+      </c>
+      <c r="K150" s="0"/>
+      <c r="L150" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M150" s="0"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="n" s="0">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="F151" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="G151" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H151" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I151" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J151" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="K151" s="0"/>
+      <c r="L151" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M151" s="0"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="n" s="0">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E152" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F152" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G152" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H152" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I152" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="J152" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K152" s="0"/>
+      <c r="L152" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M152" s="0"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F153" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G153" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H153" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I153" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J153" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="K153" s="0"/>
+      <c r="L153" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M153" s="0"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="n" s="0">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E154" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="F154" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="G154" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H154" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I154" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J154" t="s" s="0">
+        <v>727</v>
+      </c>
+      <c r="K154" s="0"/>
+      <c r="L154" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M154" s="0"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="n" s="0">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F155" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G155" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I155" t="s" s="0">
+        <v>728</v>
+      </c>
+      <c r="J155" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="K155" s="0"/>
+      <c r="L155" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M155" s="0"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="n" s="0">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F156" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G156" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H156" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I156" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J156" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="K156" s="0"/>
+      <c r="L156" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M156" s="0"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="n" s="0">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="F157" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="G157" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H157" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I157" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J157" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="K157" s="0"/>
+      <c r="L157" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M157" s="0"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="n" s="0">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="F158" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="G158" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H158" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J158" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="K158" s="0"/>
+      <c r="L158" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M158" s="0"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="n" s="0">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F159" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G159" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H159" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I159" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J159" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="K159" s="0"/>
+      <c r="L159" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M159" s="0"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="n" s="0">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F160" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G160" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H160" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I160" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J160" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="K160" s="0"/>
+      <c r="L160" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M160" s="0"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="F161" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="G161" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H161" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I161" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J161" t="s" s="0">
+        <v>744</v>
+      </c>
+      <c r="K161" s="0"/>
+      <c r="L161" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M161" s="0"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="n" s="0">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F162" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G162" t="s" s="0">
+        <v>745</v>
+      </c>
+      <c r="H162" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I162" t="s" s="0">
+        <v>746</v>
+      </c>
+      <c r="J162" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K162" s="0"/>
+      <c r="L162" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M162" s="0"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F163" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G163" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H163" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I163" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="J163" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="K163" s="0"/>
+      <c r="L163" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M163" s="0"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="n" s="0">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F164" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G164" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H164" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I164" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J164" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="K164" s="0"/>
+      <c r="L164" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M164" s="0"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="n" s="0">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F165" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G165" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H165" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I165" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="J165" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="K165" s="0"/>
+      <c r="L165" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M165" s="0"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="n" s="0">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F166" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G166" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H166" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I166" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J166" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="K166" s="0"/>
+      <c r="L166" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M166" s="0"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="n" s="0">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F167" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G167" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H167" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I167" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="J167" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="K167" s="0"/>
+      <c r="L167" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M167" s="0"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="n" s="0">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E168" t="s" s="0">
+        <v>755</v>
+      </c>
+      <c r="F168" t="s" s="0">
+        <v>756</v>
+      </c>
+      <c r="G168" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H168" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I168" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J168" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="K168" s="0"/>
+      <c r="L168" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M168" s="0"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E169" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F169" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G169" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H169" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I169" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J169" t="s" s="0">
+        <v>757</v>
+      </c>
+      <c r="K169" s="0"/>
+      <c r="L169" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M169" s="0"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="n" s="0">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="E170" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F170" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G170" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H170" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I170" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="J170" t="s" s="0">
+        <v>763</v>
+      </c>
+      <c r="K170" s="0"/>
+      <c r="L170" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M170" s="0"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n" s="0">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="F171" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="G171" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H171" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I171" t="s" s="0">
+        <v>767</v>
+      </c>
+      <c r="J171" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="K171" s="0"/>
+      <c r="L171" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M171" s="0"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="E172" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="F172" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="G172" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H172" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I172" t="s" s="0">
+        <v>768</v>
+      </c>
+      <c r="J172" t="s" s="0">
+        <v>507</v>
+      </c>
+      <c r="K172" s="0"/>
+      <c r="L172" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M172" s="0"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n" s="0">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E173" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F173" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G173" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H173" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I173" t="s" s="0">
+        <v>772</v>
+      </c>
+      <c r="J173" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="K173" s="0"/>
+      <c r="L173" s="0"/>
+      <c r="M173" s="0"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n" s="0">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="F174" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="G174" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H174" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I174" t="s" s="0">
+        <v>776</v>
+      </c>
+      <c r="J174" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="K174" s="0"/>
+      <c r="L174" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M174" s="0"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="n" s="0">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E175" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F175" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G175" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H175" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I175" t="s" s="0">
+        <v>778</v>
+      </c>
+      <c r="J175" t="s" s="0">
+        <v>779</v>
+      </c>
+      <c r="K175" s="0"/>
+      <c r="L175" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M175" s="0"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n" s="0">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E176" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F176" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G176" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H176" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I176" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J176" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="K176" s="0"/>
+      <c r="L176" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M176" s="0"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n" s="0">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E177" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F177" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G177" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H177" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I177" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="J177" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="K177" s="0"/>
+      <c r="L177" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M177" s="0"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n" s="0">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="E178" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="F178" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="G178" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H178" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I178" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J178" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="K178" s="0"/>
+      <c r="L178" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M178" s="0"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n" s="0">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E179" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F179" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G179" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H179" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I179" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J179" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="K179" s="0"/>
+      <c r="L179" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M179" s="0"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n" s="0">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E180" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F180" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G180" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H180" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I180" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="J180" t="s" s="0">
+        <v>788</v>
+      </c>
+      <c r="K180" s="0"/>
+      <c r="L180" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M180" s="0"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n" s="0">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G181" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H181" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I181" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="J181" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="K181" s="0"/>
+      <c r="L181" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M181" s="0"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n" s="0">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="E182" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F182" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="H182" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I182" t="s" s="0">
+        <v>793</v>
+      </c>
+      <c r="J182" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="K182" s="0"/>
+      <c r="L182" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="M182" s="0"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n" s="0">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="E183" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F183" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G183" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H183" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I183" t="s" s="0">
+        <v>798</v>
+      </c>
+      <c r="J183" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="K183" s="0"/>
+      <c r="L183" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M183" s="0"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n" s="0">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="E184" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F184" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G184" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H184" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I184" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J184" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="K184" s="0"/>
+      <c r="L184" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M184" s="0"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n" s="0">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E185" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F185" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G185" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I185" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="J185" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="K185" s="0"/>
+      <c r="L185" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M185" s="0"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n" s="0">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E186" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F186" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G186" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H186" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I186" t="s" s="0">
+        <v>804</v>
+      </c>
+      <c r="J186" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K186" s="0"/>
+      <c r="L186" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M186" s="0"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n" s="0">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E187" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F187" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G187" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H187" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I187" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J187" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="K187" s="0"/>
+      <c r="L187" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M187" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="856">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2436,6 +2436,150 @@
   </si>
   <si>
     <t>1:59 PM</t>
+  </si>
+  <si>
+    <t>2:44 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helvetic Airways </t>
+  </si>
+  <si>
+    <t>E295</t>
+  </si>
+  <si>
+    <t>(HB-AZI)</t>
+  </si>
+  <si>
+    <t>2:49 PM</t>
+  </si>
+  <si>
+    <t>2:42 PM</t>
+  </si>
+  <si>
+    <t>2:45 PM</t>
+  </si>
+  <si>
+    <t>2:59 PM</t>
+  </si>
+  <si>
+    <t>(SP-LMH)</t>
+  </si>
+  <si>
+    <t>3:34 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 34 minutes</t>
+  </si>
+  <si>
+    <t>5:04 PM</t>
+  </si>
+  <si>
+    <t>2 hours, 4 minutes</t>
+  </si>
+  <si>
+    <t>3:10 PM</t>
+  </si>
+  <si>
+    <t>FR7955</t>
+  </si>
+  <si>
+    <t>3:32 PM</t>
+  </si>
+  <si>
+    <t>3:15 PM</t>
+  </si>
+  <si>
+    <t>3:30 PM</t>
+  </si>
+  <si>
+    <t>FR6361</t>
+  </si>
+  <si>
+    <t>Shannon</t>
+  </si>
+  <si>
+    <t>(SNN)</t>
+  </si>
+  <si>
+    <t>(EI-EBP)</t>
+  </si>
+  <si>
+    <t>3:25 PM</t>
+  </si>
+  <si>
+    <t>3:40 PM</t>
+  </si>
+  <si>
+    <t>(9H-QBX)</t>
+  </si>
+  <si>
+    <t>3:49 PM</t>
+  </si>
+  <si>
+    <t>LG5742</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>(LUX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxair </t>
+  </si>
+  <si>
+    <t>DH8D</t>
+  </si>
+  <si>
+    <t>(LX-LGE)</t>
+  </si>
+  <si>
+    <t>3:36 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -4 minutes</t>
+  </si>
+  <si>
+    <t>(OE-IVS)</t>
+  </si>
+  <si>
+    <t>4:07 PM</t>
+  </si>
+  <si>
+    <t>4:23 PM</t>
+  </si>
+  <si>
+    <t>4:40 PM</t>
+  </si>
+  <si>
+    <t>(EI-DWY)</t>
+  </si>
+  <si>
+    <t>4:55 PM</t>
+  </si>
+  <si>
+    <t>4:43 PM</t>
+  </si>
+  <si>
+    <t>(PH-EXC)</t>
+  </si>
+  <si>
+    <t>5:08 PM</t>
+  </si>
+  <si>
+    <t>W65051</t>
+  </si>
+  <si>
+    <t>Larnaca</t>
+  </si>
+  <si>
+    <t>(LCA)</t>
+  </si>
+  <si>
+    <t>5:14 PM</t>
+  </si>
+  <si>
+    <t>5:15 PM</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M187"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -9399,6 +9543,672 @@
       </c>
       <c r="M187" s="0"/>
     </row>
+    <row r="188">
+      <c r="A188" t="n" s="0">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E188" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F188" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G188" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H188" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I188" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J188" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="K188" s="0"/>
+      <c r="L188" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M188" s="0"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n" s="0">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="E189" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="F189" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G189" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="H189" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I189" t="s" s="0">
+        <v>811</v>
+      </c>
+      <c r="J189" t="s" s="0">
+        <v>812</v>
+      </c>
+      <c r="K189" s="0"/>
+      <c r="L189" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M189" s="0"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n" s="0">
+        <v>189.0</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E190" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F190" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G190" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H190" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I190" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="J190" t="s" s="0">
+        <v>813</v>
+      </c>
+      <c r="K190" s="0"/>
+      <c r="L190" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M190" s="0"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="n" s="0">
+        <v>190.0</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E191" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F191" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G191" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H191" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I191" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J191" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="K191" s="0"/>
+      <c r="L191" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M191" s="0"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="n" s="0">
+        <v>191.0</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E192" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F192" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G192" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H192" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I192" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="J192" t="s" s="0">
+        <v>817</v>
+      </c>
+      <c r="K192" s="0"/>
+      <c r="L192" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M192" s="0"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="n" s="0">
+        <v>192.0</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="E193" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F193" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G193" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="H193" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="I193" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="J193" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="K193" s="0"/>
+      <c r="L193" t="s" s="0">
+        <v>820</v>
+      </c>
+      <c r="M193" s="0"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="n" s="0">
+        <v>193.0</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="E194" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="F194" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="G194" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H194" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I194" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J194" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="K194" s="0"/>
+      <c r="L194" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M194" s="0"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="n" s="0">
+        <v>194.0</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E195" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F195" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H195" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I195" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J195" t="s" s="0">
+        <v>825</v>
+      </c>
+      <c r="K195" s="0"/>
+      <c r="L195" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M195" s="0"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="n" s="0">
+        <v>195.0</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="E196" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="F196" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="G196" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H196" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I196" t="s" s="0">
+        <v>829</v>
+      </c>
+      <c r="J196" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="K196" s="0"/>
+      <c r="L196" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M196" s="0"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="n" s="0">
+        <v>196.0</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="E197" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F197" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="G197" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H197" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I197" t="s" s="0">
+        <v>832</v>
+      </c>
+      <c r="J197" t="s" s="0">
+        <v>833</v>
+      </c>
+      <c r="K197" s="0"/>
+      <c r="L197" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M197" s="0"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="n" s="0">
+        <v>197.0</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E198" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F198" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G198" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="H198" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="I198" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="J198" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="K198" s="0"/>
+      <c r="L198" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="M198" s="0"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E199" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F199" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G199" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H199" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I199" t="s" s="0">
+        <v>842</v>
+      </c>
+      <c r="J199" t="s" s="0">
+        <v>843</v>
+      </c>
+      <c r="K199" s="0"/>
+      <c r="L199" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M199" s="0"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="n" s="0">
+        <v>199.0</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E200" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F200" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G200" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H200" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I200" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J200" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="K200" s="0"/>
+      <c r="L200" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M200" s="0"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E201" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F201" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G201" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H201" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I201" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="J201" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K201" s="0"/>
+      <c r="L201" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M201" s="0"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="n" s="0">
+        <v>201.0</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E202" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F202" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G202" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H202" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I202" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J202" t="s" s="0">
+        <v>848</v>
+      </c>
+      <c r="K202" s="0"/>
+      <c r="L202" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M202" s="0"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="n" s="0">
+        <v>202.0</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E203" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F203" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G203" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H203" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I203" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="J203" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K203" s="0"/>
+      <c r="L203" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M203" s="0"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="n" s="0">
+        <v>203.0</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E204" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="F204" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="G204" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H204" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I204" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J204" t="s" s="0">
+        <v>854</v>
+      </c>
+      <c r="K204" s="0"/>
+      <c r="L204" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M204" s="0"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="n" s="0">
+        <v>204.0</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E205" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F205" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G205" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H205" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I205" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="J205" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="K205" s="0"/>
+      <c r="L205" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M205" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="895">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2580,6 +2580,123 @@
   </si>
   <si>
     <t>5:15 PM</t>
+  </si>
+  <si>
+    <t>5:35 PM</t>
+  </si>
+  <si>
+    <t>5:49 PM</t>
+  </si>
+  <si>
+    <t>6:05 PM</t>
+  </si>
+  <si>
+    <t>U26940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easyJet (Europcar Livery) </t>
+  </si>
+  <si>
+    <t>(G-UZHO)</t>
+  </si>
+  <si>
+    <t>6:14 PM</t>
+  </si>
+  <si>
+    <t>6:11 PM</t>
+  </si>
+  <si>
+    <t>FR6214</t>
+  </si>
+  <si>
+    <t>Dortmund</t>
+  </si>
+  <si>
+    <t>(DTM)</t>
+  </si>
+  <si>
+    <t>7:04 PM</t>
+  </si>
+  <si>
+    <t>6:59 PM</t>
+  </si>
+  <si>
+    <t>7:58 PM</t>
+  </si>
+  <si>
+    <t>8:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 40 minutes</t>
+  </si>
+  <si>
+    <t>7:25 PM</t>
+  </si>
+  <si>
+    <t>HV5282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transavia (Peter Pan Vakantieclub Livery) </t>
+  </si>
+  <si>
+    <t>(PH-HSI)</t>
+  </si>
+  <si>
+    <t>7:41 PM</t>
+  </si>
+  <si>
+    <t>LS354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jet2 </t>
+  </si>
+  <si>
+    <t>(G-JZBN)</t>
+  </si>
+  <si>
+    <t>8:09 PM</t>
+  </si>
+  <si>
+    <t>8:15 PM</t>
+  </si>
+  <si>
+    <t>8:03 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -12 minutes</t>
+  </si>
+  <si>
+    <t>8:25 PM</t>
+  </si>
+  <si>
+    <t>LS950</t>
+  </si>
+  <si>
+    <t>(G-GDFC)</t>
+  </si>
+  <si>
+    <t>8:30 PM</t>
+  </si>
+  <si>
+    <t>(9H-VUH)</t>
+  </si>
+  <si>
+    <t>10:04 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 4 minutes</t>
+  </si>
+  <si>
+    <t>10:15 PM</t>
+  </si>
+  <si>
+    <t>FR5394</t>
+  </si>
+  <si>
+    <t>(EI-HGR)</t>
+  </si>
+  <si>
+    <t>10:49 PM</t>
   </si>
 </sst>
 </file>
@@ -2624,7 +2741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M205"/>
+  <dimension ref="A1:M220"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10209,6 +10326,561 @@
       </c>
       <c r="M205" s="0"/>
     </row>
+    <row r="206">
+      <c r="A206" t="n" s="0">
+        <v>205.0</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E206" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F206" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G206" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H206" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I206" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J206" t="s" s="0">
+        <v>857</v>
+      </c>
+      <c r="K206" s="0"/>
+      <c r="L206" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M206" s="0"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="n" s="0">
+        <v>206.0</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E207" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F207" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G207" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H207" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I207" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J207" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="K207" s="0"/>
+      <c r="L207" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M207" s="0"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="n" s="0">
+        <v>207.0</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E208" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F208" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G208" t="s" s="0">
+        <v>860</v>
+      </c>
+      <c r="H208" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I208" t="s" s="0">
+        <v>861</v>
+      </c>
+      <c r="J208" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="K208" s="0"/>
+      <c r="L208" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M208" s="0"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="E209" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F209" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G209" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H209" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I209" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J209" t="s" s="0">
+        <v>863</v>
+      </c>
+      <c r="K209" s="0"/>
+      <c r="L209" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M209" s="0"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="n" s="0">
+        <v>209.0</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="E210" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="F210" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="G210" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H210" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I210" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J210" t="s" s="0">
+        <v>867</v>
+      </c>
+      <c r="K210" s="0"/>
+      <c r="L210" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M210" s="0"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E211" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F211" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G211" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H211" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I211" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="J211" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="K211" s="0"/>
+      <c r="L211" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M211" s="0"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="n" s="0">
+        <v>211.0</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E212" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F212" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="G212" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H212" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I212" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J212" t="s" s="0">
+        <v>868</v>
+      </c>
+      <c r="K212" s="0"/>
+      <c r="L212" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M212" s="0"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="n" s="0">
+        <v>212.0</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E213" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F213" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G213" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H213" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I213" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J213" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="K213" s="0"/>
+      <c r="L213" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="M213" s="0"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="n" s="0">
+        <v>213.0</v>
+      </c>
+      <c r="B214" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C214" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="D214" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E214" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F214" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H214" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I214" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J214" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="K214" s="0"/>
+      <c r="L214" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M214" s="0"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="n" s="0">
+        <v>214.0</v>
+      </c>
+      <c r="B215" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C215" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="D215" t="s" s="0">
+        <v>873</v>
+      </c>
+      <c r="E215" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F215" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G215" t="s" s="0">
+        <v>874</v>
+      </c>
+      <c r="H215" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I215" t="s" s="0">
+        <v>875</v>
+      </c>
+      <c r="J215" t="s" s="0">
+        <v>876</v>
+      </c>
+      <c r="K215" s="0"/>
+      <c r="L215" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M215" s="0"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="n" s="0">
+        <v>215.0</v>
+      </c>
+      <c r="B216" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C216" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="D216" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="E216" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F216" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="G216" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H216" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I216" t="s" s="0">
+        <v>879</v>
+      </c>
+      <c r="J216" t="s" s="0">
+        <v>880</v>
+      </c>
+      <c r="K216" s="0"/>
+      <c r="L216" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M216" s="0"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="n" s="0">
+        <v>216.0</v>
+      </c>
+      <c r="B217" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C217" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="D217" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E217" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F217" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G217" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H217" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I217" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="J217" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="K217" s="0"/>
+      <c r="L217" t="s" s="0">
+        <v>883</v>
+      </c>
+      <c r="M217" s="0"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="n" s="0">
+        <v>217.0</v>
+      </c>
+      <c r="B218" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C218" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="D218" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="E218" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F218" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G218" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H218" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I218" t="s" s="0">
+        <v>886</v>
+      </c>
+      <c r="J218" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="K218" s="0"/>
+      <c r="L218" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M218" s="0"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="n" s="0">
+        <v>218.0</v>
+      </c>
+      <c r="B219" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C219" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="D219" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E219" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F219" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G219" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H219" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I219" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="J219" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="K219" s="0"/>
+      <c r="L219" t="s" s="0">
+        <v>890</v>
+      </c>
+      <c r="M219" s="0"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="n" s="0">
+        <v>219.0</v>
+      </c>
+      <c r="B220" t="s" s="0">
+        <v>712</v>
+      </c>
+      <c r="C220" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="D220" t="s" s="0">
+        <v>892</v>
+      </c>
+      <c r="E220" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F220" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G220" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H220" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I220" t="s" s="0">
+        <v>893</v>
+      </c>
+      <c r="J220" t="s" s="0">
+        <v>894</v>
+      </c>
+      <c r="K220" s="0"/>
+      <c r="L220" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M220" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="981">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2697,6 +2697,264 @@
   </si>
   <si>
     <t>10:49 PM</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 10</t>
+  </si>
+  <si>
+    <t>(PH-NXB)</t>
+  </si>
+  <si>
+    <t>6:16 AM</t>
+  </si>
+  <si>
+    <t>6:10 AM</t>
+  </si>
+  <si>
+    <t>W65091</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>(LYS)</t>
+  </si>
+  <si>
+    <t>(D-AINQ)</t>
+  </si>
+  <si>
+    <t>6:31 AM</t>
+  </si>
+  <si>
+    <t>6:35 AM</t>
+  </si>
+  <si>
+    <t>6:53 AM</t>
+  </si>
+  <si>
+    <t>7:20 AM</t>
+  </si>
+  <si>
+    <t>7:26 AM</t>
+  </si>
+  <si>
+    <t>(OE-LWB)</t>
+  </si>
+  <si>
+    <t>7:31 AM</t>
+  </si>
+  <si>
+    <t>(D-AIZB)</t>
+  </si>
+  <si>
+    <t>7:37 AM</t>
+  </si>
+  <si>
+    <t>8:20 AM</t>
+  </si>
+  <si>
+    <t>8:32 AM</t>
+  </si>
+  <si>
+    <t>9:07 AM</t>
+  </si>
+  <si>
+    <t>9:30 AM</t>
+  </si>
+  <si>
+    <t>(9H-QAC)</t>
+  </si>
+  <si>
+    <t>9:50 AM</t>
+  </si>
+  <si>
+    <t>(EI-EST)</t>
+  </si>
+  <si>
+    <t>(D-AILE)</t>
+  </si>
+  <si>
+    <t>10:30 AM</t>
+  </si>
+  <si>
+    <t>St. Moritz</t>
+  </si>
+  <si>
+    <t>(SMV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetJets Europe </t>
+  </si>
+  <si>
+    <t>E55P</t>
+  </si>
+  <si>
+    <t>(CS-PHF)</t>
+  </si>
+  <si>
+    <t>12:06 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 36 minutes</t>
+  </si>
+  <si>
+    <t>(EI-HGZ)</t>
+  </si>
+  <si>
+    <t>11:06 AM</t>
+  </si>
+  <si>
+    <t>11:13 AM</t>
+  </si>
+  <si>
+    <t>11:32 AM</t>
+  </si>
+  <si>
+    <t>(G-EZBH)</t>
+  </si>
+  <si>
+    <t>11:19 AM</t>
+  </si>
+  <si>
+    <t>(A6-FMH)</t>
+  </si>
+  <si>
+    <t>0 hours, 46 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LVC)</t>
+  </si>
+  <si>
+    <t>12:22 PM</t>
+  </si>
+  <si>
+    <t>12:20 PM</t>
+  </si>
+  <si>
+    <t>12:32 PM</t>
+  </si>
+  <si>
+    <t>(G-EZBE)</t>
+  </si>
+  <si>
+    <t>1:18 PM</t>
+  </si>
+  <si>
+    <t>1:53 PM</t>
+  </si>
+  <si>
+    <t>(OE-LWO)</t>
+  </si>
+  <si>
+    <t>2:35 PM</t>
+  </si>
+  <si>
+    <t>(SP-LND)</t>
+  </si>
+  <si>
+    <t>3:18 PM</t>
+  </si>
+  <si>
+    <t>(9H-QEG)</t>
+  </si>
+  <si>
+    <t>(PH-EZA)</t>
+  </si>
+  <si>
+    <t>SUA704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silesia Air </t>
+  </si>
+  <si>
+    <t>(OK-XLS)</t>
+  </si>
+  <si>
+    <t>5:12 PM</t>
+  </si>
+  <si>
+    <t>(SP-LWC)</t>
+  </si>
+  <si>
+    <t>5:23 PM</t>
+  </si>
+  <si>
+    <t>6:02 PM</t>
+  </si>
+  <si>
+    <t>5:58 PM</t>
+  </si>
+  <si>
+    <t>FR8508</t>
+  </si>
+  <si>
+    <t>6:08 PM</t>
+  </si>
+  <si>
+    <t>(9H-IBJ)</t>
+  </si>
+  <si>
+    <t>(EI-EME)</t>
+  </si>
+  <si>
+    <t>(D-ACKJ)</t>
+  </si>
+  <si>
+    <t>6:49 PM</t>
+  </si>
+  <si>
+    <t>7:15 PM</t>
+  </si>
+  <si>
+    <t>7:45 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKY)</t>
+  </si>
+  <si>
+    <t>7:37 PM</t>
+  </si>
+  <si>
+    <t>(SP-RKC)</t>
+  </si>
+  <si>
+    <t>8:59 PM</t>
+  </si>
+  <si>
+    <t>(SP-LNM)</t>
+  </si>
+  <si>
+    <t>0 hours, 39 minutes</t>
+  </si>
+  <si>
+    <t>9:30 PM</t>
+  </si>
+  <si>
+    <t>LO9006</t>
+  </si>
+  <si>
+    <t>10:02 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM</t>
+  </si>
+  <si>
+    <t>Lajes</t>
+  </si>
+  <si>
+    <t>(TER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jet Story </t>
+  </si>
+  <si>
+    <t>CL35</t>
+  </si>
+  <si>
+    <t>(SP-WAA)</t>
+  </si>
+  <si>
+    <t>9:55 PM</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M220"/>
+  <dimension ref="A1:M271"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -10881,6 +11139,1893 @@
       </c>
       <c r="M220" s="0"/>
     </row>
+    <row r="221">
+      <c r="A221" t="n" s="0">
+        <v>220.0</v>
+      </c>
+      <c r="B221" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C221" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D221" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E221" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F221" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G221" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H221" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I221" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J221" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="K221" s="0"/>
+      <c r="L221" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M221" s="0"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="n" s="0">
+        <v>221.0</v>
+      </c>
+      <c r="B222" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C222" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D222" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E222" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F222" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G222" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H222" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I222" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="J222" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="K222" s="0"/>
+      <c r="L222" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M222" s="0"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="n" s="0">
+        <v>222.0</v>
+      </c>
+      <c r="B223" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C223" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D223" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="E223" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="F223" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="G223" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H223" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I223" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J223" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="K223" s="0"/>
+      <c r="L223" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M223" s="0"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="n" s="0">
+        <v>223.0</v>
+      </c>
+      <c r="B224" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C224" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D224" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F224" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G224" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H224" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I224" t="s" s="0">
+        <v>902</v>
+      </c>
+      <c r="J224" t="s" s="0">
+        <v>903</v>
+      </c>
+      <c r="K224" s="0"/>
+      <c r="L224" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M224" s="0"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="n" s="0">
+        <v>224.0</v>
+      </c>
+      <c r="B225" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C225" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D225" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E225" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F225" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G225" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H225" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I225" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J225" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K225" s="0"/>
+      <c r="L225" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M225" s="0"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="n" s="0">
+        <v>225.0</v>
+      </c>
+      <c r="B226" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C226" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D226" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E226" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F226" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G226" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H226" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I226" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J226" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="K226" s="0"/>
+      <c r="L226" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M226" s="0"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="n" s="0">
+        <v>226.0</v>
+      </c>
+      <c r="B227" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C227" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D227" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E227" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F227" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G227" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H227" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I227" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J227" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="K227" s="0"/>
+      <c r="L227" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M227" s="0"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="n" s="0">
+        <v>227.0</v>
+      </c>
+      <c r="B228" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D228" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E228" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F228" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G228" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H228" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I228" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J228" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="K228" s="0"/>
+      <c r="L228" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M228" s="0"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="n" s="0">
+        <v>228.0</v>
+      </c>
+      <c r="B229" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C229" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="D229" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="E229" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="F229" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="G229" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H229" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I229" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J229" t="s" s="0">
+        <v>907</v>
+      </c>
+      <c r="K229" s="0"/>
+      <c r="L229" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M229" s="0"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="n" s="0">
+        <v>229.0</v>
+      </c>
+      <c r="B230" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C230" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D230" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E230" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F230" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G230" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H230" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I230" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="J230" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K230" s="0"/>
+      <c r="L230" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M230" s="0"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="n" s="0">
+        <v>230.0</v>
+      </c>
+      <c r="B231" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C231" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D231" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E231" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F231" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G231" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H231" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I231" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J231" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="K231" s="0"/>
+      <c r="L231" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M231" s="0"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="n" s="0">
+        <v>231.0</v>
+      </c>
+      <c r="B232" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C232" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D232" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E232" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F232" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G232" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H232" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I232" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="J232" t="s" s="0">
+        <v>911</v>
+      </c>
+      <c r="K232" s="0"/>
+      <c r="L232" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M232" s="0"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="n" s="0">
+        <v>232.0</v>
+      </c>
+      <c r="B233" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C233" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="D233" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E233" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F233" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="G233" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H233" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I233" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J233" t="s" s="0">
+        <v>913</v>
+      </c>
+      <c r="K233" s="0"/>
+      <c r="L233" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M233" s="0"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="n" s="0">
+        <v>233.0</v>
+      </c>
+      <c r="B234" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C234" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D234" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E234" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F234" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G234" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H234" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I234" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="J234" t="s" s="0">
+        <v>914</v>
+      </c>
+      <c r="K234" s="0"/>
+      <c r="L234" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M234" s="0"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="n" s="0">
+        <v>234.0</v>
+      </c>
+      <c r="B235" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C235" t="s" s="0">
+        <v>915</v>
+      </c>
+      <c r="D235" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E235" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="F235" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="G235" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H235" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I235" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="J235" t="s" s="0">
+        <v>754</v>
+      </c>
+      <c r="K235" s="0"/>
+      <c r="L235" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M235" s="0"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="n" s="0">
+        <v>235.0</v>
+      </c>
+      <c r="B236" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C236" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="D236" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E236" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F236" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G236" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H236" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I236" t="s" s="0">
+        <v>918</v>
+      </c>
+      <c r="J236" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="K236" s="0"/>
+      <c r="L236" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M236" s="0"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n" s="0">
+        <v>236.0</v>
+      </c>
+      <c r="B237" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C237" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D237" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E237" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F237" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G237" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H237" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I237" t="s" s="0">
+        <v>919</v>
+      </c>
+      <c r="J237" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K237" s="0"/>
+      <c r="L237" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M237" s="0"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="n" s="0">
+        <v>237.0</v>
+      </c>
+      <c r="B238" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C238" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="D238" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E238" t="s" s="0">
+        <v>921</v>
+      </c>
+      <c r="F238" t="s" s="0">
+        <v>922</v>
+      </c>
+      <c r="G238" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="H238" t="s" s="0">
+        <v>924</v>
+      </c>
+      <c r="I238" t="s" s="0">
+        <v>925</v>
+      </c>
+      <c r="J238" t="s" s="0">
+        <v>926</v>
+      </c>
+      <c r="K238" s="0"/>
+      <c r="L238" t="s" s="0">
+        <v>927</v>
+      </c>
+      <c r="M238" s="0"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n" s="0">
+        <v>238.0</v>
+      </c>
+      <c r="B239" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C239" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D239" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E239" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F239" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G239" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H239" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I239" t="s" s="0">
+        <v>928</v>
+      </c>
+      <c r="J239" t="s" s="0">
+        <v>929</v>
+      </c>
+      <c r="K239" s="0"/>
+      <c r="L239" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M239" s="0"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="n" s="0">
+        <v>239.0</v>
+      </c>
+      <c r="B240" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C240" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="D240" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E240" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F240" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G240" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H240" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I240" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J240" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="K240" s="0"/>
+      <c r="L240" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M240" s="0"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="n" s="0">
+        <v>240.0</v>
+      </c>
+      <c r="B241" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C241" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="D241" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E241" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F241" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G241" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H241" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I241" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J241" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="K241" s="0"/>
+      <c r="L241" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M241" s="0"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="n" s="0">
+        <v>241.0</v>
+      </c>
+      <c r="B242" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C242" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D242" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="E242" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F242" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G242" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H242" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I242" t="s" s="0">
+        <v>932</v>
+      </c>
+      <c r="J242" t="s" s="0">
+        <v>933</v>
+      </c>
+      <c r="K242" s="0"/>
+      <c r="L242" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M242" s="0"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="n" s="0">
+        <v>242.0</v>
+      </c>
+      <c r="B243" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C243" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D243" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E243" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F243" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G243" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H243" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I243" t="s" s="0">
+        <v>934</v>
+      </c>
+      <c r="J243" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="K243" s="0"/>
+      <c r="L243" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="M243" s="0"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="n" s="0">
+        <v>243.0</v>
+      </c>
+      <c r="B244" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C244" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D244" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E244" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F244" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G244" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H244" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I244" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="J244" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="K244" s="0"/>
+      <c r="L244" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M244" s="0"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="n" s="0">
+        <v>244.0</v>
+      </c>
+      <c r="B245" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C245" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="D245" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E245" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F245" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G245" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H245" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I245" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J245" t="s" s="0">
+        <v>937</v>
+      </c>
+      <c r="K245" s="0"/>
+      <c r="L245" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M245" s="0"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="n" s="0">
+        <v>245.0</v>
+      </c>
+      <c r="B246" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C246" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="D246" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E246" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="F246" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="G246" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H246" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I246" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J246" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="K246" s="0"/>
+      <c r="L246" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M246" s="0"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="n" s="0">
+        <v>246.0</v>
+      </c>
+      <c r="B247" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C247" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="D247" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="E247" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F247" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G247" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H247" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I247" t="s" s="0">
+        <v>940</v>
+      </c>
+      <c r="J247" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="K247" s="0"/>
+      <c r="L247" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M247" s="0"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="n" s="0">
+        <v>247.0</v>
+      </c>
+      <c r="B248" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C248" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D248" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E248" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F248" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="G248" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H248" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I248" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J248" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="K248" s="0"/>
+      <c r="L248" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M248" s="0"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="n" s="0">
+        <v>248.0</v>
+      </c>
+      <c r="B249" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C249" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D249" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E249" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F249" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G249" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H249" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I249" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="J249" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="K249" s="0"/>
+      <c r="L249" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M249" s="0"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="n" s="0">
+        <v>249.0</v>
+      </c>
+      <c r="B250" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C250" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D250" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E250" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F250" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G250" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H250" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I250" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J250" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K250" s="0"/>
+      <c r="L250" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M250" s="0"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="n" s="0">
+        <v>250.0</v>
+      </c>
+      <c r="B251" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C251" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D251" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E251" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F251" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G251" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H251" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I251" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="J251" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="K251" s="0"/>
+      <c r="L251" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M251" s="0"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="n" s="0">
+        <v>251.0</v>
+      </c>
+      <c r="B252" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C252" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D252" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E252" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F252" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G252" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H252" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I252" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="J252" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="K252" s="0"/>
+      <c r="L252" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M252" s="0"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="n" s="0">
+        <v>252.0</v>
+      </c>
+      <c r="B253" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C253" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D253" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="E253" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="F253" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="G253" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H253" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I253" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J253" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="K253" s="0"/>
+      <c r="L253" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M253" s="0"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="n" s="0">
+        <v>253.0</v>
+      </c>
+      <c r="B254" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C254" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D254" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E254" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F254" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G254" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H254" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I254" t="s" s="0">
+        <v>947</v>
+      </c>
+      <c r="J254" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="K254" s="0"/>
+      <c r="L254" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M254" s="0"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="n" s="0">
+        <v>254.0</v>
+      </c>
+      <c r="B255" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C255" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D255" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E255" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F255" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G255" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H255" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I255" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J255" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="K255" s="0"/>
+      <c r="L255" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M255" s="0"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="n" s="0">
+        <v>255.0</v>
+      </c>
+      <c r="B256" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C256" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D256" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E256" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F256" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G256" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H256" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I256" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="J256" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K256" s="0"/>
+      <c r="L256" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M256" s="0"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="B257" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C257" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="D257" t="s" s="0">
+        <v>949</v>
+      </c>
+      <c r="E257" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="F257" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="G257" t="s" s="0">
+        <v>950</v>
+      </c>
+      <c r="H257" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="I257" t="s" s="0">
+        <v>951</v>
+      </c>
+      <c r="J257" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="K257" s="0"/>
+      <c r="L257" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M257" s="0"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="n" s="0">
+        <v>257.0</v>
+      </c>
+      <c r="B258" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C258" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D258" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E258" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F258" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G258" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H258" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I258" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="J258" t="s" s="0">
+        <v>954</v>
+      </c>
+      <c r="K258" s="0"/>
+      <c r="L258" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M258" s="0"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="n" s="0">
+        <v>258.0</v>
+      </c>
+      <c r="B259" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C259" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="D259" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E259" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F259" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G259" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H259" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I259" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J259" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="K259" s="0"/>
+      <c r="L259" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M259" s="0"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="n" s="0">
+        <v>259.0</v>
+      </c>
+      <c r="B260" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C260" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="D260" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E260" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F260" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G260" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H260" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I260" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J260" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="K260" s="0"/>
+      <c r="L260" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M260" s="0"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="n" s="0">
+        <v>260.0</v>
+      </c>
+      <c r="B261" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C261" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D261" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E261" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F261" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G261" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H261" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I261" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J261" t="s" s="0">
+        <v>956</v>
+      </c>
+      <c r="K261" s="0"/>
+      <c r="L261" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M261" s="0"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="n" s="0">
+        <v>261.0</v>
+      </c>
+      <c r="B262" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C262" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D262" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="E262" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F262" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G262" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H262" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I262" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J262" t="s" s="0">
+        <v>958</v>
+      </c>
+      <c r="K262" s="0"/>
+      <c r="L262" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M262" s="0"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="n" s="0">
+        <v>262.0</v>
+      </c>
+      <c r="B263" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C263" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D263" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E263" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F263" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G263" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H263" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I263" t="s" s="0">
+        <v>959</v>
+      </c>
+      <c r="J263" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="K263" s="0"/>
+      <c r="L263" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M263" s="0"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="n" s="0">
+        <v>263.0</v>
+      </c>
+      <c r="B264" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C264" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D264" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E264" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F264" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G264" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H264" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I264" t="s" s="0">
+        <v>960</v>
+      </c>
+      <c r="J264" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="K264" s="0"/>
+      <c r="L264" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M264" s="0"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="B265" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C265" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D265" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E265" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F265" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G265" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H265" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I265" t="s" s="0">
+        <v>961</v>
+      </c>
+      <c r="J265" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K265" s="0"/>
+      <c r="L265" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M265" s="0"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="n" s="0">
+        <v>265.0</v>
+      </c>
+      <c r="B266" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C266" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="D266" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E266" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F266" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G266" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H266" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I266" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J266" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="K266" s="0"/>
+      <c r="L266" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="M266" s="0"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="n" s="0">
+        <v>266.0</v>
+      </c>
+      <c r="B267" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C267" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="D267" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E267" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F267" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G267" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H267" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I267" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="J267" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="K267" s="0"/>
+      <c r="L267" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M267" s="0"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="n" s="0">
+        <v>267.0</v>
+      </c>
+      <c r="B268" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C268" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="D268" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E268" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="F268" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="G268" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H268" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I268" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J268" t="s" s="0">
+        <v>968</v>
+      </c>
+      <c r="K268" s="0"/>
+      <c r="L268" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M268" s="0"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="n" s="0">
+        <v>268.0</v>
+      </c>
+      <c r="B269" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C269" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D269" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E269" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F269" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G269" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H269" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I269" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="J269" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="K269" s="0"/>
+      <c r="L269" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="M269" s="0"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="n" s="0">
+        <v>269.0</v>
+      </c>
+      <c r="B270" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C270" t="s" s="0">
+        <v>971</v>
+      </c>
+      <c r="D270" t="s" s="0">
+        <v>972</v>
+      </c>
+      <c r="E270" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F270" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G270" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H270" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I270" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="J270" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="K270" s="0"/>
+      <c r="L270" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="M270" s="0"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="n" s="0">
+        <v>270.0</v>
+      </c>
+      <c r="B271" t="s" s="0">
+        <v>895</v>
+      </c>
+      <c r="C271" t="s" s="0">
+        <v>974</v>
+      </c>
+      <c r="D271" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E271" t="s" s="0">
+        <v>975</v>
+      </c>
+      <c r="F271" t="s" s="0">
+        <v>976</v>
+      </c>
+      <c r="G271" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="H271" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="I271" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="J271" t="s" s="0">
+        <v>980</v>
+      </c>
+      <c r="K271" s="0"/>
+      <c r="L271" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="M271" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1122">
   <si>
     <t>NUMBER</t>
   </si>
@@ -2955,6 +2955,429 @@
   </si>
   <si>
     <t>9:55 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 11</t>
+  </si>
+  <si>
+    <t>2 hours, 25 minutes</t>
+  </si>
+  <si>
+    <t>9:57 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 17 minutes</t>
+  </si>
+  <si>
+    <t>9:59 AM</t>
+  </si>
+  <si>
+    <t>(SP-LMC)</t>
+  </si>
+  <si>
+    <t>1 hours, 11 minutes</t>
+  </si>
+  <si>
+    <t>11:46 AM</t>
+  </si>
+  <si>
+    <t>(EI-EVB)</t>
+  </si>
+  <si>
+    <t>2 hours, 5 minutes</t>
+  </si>
+  <si>
+    <t>(D-AILM)</t>
+  </si>
+  <si>
+    <t>(A6-FMQ)</t>
+  </si>
+  <si>
+    <t>(SP-LME)</t>
+  </si>
+  <si>
+    <t>1:06 PM</t>
+  </si>
+  <si>
+    <t>(G-EUYG)</t>
+  </si>
+  <si>
+    <t>1:11 PM</t>
+  </si>
+  <si>
+    <t>(G-EZGN)</t>
+  </si>
+  <si>
+    <t>1:10 PM</t>
+  </si>
+  <si>
+    <t>(EI-DYY)</t>
+  </si>
+  <si>
+    <t>1:27 PM</t>
+  </si>
+  <si>
+    <t>(D-AIWF)</t>
+  </si>
+  <si>
+    <t>1:50 PM</t>
+  </si>
+  <si>
+    <t>(9H-QAT)</t>
+  </si>
+  <si>
+    <t>1:56 PM</t>
+  </si>
+  <si>
+    <t>W65073</t>
+  </si>
+  <si>
+    <t>3:56 PM</t>
+  </si>
+  <si>
+    <t>2:15 PM</t>
+  </si>
+  <si>
+    <t>2:32 PM</t>
+  </si>
+  <si>
+    <t>(9H-QAZ)</t>
+  </si>
+  <si>
+    <t>4:27 PM</t>
+  </si>
+  <si>
+    <t>4:20 PM</t>
+  </si>
+  <si>
+    <t>4:33 PM</t>
+  </si>
+  <si>
+    <t>FR4627</t>
+  </si>
+  <si>
+    <t>(9H-VUJ)</t>
+  </si>
+  <si>
+    <t>4:47 PM</t>
+  </si>
+  <si>
+    <t>4:54 PM</t>
+  </si>
+  <si>
+    <t>6:27 PM</t>
+  </si>
+  <si>
+    <t>6:58 PM</t>
+  </si>
+  <si>
+    <t>6:35 PM</t>
+  </si>
+  <si>
+    <t>AY1166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finnair (Oneworld Livery) </t>
+  </si>
+  <si>
+    <t>(OH-LVD)</t>
+  </si>
+  <si>
+    <t>7:31 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 51 minutes</t>
+  </si>
+  <si>
+    <t>(D-AISI)</t>
+  </si>
+  <si>
+    <t>6:47 PM</t>
+  </si>
+  <si>
+    <t>6:42 PM</t>
+  </si>
+  <si>
+    <t>7:03 PM</t>
+  </si>
+  <si>
+    <t>(9H-VUG)</t>
+  </si>
+  <si>
+    <t>7:14 PM</t>
+  </si>
+  <si>
+    <t>TO1923</t>
+  </si>
+  <si>
+    <t>Deauville</t>
+  </si>
+  <si>
+    <t>(DOL)</t>
+  </si>
+  <si>
+    <t>(F-GZHM)</t>
+  </si>
+  <si>
+    <t>8:11 PM</t>
+  </si>
+  <si>
+    <t>(EI-IFV)</t>
+  </si>
+  <si>
+    <t>9:10 PM</t>
+  </si>
+  <si>
+    <t>9:35 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>4:00 AM</t>
+  </si>
+  <si>
+    <t>Rzeszow</t>
+  </si>
+  <si>
+    <t>(RZE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airest </t>
+  </si>
+  <si>
+    <t>SF34</t>
+  </si>
+  <si>
+    <t>(ES-LSI)</t>
+  </si>
+  <si>
+    <t>4:16 AM</t>
+  </si>
+  <si>
+    <t>(SP-LMB)</t>
+  </si>
+  <si>
+    <t>5:48 AM</t>
+  </si>
+  <si>
+    <t>(PH-NXG)</t>
+  </si>
+  <si>
+    <t>6:24 AM</t>
+  </si>
+  <si>
+    <t>6:17 AM</t>
+  </si>
+  <si>
+    <t>6:29 AM</t>
+  </si>
+  <si>
+    <t>6:22 AM</t>
+  </si>
+  <si>
+    <t>(D-AIUB)</t>
+  </si>
+  <si>
+    <t>7:02 AM</t>
+  </si>
+  <si>
+    <t>6:40 AM</t>
+  </si>
+  <si>
+    <t>6:44 AM</t>
+  </si>
+  <si>
+    <t>7:17 AM</t>
+  </si>
+  <si>
+    <t>W65017</t>
+  </si>
+  <si>
+    <t>7:22 AM</t>
+  </si>
+  <si>
+    <t>(OE-LWA)</t>
+  </si>
+  <si>
+    <t>(D-AIZH)</t>
+  </si>
+  <si>
+    <t>7:50 AM</t>
+  </si>
+  <si>
+    <t>7:54 AM</t>
+  </si>
+  <si>
+    <t>8:49 AM</t>
+  </si>
+  <si>
+    <t>(9H-VUK)</t>
+  </si>
+  <si>
+    <t>9:18 AM</t>
+  </si>
+  <si>
+    <t>10:10 AM</t>
+  </si>
+  <si>
+    <t>(EI-HEW)</t>
+  </si>
+  <si>
+    <t>10:23 AM</t>
+  </si>
+  <si>
+    <t>11:12 AM</t>
+  </si>
+  <si>
+    <t>RK6248</t>
+  </si>
+  <si>
+    <t>(G-RUKD)</t>
+  </si>
+  <si>
+    <t>10:27 AM</t>
+  </si>
+  <si>
+    <t>(EI-HES)</t>
+  </si>
+  <si>
+    <t>11:02 AM</t>
+  </si>
+  <si>
+    <t>(SP-LVA)</t>
+  </si>
+  <si>
+    <t>12:21 PM</t>
+  </si>
+  <si>
+    <t>12:43 PM</t>
+  </si>
+  <si>
+    <t>(SE-RPE)</t>
+  </si>
+  <si>
+    <t>12:36 PM</t>
+  </si>
+  <si>
+    <t>12:40 PM</t>
+  </si>
+  <si>
+    <t>12:51 PM</t>
+  </si>
+  <si>
+    <t>(LN-DYJ)</t>
+  </si>
+  <si>
+    <t>12:53 PM</t>
+  </si>
+  <si>
+    <t>(D-AIEP)</t>
+  </si>
+  <si>
+    <t>1:31 PM</t>
+  </si>
+  <si>
+    <t>(G-EZBW)</t>
+  </si>
+  <si>
+    <t>(D-AIWH)</t>
+  </si>
+  <si>
+    <t>OU9368</t>
+  </si>
+  <si>
+    <t>Zagreb</t>
+  </si>
+  <si>
+    <t>(ZAG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia Airlines (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(9A-CTO)</t>
+  </si>
+  <si>
+    <t>2:05 PM</t>
+  </si>
+  <si>
+    <t>(EI-ENR)</t>
+  </si>
+  <si>
+    <t>2:11 PM</t>
+  </si>
+  <si>
+    <t>(LN-DYU)</t>
+  </si>
+  <si>
+    <t>2:47 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Sliwka Naleczowska Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LNC)</t>
+  </si>
+  <si>
+    <t>3:37 PM</t>
+  </si>
+  <si>
+    <t>U22118</t>
+  </si>
+  <si>
+    <t>(G-EZFT)</t>
+  </si>
+  <si>
+    <t>3:35 PM</t>
+  </si>
+  <si>
+    <t>3:26 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easyJet (Berlin Livery) </t>
+  </si>
+  <si>
+    <t>(OE-IZQ)</t>
+  </si>
+  <si>
+    <t>4:02 PM</t>
+  </si>
+  <si>
+    <t>(9H-QBD)</t>
+  </si>
+  <si>
+    <t>4:06 PM</t>
+  </si>
+  <si>
+    <t>(PH-EZO)</t>
+  </si>
+  <si>
+    <t>5:07 PM</t>
+  </si>
+  <si>
+    <t>5:19 PM</t>
+  </si>
+  <si>
+    <t>(9H-VUP)</t>
+  </si>
+  <si>
+    <t>(SP-LVB)</t>
+  </si>
+  <si>
+    <t>5:09 PM</t>
+  </si>
+  <si>
+    <t>5:57 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKV)</t>
+  </si>
+  <si>
+    <t>6:50 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 23 minutes</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +3422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M271"/>
+  <dimension ref="A1:M363"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -13026,6 +13449,3408 @@
       </c>
       <c r="M271" s="0"/>
     </row>
+    <row r="272">
+      <c r="A272" t="n" s="0">
+        <v>271.0</v>
+      </c>
+      <c r="B272" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C272" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D272" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E272" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F272" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G272" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H272" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I272" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J272" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="K272" s="0"/>
+      <c r="L272" t="s" s="0">
+        <v>982</v>
+      </c>
+      <c r="M272" s="0"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="n" s="0">
+        <v>272.0</v>
+      </c>
+      <c r="B273" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C273" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D273" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E273" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F273" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G273" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H273" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I273" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J273" t="s" s="0">
+        <v>983</v>
+      </c>
+      <c r="K273" s="0"/>
+      <c r="L273" t="s" s="0">
+        <v>984</v>
+      </c>
+      <c r="M273" s="0"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="n" s="0">
+        <v>273.0</v>
+      </c>
+      <c r="B274" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C274" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D274" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E274" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F274" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G274" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H274" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I274" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J274" t="s" s="0">
+        <v>985</v>
+      </c>
+      <c r="K274" s="0"/>
+      <c r="L274" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="M274" s="0"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="n" s="0">
+        <v>274.0</v>
+      </c>
+      <c r="B275" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C275" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D275" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E275" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F275" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G275" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H275" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I275" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="J275" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="K275" s="0"/>
+      <c r="L275" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="M275" s="0"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="n" s="0">
+        <v>275.0</v>
+      </c>
+      <c r="B276" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E276" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F276" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G276" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H276" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I276" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="J276" t="s" s="0">
+        <v>988</v>
+      </c>
+      <c r="K276" s="0"/>
+      <c r="L276" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M276" s="0"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="n" s="0">
+        <v>276.0</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E277" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F277" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G277" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H277" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I277" t="s" s="0">
+        <v>989</v>
+      </c>
+      <c r="J277" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="K277" s="0"/>
+      <c r="L277" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="M277" s="0"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="n" s="0">
+        <v>277.0</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E278" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F278" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G278" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H278" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I278" t="s" s="0">
+        <v>991</v>
+      </c>
+      <c r="J278" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="K278" s="0"/>
+      <c r="L278" s="0"/>
+      <c r="M278" s="0"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="n" s="0">
+        <v>278.0</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="E279" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="F279" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="G279" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H279" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I279" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J279" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="K279" s="0"/>
+      <c r="L279" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M279" s="0"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="n" s="0">
+        <v>279.0</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E280" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F280" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G280" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H280" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I280" t="s" s="0">
+        <v>992</v>
+      </c>
+      <c r="J280" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="K280" s="0"/>
+      <c r="L280" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M280" s="0"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E281" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F281" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G281" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H281" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I281" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="J281" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="K281" s="0"/>
+      <c r="L281" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M281" s="0"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="n" s="0">
+        <v>281.0</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D282" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E282" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F282" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G282" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H282" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I282" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J282" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="K282" s="0"/>
+      <c r="L282" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M282" s="0"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="n" s="0">
+        <v>282.0</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D283" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="E283" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F283" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G283" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H283" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I283" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J283" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="K283" s="0"/>
+      <c r="L283" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M283" s="0"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="n" s="0">
+        <v>283.0</v>
+      </c>
+      <c r="B284" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C284" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E284" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F284" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G284" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H284" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I284" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J284" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="K284" s="0"/>
+      <c r="L284" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M284" s="0"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="n" s="0">
+        <v>284.0</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D285" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E285" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F285" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G285" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H285" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I285" t="s" s="0">
+        <v>995</v>
+      </c>
+      <c r="J285" t="s" s="0">
+        <v>996</v>
+      </c>
+      <c r="K285" s="0"/>
+      <c r="L285" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M285" s="0"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="n" s="0">
+        <v>285.0</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D286" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E286" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F286" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G286" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H286" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I286" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J286" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="K286" s="0"/>
+      <c r="L286" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M286" s="0"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="n" s="0">
+        <v>286.0</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="D287" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="E287" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F287" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G287" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H287" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I287" t="s" s="0">
+        <v>997</v>
+      </c>
+      <c r="J287" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="K287" s="0"/>
+      <c r="L287" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M287" s="0"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="n" s="0">
+        <v>287.0</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="D288" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="E288" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="F288" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="G288" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H288" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I288" t="s" s="0">
+        <v>999</v>
+      </c>
+      <c r="J288" t="s" s="0">
+        <v>1000</v>
+      </c>
+      <c r="K288" s="0"/>
+      <c r="L288" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M288" s="0"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E289" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F289" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G289" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H289" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I289" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="J289" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="K289" s="0"/>
+      <c r="L289" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="M289" s="0"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="n" s="0">
+        <v>289.0</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="D290" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E290" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F290" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G290" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H290" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I290" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="J290" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="K290" s="0"/>
+      <c r="L290" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M290" s="0"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="n" s="0">
+        <v>290.0</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D291" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E291" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="F291" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G291" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H291" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I291" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J291" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="K291" s="0"/>
+      <c r="L291" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M291" s="0"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="B292" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C292" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D292" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="E292" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F292" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G292" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H292" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I292" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J292" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="K292" s="0"/>
+      <c r="L292" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="M292" s="0"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="n" s="0">
+        <v>292.0</v>
+      </c>
+      <c r="B293" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C293" t="s" s="0">
+        <v>1007</v>
+      </c>
+      <c r="D293" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E293" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F293" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G293" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H293" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I293" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J293" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="K293" s="0"/>
+      <c r="L293" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M293" s="0"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="n" s="0">
+        <v>293.0</v>
+      </c>
+      <c r="B294" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C294" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D294" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E294" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F294" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G294" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H294" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I294" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="J294" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="K294" s="0"/>
+      <c r="L294" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M294" s="0"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="n" s="0">
+        <v>294.0</v>
+      </c>
+      <c r="B295" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C295" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D295" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E295" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F295" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G295" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H295" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I295" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="J295" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="K295" s="0"/>
+      <c r="L295" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M295" s="0"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="n" s="0">
+        <v>295.0</v>
+      </c>
+      <c r="B296" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C296" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D296" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E296" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F296" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G296" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H296" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I296" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J296" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="K296" s="0"/>
+      <c r="L296" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M296" s="0"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="n" s="0">
+        <v>296.0</v>
+      </c>
+      <c r="B297" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C297" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D297" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="E297" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="F297" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="G297" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H297" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I297" t="s" s="0">
+        <v>1009</v>
+      </c>
+      <c r="J297" t="s" s="0">
+        <v>1010</v>
+      </c>
+      <c r="K297" s="0"/>
+      <c r="L297" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M297" s="0"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="n" s="0">
+        <v>297.0</v>
+      </c>
+      <c r="B298" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C298" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D298" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E298" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F298" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G298" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H298" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I298" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J298" t="s" s="0">
+        <v>1012</v>
+      </c>
+      <c r="K298" s="0"/>
+      <c r="L298" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M298" s="0"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="n" s="0">
+        <v>298.0</v>
+      </c>
+      <c r="B299" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C299" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D299" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="E299" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F299" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G299" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H299" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I299" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="J299" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="K299" s="0"/>
+      <c r="L299" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M299" s="0"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="n" s="0">
+        <v>299.0</v>
+      </c>
+      <c r="B300" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C300" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D300" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E300" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F300" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G300" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H300" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I300" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="J300" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="K300" s="0"/>
+      <c r="L300" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M300" s="0"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="n" s="0">
+        <v>300.0</v>
+      </c>
+      <c r="B301" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C301" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D301" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E301" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F301" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G301" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H301" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I301" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="J301" t="s" s="0">
+        <v>952</v>
+      </c>
+      <c r="K301" s="0"/>
+      <c r="L301" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M301" s="0"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="n" s="0">
+        <v>301.0</v>
+      </c>
+      <c r="B302" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C302" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="D302" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E302" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F302" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G302" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H302" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I302" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J302" t="s" s="0">
+        <v>1017</v>
+      </c>
+      <c r="K302" s="0"/>
+      <c r="L302" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M302" s="0"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="n" s="0">
+        <v>302.0</v>
+      </c>
+      <c r="B303" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C303" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D303" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E303" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F303" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G303" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H303" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I303" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J303" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="K303" s="0"/>
+      <c r="L303" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M303" s="0"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="n" s="0">
+        <v>303.0</v>
+      </c>
+      <c r="B304" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C304" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D304" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="E304" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F304" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G304" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H304" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I304" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J304" t="s" s="0">
+        <v>1018</v>
+      </c>
+      <c r="K304" s="0"/>
+      <c r="L304" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M304" s="0"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="n" s="0">
+        <v>304.0</v>
+      </c>
+      <c r="B305" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C305" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="D305" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E305" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F305" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G305" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H305" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I305" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J305" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="K305" s="0"/>
+      <c r="L305" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M305" s="0"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="n" s="0">
+        <v>305.0</v>
+      </c>
+      <c r="B306" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C306" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D306" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="E306" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F306" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G306" t="s" s="0">
+        <v>1021</v>
+      </c>
+      <c r="H306" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I306" t="s" s="0">
+        <v>1022</v>
+      </c>
+      <c r="J306" t="s" s="0">
+        <v>1023</v>
+      </c>
+      <c r="K306" s="0"/>
+      <c r="L306" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M306" s="0"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="n" s="0">
+        <v>306.0</v>
+      </c>
+      <c r="B307" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C307" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D307" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E307" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F307" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G307" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H307" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I307" t="s" s="0">
+        <v>1025</v>
+      </c>
+      <c r="J307" t="s" s="0">
+        <v>1026</v>
+      </c>
+      <c r="K307" s="0"/>
+      <c r="L307" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M307" s="0"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="n" s="0">
+        <v>307.0</v>
+      </c>
+      <c r="B308" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C308" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D308" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E308" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F308" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G308" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H308" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I308" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J308" t="s" s="0">
+        <v>1027</v>
+      </c>
+      <c r="K308" s="0"/>
+      <c r="L308" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M308" s="0"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="B309" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C309" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D309" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="E309" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F309" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="G309" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H309" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I309" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J309" t="s" s="0">
+        <v>1028</v>
+      </c>
+      <c r="K309" s="0"/>
+      <c r="L309" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M309" s="0"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="n" s="0">
+        <v>309.0</v>
+      </c>
+      <c r="B310" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C310" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D310" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E310" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F310" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G310" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H310" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I310" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J310" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="K310" s="0"/>
+      <c r="L310" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M310" s="0"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="B311" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C311" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D311" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E311" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F311" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G311" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H311" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I311" t="s" s="0">
+        <v>1029</v>
+      </c>
+      <c r="J311" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="K311" s="0"/>
+      <c r="L311" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M311" s="0"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="n" s="0">
+        <v>311.0</v>
+      </c>
+      <c r="B312" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C312" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="D312" t="s" s="0">
+        <v>1031</v>
+      </c>
+      <c r="E312" t="s" s="0">
+        <v>1032</v>
+      </c>
+      <c r="F312" t="s" s="0">
+        <v>1033</v>
+      </c>
+      <c r="G312" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="H312" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I312" t="s" s="0">
+        <v>1034</v>
+      </c>
+      <c r="J312" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="K312" s="0"/>
+      <c r="L312" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M312" s="0"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="n" s="0">
+        <v>312.0</v>
+      </c>
+      <c r="B313" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C313" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D313" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E313" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F313" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G313" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H313" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I313" t="s" s="0">
+        <v>1036</v>
+      </c>
+      <c r="J313" t="s" s="0">
+        <v>1037</v>
+      </c>
+      <c r="K313" s="0"/>
+      <c r="L313" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M313" s="0"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="n" s="0">
+        <v>313.0</v>
+      </c>
+      <c r="B314" t="s" s="0">
+        <v>981</v>
+      </c>
+      <c r="C314" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D314" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E314" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F314" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G314" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H314" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I314" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="J314" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="K314" s="0"/>
+      <c r="L314" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M314" s="0"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="n" s="0">
+        <v>314.0</v>
+      </c>
+      <c r="B315" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C315" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="D315" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E315" t="s" s="0">
+        <v>1041</v>
+      </c>
+      <c r="F315" t="s" s="0">
+        <v>1042</v>
+      </c>
+      <c r="G315" t="s" s="0">
+        <v>1043</v>
+      </c>
+      <c r="H315" t="s" s="0">
+        <v>1044</v>
+      </c>
+      <c r="I315" t="s" s="0">
+        <v>1045</v>
+      </c>
+      <c r="J315" t="s" s="0">
+        <v>1046</v>
+      </c>
+      <c r="K315" s="0"/>
+      <c r="L315" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M315" s="0"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="n" s="0">
+        <v>315.0</v>
+      </c>
+      <c r="B316" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C316" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D316" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E316" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F316" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G316" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H316" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I316" t="s" s="0">
+        <v>1047</v>
+      </c>
+      <c r="J316" t="s" s="0">
+        <v>1048</v>
+      </c>
+      <c r="K316" s="0"/>
+      <c r="L316" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M316" s="0"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="n" s="0">
+        <v>316.0</v>
+      </c>
+      <c r="B317" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C317" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D317" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E317" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F317" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G317" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H317" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I317" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="J317" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="K317" s="0"/>
+      <c r="L317" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M317" s="0"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="n" s="0">
+        <v>317.0</v>
+      </c>
+      <c r="B318" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C318" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D318" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="E318" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="F318" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="G318" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H318" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I318" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J318" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="K318" s="0"/>
+      <c r="L318" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M318" s="0"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="n" s="0">
+        <v>318.0</v>
+      </c>
+      <c r="B319" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C319" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D319" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E319" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F319" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G319" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H319" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I319" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J319" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="K319" s="0"/>
+      <c r="L319" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M319" s="0"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="n" s="0">
+        <v>319.0</v>
+      </c>
+      <c r="B320" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C320" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D320" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E320" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F320" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G320" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H320" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I320" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J320" t="s" s="0">
+        <v>1053</v>
+      </c>
+      <c r="K320" s="0"/>
+      <c r="L320" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M320" s="0"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="n" s="0">
+        <v>320.0</v>
+      </c>
+      <c r="B321" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C321" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D321" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E321" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F321" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G321" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H321" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I321" t="s" s="0">
+        <v>1054</v>
+      </c>
+      <c r="J321" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="K321" s="0"/>
+      <c r="L321" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="M321" s="0"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="n" s="0">
+        <v>321.0</v>
+      </c>
+      <c r="B322" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C322" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D322" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="E322" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="F322" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="G322" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H322" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I322" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J322" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="K322" s="0"/>
+      <c r="L322" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M322" s="0"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="n" s="0">
+        <v>322.0</v>
+      </c>
+      <c r="B323" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C323" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D323" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E323" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F323" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G323" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H323" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I323" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J323" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K323" s="0"/>
+      <c r="L323" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M323" s="0"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="n" s="0">
+        <v>323.0</v>
+      </c>
+      <c r="B324" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C324" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D324" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E324" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F324" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G324" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H324" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I324" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J324" t="s" s="0">
+        <v>1058</v>
+      </c>
+      <c r="K324" s="0"/>
+      <c r="L324" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M324" s="0"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="n" s="0">
+        <v>324.0</v>
+      </c>
+      <c r="B325" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C325" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D325" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="E325" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F325" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G325" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H325" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I325" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J325" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="K325" s="0"/>
+      <c r="L325" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M325" s="0"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="n" s="0">
+        <v>325.0</v>
+      </c>
+      <c r="B326" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C326" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D326" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E326" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F326" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G326" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H326" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I326" t="s" s="0">
+        <v>1061</v>
+      </c>
+      <c r="J326" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="K326" s="0"/>
+      <c r="L326" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M326" s="0"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="n" s="0">
+        <v>326.0</v>
+      </c>
+      <c r="B327" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C327" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D327" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E327" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F327" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G327" t="s" s="0">
+        <v>792</v>
+      </c>
+      <c r="H327" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I327" t="s" s="0">
+        <v>1062</v>
+      </c>
+      <c r="J327" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="K327" s="0"/>
+      <c r="L327" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M327" s="0"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="n" s="0">
+        <v>327.0</v>
+      </c>
+      <c r="B328" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C328" t="s" s="0">
+        <v>1063</v>
+      </c>
+      <c r="D328" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E328" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="F328" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="G328" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H328" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I328" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J328" t="s" s="0">
+        <v>1064</v>
+      </c>
+      <c r="K328" s="0"/>
+      <c r="L328" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M328" s="0"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="n" s="0">
+        <v>328.0</v>
+      </c>
+      <c r="B329" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C329" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="D329" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E329" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F329" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="G329" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H329" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I329" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J329" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="K329" s="0"/>
+      <c r="L329" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M329" s="0"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="n" s="0">
+        <v>329.0</v>
+      </c>
+      <c r="B330" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C330" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D330" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E330" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F330" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G330" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H330" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I330" t="s" s="0">
+        <v>700</v>
+      </c>
+      <c r="J330" t="s" s="0">
+        <v>1065</v>
+      </c>
+      <c r="K330" s="0"/>
+      <c r="L330" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M330" s="0"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="n" s="0">
+        <v>330.0</v>
+      </c>
+      <c r="B331" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C331" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="D331" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E331" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F331" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G331" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H331" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I331" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="J331" t="s" s="0">
+        <v>1067</v>
+      </c>
+      <c r="K331" s="0"/>
+      <c r="L331" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M331" s="0"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="n" s="0">
+        <v>331.0</v>
+      </c>
+      <c r="B332" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C332" t="s" s="0">
+        <v>1068</v>
+      </c>
+      <c r="D332" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E332" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F332" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G332" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H332" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I332" t="s" s="0">
+        <v>1069</v>
+      </c>
+      <c r="J332" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="K332" s="0"/>
+      <c r="L332" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M332" s="0"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="n" s="0">
+        <v>332.0</v>
+      </c>
+      <c r="B333" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C333" t="s" s="0">
+        <v>1068</v>
+      </c>
+      <c r="D333" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E333" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F333" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G333" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H333" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I333" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J333" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="K333" s="0"/>
+      <c r="L333" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M333" s="0"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="n" s="0">
+        <v>333.0</v>
+      </c>
+      <c r="B334" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C334" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="D334" t="s" s="0">
+        <v>1072</v>
+      </c>
+      <c r="E334" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F334" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G334" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H334" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I334" t="s" s="0">
+        <v>1073</v>
+      </c>
+      <c r="J334" t="s" s="0">
+        <v>1074</v>
+      </c>
+      <c r="K334" s="0"/>
+      <c r="L334" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M334" s="0"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="n" s="0">
+        <v>334.0</v>
+      </c>
+      <c r="B335" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C335" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="D335" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E335" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F335" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G335" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H335" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I335" t="s" s="0">
+        <v>1075</v>
+      </c>
+      <c r="J335" t="s" s="0">
+        <v>1076</v>
+      </c>
+      <c r="K335" s="0"/>
+      <c r="L335" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M335" s="0"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="n" s="0">
+        <v>335.0</v>
+      </c>
+      <c r="B336" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C336" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="D336" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E336" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F336" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G336" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H336" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I336" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J336" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="K336" s="0"/>
+      <c r="L336" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M336" s="0"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="B337" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C337" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D337" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E337" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F337" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G337" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H337" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I337" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="J337" t="s" s="0">
+        <v>1078</v>
+      </c>
+      <c r="K337" s="0"/>
+      <c r="L337" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M337" s="0"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="n" s="0">
+        <v>337.0</v>
+      </c>
+      <c r="B338" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C338" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D338" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E338" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F338" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G338" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H338" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I338" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J338" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="K338" s="0"/>
+      <c r="L338" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M338" s="0"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="n" s="0">
+        <v>338.0</v>
+      </c>
+      <c r="B339" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C339" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D339" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="E339" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F339" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G339" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H339" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I339" t="s" s="0">
+        <v>1080</v>
+      </c>
+      <c r="J339" t="s" s="0">
+        <v>1081</v>
+      </c>
+      <c r="K339" s="0"/>
+      <c r="L339" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M339" s="0"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="n" s="0">
+        <v>339.0</v>
+      </c>
+      <c r="B340" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C340" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="D340" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="E340" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F340" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="G340" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H340" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I340" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J340" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="K340" s="0"/>
+      <c r="L340" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M340" s="0"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="n" s="0">
+        <v>340.0</v>
+      </c>
+      <c r="B341" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C341" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D341" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E341" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F341" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G341" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H341" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I341" t="s" s="0">
+        <v>1084</v>
+      </c>
+      <c r="J341" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="K341" s="0"/>
+      <c r="L341" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M341" s="0"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="n" s="0">
+        <v>341.0</v>
+      </c>
+      <c r="B342" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C342" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D342" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="E342" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F342" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G342" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H342" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I342" t="s" s="0">
+        <v>1086</v>
+      </c>
+      <c r="J342" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K342" s="0"/>
+      <c r="L342" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="M342" s="0"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="n" s="0">
+        <v>342.0</v>
+      </c>
+      <c r="B343" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C343" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="D343" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="E343" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F343" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G343" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H343" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I343" t="s" s="0">
+        <v>1088</v>
+      </c>
+      <c r="J343" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="K343" s="0"/>
+      <c r="L343" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M343" s="0"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="n" s="0">
+        <v>343.0</v>
+      </c>
+      <c r="B344" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C344" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D344" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E344" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F344" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G344" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H344" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I344" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J344" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="K344" s="0"/>
+      <c r="L344" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M344" s="0"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="n" s="0">
+        <v>344.0</v>
+      </c>
+      <c r="B345" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C345" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D345" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E345" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F345" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G345" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H345" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I345" t="s" s="0">
+        <v>1089</v>
+      </c>
+      <c r="J345" t="s" s="0">
+        <v>807</v>
+      </c>
+      <c r="K345" s="0"/>
+      <c r="L345" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M345" s="0"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="n" s="0">
+        <v>345.0</v>
+      </c>
+      <c r="B346" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C346" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="D346" t="s" s="0">
+        <v>1090</v>
+      </c>
+      <c r="E346" t="s" s="0">
+        <v>1091</v>
+      </c>
+      <c r="F346" t="s" s="0">
+        <v>1092</v>
+      </c>
+      <c r="G346" t="s" s="0">
+        <v>1093</v>
+      </c>
+      <c r="H346" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I346" t="s" s="0">
+        <v>1094</v>
+      </c>
+      <c r="J346" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="K346" s="0"/>
+      <c r="L346" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M346" s="0"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="n" s="0">
+        <v>346.0</v>
+      </c>
+      <c r="B347" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C347" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="D347" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="E347" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="F347" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="G347" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H347" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I347" t="s" s="0">
+        <v>1096</v>
+      </c>
+      <c r="J347" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="K347" s="0"/>
+      <c r="L347" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M347" s="0"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="n" s="0">
+        <v>347.0</v>
+      </c>
+      <c r="B348" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C348" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="D348" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="E348" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="F348" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="G348" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H348" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I348" t="s" s="0">
+        <v>1098</v>
+      </c>
+      <c r="J348" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="K348" s="0"/>
+      <c r="L348" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M348" s="0"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="n" s="0">
+        <v>348.0</v>
+      </c>
+      <c r="B349" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C349" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="D349" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E349" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F349" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G349" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="H349" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I349" t="s" s="0">
+        <v>1101</v>
+      </c>
+      <c r="J349" t="s" s="0">
+        <v>1102</v>
+      </c>
+      <c r="K349" s="0"/>
+      <c r="L349" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M349" s="0"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="n" s="0">
+        <v>349.0</v>
+      </c>
+      <c r="B350" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C350" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="D350" t="s" s="0">
+        <v>1103</v>
+      </c>
+      <c r="E350" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F350" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G350" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H350" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I350" t="s" s="0">
+        <v>1104</v>
+      </c>
+      <c r="J350" t="s" s="0">
+        <v>1105</v>
+      </c>
+      <c r="K350" s="0"/>
+      <c r="L350" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M350" s="0"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="n" s="0">
+        <v>350.0</v>
+      </c>
+      <c r="B351" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C351" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="D351" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E351" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F351" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G351" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H351" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I351" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J351" t="s" s="0">
+        <v>1106</v>
+      </c>
+      <c r="K351" s="0"/>
+      <c r="L351" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M351" s="0"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="n" s="0">
+        <v>351.0</v>
+      </c>
+      <c r="B352" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C352" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D352" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E352" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F352" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G352" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H352" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I352" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="J352" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="K352" s="0"/>
+      <c r="L352" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M352" s="0"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="n" s="0">
+        <v>352.0</v>
+      </c>
+      <c r="B353" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C353" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D353" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E353" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F353" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G353" t="s" s="0">
+        <v>1107</v>
+      </c>
+      <c r="H353" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I353" t="s" s="0">
+        <v>1108</v>
+      </c>
+      <c r="J353" t="s" s="0">
+        <v>1109</v>
+      </c>
+      <c r="K353" s="0"/>
+      <c r="L353" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M353" s="0"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="n" s="0">
+        <v>353.0</v>
+      </c>
+      <c r="B354" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C354" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="D354" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="E354" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="F354" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="G354" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H354" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I354" t="s" s="0">
+        <v>1110</v>
+      </c>
+      <c r="J354" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="K354" s="0"/>
+      <c r="L354" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M354" s="0"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="n" s="0">
+        <v>354.0</v>
+      </c>
+      <c r="B355" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C355" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D355" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="E355" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F355" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G355" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H355" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I355" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J355" t="s" s="0">
+        <v>1111</v>
+      </c>
+      <c r="K355" s="0"/>
+      <c r="L355" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M355" s="0"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="n" s="0">
+        <v>355.0</v>
+      </c>
+      <c r="B356" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C356" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="D356" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E356" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F356" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G356" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H356" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I356" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J356" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="K356" s="0"/>
+      <c r="L356" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M356" s="0"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="n" s="0">
+        <v>356.0</v>
+      </c>
+      <c r="B357" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C357" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D357" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E357" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F357" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G357" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H357" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I357" t="s" s="0">
+        <v>1112</v>
+      </c>
+      <c r="J357" t="s" s="0">
+        <v>1113</v>
+      </c>
+      <c r="K357" s="0"/>
+      <c r="L357" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M357" s="0"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="n" s="0">
+        <v>357.0</v>
+      </c>
+      <c r="B358" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C358" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="D358" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E358" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F358" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G358" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H358" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I358" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J358" t="s" s="0">
+        <v>1114</v>
+      </c>
+      <c r="K358" s="0"/>
+      <c r="L358" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M358" s="0"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="n" s="0">
+        <v>358.0</v>
+      </c>
+      <c r="B359" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C359" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="D359" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="E359" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="F359" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="G359" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H359" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I359" t="s" s="0">
+        <v>1115</v>
+      </c>
+      <c r="J359" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="K359" s="0"/>
+      <c r="L359" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="M359" s="0"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="n" s="0">
+        <v>359.0</v>
+      </c>
+      <c r="B360" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C360" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D360" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E360" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F360" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G360" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H360" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I360" t="s" s="0">
+        <v>1116</v>
+      </c>
+      <c r="J360" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="K360" s="0"/>
+      <c r="L360" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M360" s="0"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="n" s="0">
+        <v>360.0</v>
+      </c>
+      <c r="B361" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C361" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D361" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E361" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F361" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G361" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H361" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I361" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J361" t="s" s="0">
+        <v>1118</v>
+      </c>
+      <c r="K361" s="0"/>
+      <c r="L361" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M361" s="0"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="n" s="0">
+        <v>361.0</v>
+      </c>
+      <c r="B362" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C362" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D362" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E362" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="F362" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="G362" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H362" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I362" t="s" s="0">
+        <v>1119</v>
+      </c>
+      <c r="J362" t="s" s="0">
+        <v>1017</v>
+      </c>
+      <c r="K362" s="0"/>
+      <c r="L362" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="M362" s="0"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="n" s="0">
+        <v>362.0</v>
+      </c>
+      <c r="B363" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C363" t="s" s="0">
+        <v>1120</v>
+      </c>
+      <c r="D363" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="E363" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="F363" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="G363" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H363" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I363" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J363" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="K363" s="0"/>
+      <c r="L363" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M363" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3628" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="1136">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3378,6 +3378,48 @@
   </si>
   <si>
     <t>0 hours, 23 minutes</t>
+  </si>
+  <si>
+    <t>8:10 PM</t>
+  </si>
+  <si>
+    <t>8:24 PM</t>
+  </si>
+  <si>
+    <t>(LN-ENM)</t>
+  </si>
+  <si>
+    <t>8:40 PM</t>
+  </si>
+  <si>
+    <t>(EI-DYA)</t>
+  </si>
+  <si>
+    <t>8:47 PM</t>
+  </si>
+  <si>
+    <t>8:45 PM</t>
+  </si>
+  <si>
+    <t>(EI-HGX)</t>
+  </si>
+  <si>
+    <t>9:53 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 8 minutes</t>
+  </si>
+  <si>
+    <t>9:19 PM</t>
+  </si>
+  <si>
+    <t>9:27 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKN)</t>
+  </si>
+  <si>
+    <t>9:44 PM</t>
   </si>
 </sst>
 </file>
@@ -3422,7 +3464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M363"/>
+  <dimension ref="A1:M373"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -16851,6 +16893,376 @@
       </c>
       <c r="M363" s="0"/>
     </row>
+    <row r="364">
+      <c r="A364" t="n" s="0">
+        <v>363.0</v>
+      </c>
+      <c r="B364" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C364" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="D364" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="E364" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="F364" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="G364" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H364" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I364" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J364" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="K364" s="0"/>
+      <c r="L364" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M364" s="0"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="n" s="0">
+        <v>364.0</v>
+      </c>
+      <c r="B365" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C365" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="D365" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="E365" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F365" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G365" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H365" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I365" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J365" t="s" s="0">
+        <v>1123</v>
+      </c>
+      <c r="K365" s="0"/>
+      <c r="L365" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M365" s="0"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="n" s="0">
+        <v>365.0</v>
+      </c>
+      <c r="B366" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C366" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="D366" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E366" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F366" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G366" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H366" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I366" t="s" s="0">
+        <v>1124</v>
+      </c>
+      <c r="J366" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="K366" s="0"/>
+      <c r="L366" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M366" s="0"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="n" s="0">
+        <v>366.0</v>
+      </c>
+      <c r="B367" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C367" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="D367" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E367" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F367" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G367" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H367" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I367" t="s" s="0">
+        <v>1126</v>
+      </c>
+      <c r="J367" t="s" s="0">
+        <v>1127</v>
+      </c>
+      <c r="K367" s="0"/>
+      <c r="L367" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M367" s="0"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="n" s="0">
+        <v>367.0</v>
+      </c>
+      <c r="B368" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C368" t="s" s="0">
+        <v>1128</v>
+      </c>
+      <c r="D368" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E368" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F368" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G368" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H368" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I368" t="s" s="0">
+        <v>1129</v>
+      </c>
+      <c r="J368" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="K368" s="0"/>
+      <c r="L368" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="M368" s="0"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="n" s="0">
+        <v>368.0</v>
+      </c>
+      <c r="B369" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C369" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D369" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E369" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F369" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G369" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H369" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I369" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J369" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="K369" s="0"/>
+      <c r="L369" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M369" s="0"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="n" s="0">
+        <v>369.0</v>
+      </c>
+      <c r="B370" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C370" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="D370" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E370" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F370" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G370" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H370" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I370" t="s" s="0">
+        <v>965</v>
+      </c>
+      <c r="J370" t="s" s="0">
+        <v>1132</v>
+      </c>
+      <c r="K370" s="0"/>
+      <c r="L370" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M370" s="0"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="n" s="0">
+        <v>370.0</v>
+      </c>
+      <c r="B371" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C371" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D371" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E371" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F371" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G371" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H371" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I371" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="J371" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="K371" s="0"/>
+      <c r="L371" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M371" s="0"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="n" s="0">
+        <v>371.0</v>
+      </c>
+      <c r="B372" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C372" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="D372" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E372" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F372" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G372" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H372" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I372" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="J372" t="s" s="0">
+        <v>1135</v>
+      </c>
+      <c r="K372" s="0"/>
+      <c r="L372" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M372" s="0"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="n" s="0">
+        <v>372.0</v>
+      </c>
+      <c r="B373" t="s" s="0">
+        <v>1039</v>
+      </c>
+      <c r="C373" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="D373" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E373" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F373" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G373" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H373" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I373" t="s" s="0">
+        <v>1066</v>
+      </c>
+      <c r="J373" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="K373" s="0"/>
+      <c r="L373" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M373" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="1200">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3420,6 +3420,198 @@
   </si>
   <si>
     <t>9:44 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>(SOF)</t>
+  </si>
+  <si>
+    <t>5:45 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 45 minutes</t>
+  </si>
+  <si>
+    <t>LO159</t>
+  </si>
+  <si>
+    <t>9:51 AM</t>
+  </si>
+  <si>
+    <t>4 hours, 11 minutes</t>
+  </si>
+  <si>
+    <t>6:01 AM</t>
+  </si>
+  <si>
+    <t>6:27 AM</t>
+  </si>
+  <si>
+    <t>(D-AISO)</t>
+  </si>
+  <si>
+    <t>6:52 AM</t>
+  </si>
+  <si>
+    <t>7:00 AM</t>
+  </si>
+  <si>
+    <t>7:06 AM</t>
+  </si>
+  <si>
+    <t>7:38 AM</t>
+  </si>
+  <si>
+    <t>1:54 PM</t>
+  </si>
+  <si>
+    <t>5 hours, 29 minutes</t>
+  </si>
+  <si>
+    <t>9:11 AM</t>
+  </si>
+  <si>
+    <t>9:00 AM</t>
+  </si>
+  <si>
+    <t>(LX-LQB)</t>
+  </si>
+  <si>
+    <t>8:53 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -7 minutes</t>
+  </si>
+  <si>
+    <t>9:35 AM</t>
+  </si>
+  <si>
+    <t>(EI-DPZ)</t>
+  </si>
+  <si>
+    <t>9:34 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Baltic </t>
+  </si>
+  <si>
+    <t>BCS3</t>
+  </si>
+  <si>
+    <t>(YL-ABG)</t>
+  </si>
+  <si>
+    <t>10:03 AM</t>
+  </si>
+  <si>
+    <t>(EI-ENX)</t>
+  </si>
+  <si>
+    <t>9:58 AM</t>
+  </si>
+  <si>
+    <t>(EI-HMW)</t>
+  </si>
+  <si>
+    <t>(G-EZBF)</t>
+  </si>
+  <si>
+    <t>10:26 AM</t>
+  </si>
+  <si>
+    <t>10:35 AM</t>
+  </si>
+  <si>
+    <t>(EI-HMV)</t>
+  </si>
+  <si>
+    <t>10:39 AM</t>
+  </si>
+  <si>
+    <t>U26276</t>
+  </si>
+  <si>
+    <t>(G-EZUF)</t>
+  </si>
+  <si>
+    <t>(G-JZHM)</t>
+  </si>
+  <si>
+    <t>11:33 AM</t>
+  </si>
+  <si>
+    <t>(OH-LKF)</t>
+  </si>
+  <si>
+    <t>1 hours, 22 minutes</t>
+  </si>
+  <si>
+    <t>(G-GDFX)</t>
+  </si>
+  <si>
+    <t>(A6-FML)</t>
+  </si>
+  <si>
+    <t>12:39 PM</t>
+  </si>
+  <si>
+    <t>LO9002</t>
+  </si>
+  <si>
+    <t>12:34 PM</t>
+  </si>
+  <si>
+    <t>FR6226</t>
+  </si>
+  <si>
+    <t>Gran Canaria</t>
+  </si>
+  <si>
+    <t>(LPA)</t>
+  </si>
+  <si>
+    <t>(LN-NII)</t>
+  </si>
+  <si>
+    <t>(D-AIZY)</t>
+  </si>
+  <si>
+    <t>Hamburg</t>
+  </si>
+  <si>
+    <t>(HAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADAC Luftrettung </t>
+  </si>
+  <si>
+    <t>J328</t>
+  </si>
+  <si>
+    <t>(D-BADC)</t>
+  </si>
+  <si>
+    <t>12:58 PM</t>
+  </si>
+  <si>
+    <t>1:37 PM</t>
+  </si>
+  <si>
+    <t>(SP-RSH)</t>
+  </si>
+  <si>
+    <t>1:35 PM</t>
+  </si>
+  <si>
+    <t>(D-AIWA)</t>
+  </si>
+  <si>
+    <t>1:58 PM</t>
   </si>
 </sst>
 </file>
@@ -3464,7 +3656,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M373"/>
+  <dimension ref="A1:M420"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -17263,6 +17455,1745 @@
       </c>
       <c r="M373" s="0"/>
     </row>
+    <row r="374">
+      <c r="A374" t="n" s="0">
+        <v>373.0</v>
+      </c>
+      <c r="B374" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C374" t="s" s="0">
+        <v>1040</v>
+      </c>
+      <c r="D374" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E374" t="s" s="0">
+        <v>1137</v>
+      </c>
+      <c r="F374" t="s" s="0">
+        <v>1138</v>
+      </c>
+      <c r="G374" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H374" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I374" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J374" t="s" s="0">
+        <v>1139</v>
+      </c>
+      <c r="K374" s="0"/>
+      <c r="L374" t="s" s="0">
+        <v>1140</v>
+      </c>
+      <c r="M374" s="0"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="n" s="0">
+        <v>374.0</v>
+      </c>
+      <c r="B375" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C375" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D375" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E375" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F375" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G375" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H375" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I375" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="J375" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="K375" s="0"/>
+      <c r="L375" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M375" s="0"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="n" s="0">
+        <v>375.0</v>
+      </c>
+      <c r="B376" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C376" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D376" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="E376" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F376" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G376" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H376" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I376" t="s" s="0">
+        <v>953</v>
+      </c>
+      <c r="J376" t="s" s="0">
+        <v>1142</v>
+      </c>
+      <c r="K376" s="0"/>
+      <c r="L376" t="s" s="0">
+        <v>1143</v>
+      </c>
+      <c r="M376" s="0"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="n" s="0">
+        <v>376.0</v>
+      </c>
+      <c r="B377" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C377" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="D377" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="E377" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F377" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G377" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H377" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I377" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J377" t="s" s="0">
+        <v>1144</v>
+      </c>
+      <c r="K377" s="0"/>
+      <c r="L377" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M377" s="0"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n" s="0">
+        <v>377.0</v>
+      </c>
+      <c r="B378" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C378" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D378" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E378" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F378" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G378" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H378" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I378" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="J378" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="K378" s="0"/>
+      <c r="L378" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M378" s="0"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n" s="0">
+        <v>378.0</v>
+      </c>
+      <c r="B379" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C379" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D379" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E379" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="F379" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G379" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H379" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I379" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J379" t="s" s="0">
+        <v>720</v>
+      </c>
+      <c r="K379" s="0"/>
+      <c r="L379" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M379" s="0"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n" s="0">
+        <v>379.0</v>
+      </c>
+      <c r="B380" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C380" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D380" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E380" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F380" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G380" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H380" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I380" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J380" t="s" s="0">
+        <v>1145</v>
+      </c>
+      <c r="K380" s="0"/>
+      <c r="L380" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M380" s="0"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n" s="0">
+        <v>380.0</v>
+      </c>
+      <c r="B381" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C381" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D381" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E381" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F381" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G381" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H381" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I381" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J381" t="s" s="0">
+        <v>1053</v>
+      </c>
+      <c r="K381" s="0"/>
+      <c r="L381" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M381" s="0"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n" s="0">
+        <v>381.0</v>
+      </c>
+      <c r="B382" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C382" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D382" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E382" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F382" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G382" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H382" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I382" t="s" s="0">
+        <v>1146</v>
+      </c>
+      <c r="J382" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K382" s="0"/>
+      <c r="L382" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M382" s="0"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n" s="0">
+        <v>382.0</v>
+      </c>
+      <c r="B383" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C383" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="E383" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="F383" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="G383" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H383" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I383" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J383" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="K383" s="0"/>
+      <c r="L383" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M383" s="0"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n" s="0">
+        <v>383.0</v>
+      </c>
+      <c r="B384" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C384" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D384" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E384" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F384" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G384" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H384" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I384" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J384" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="K384" s="0"/>
+      <c r="L384" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M384" s="0"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n" s="0">
+        <v>384.0</v>
+      </c>
+      <c r="B385" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C385" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D385" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="E385" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F385" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G385" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H385" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I385" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J385" t="s" s="0">
+        <v>737</v>
+      </c>
+      <c r="K385" s="0"/>
+      <c r="L385" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M385" s="0"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n" s="0">
+        <v>385.0</v>
+      </c>
+      <c r="B386" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C386" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="D386" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="E386" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="F386" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="G386" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H386" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I386" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J386" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="K386" s="0"/>
+      <c r="L386" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M386" s="0"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n" s="0">
+        <v>386.0</v>
+      </c>
+      <c r="B387" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C387" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="D387" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="E387" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="F387" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="G387" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H387" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I387" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J387" t="s" s="0">
+        <v>1149</v>
+      </c>
+      <c r="K387" s="0"/>
+      <c r="L387" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M387" s="0"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n" s="0">
+        <v>387.0</v>
+      </c>
+      <c r="B388" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C388" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D388" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E388" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F388" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G388" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H388" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I388" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J388" t="s" s="0">
+        <v>441</v>
+      </c>
+      <c r="K388" s="0"/>
+      <c r="L388" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M388" s="0"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n" s="0">
+        <v>388.0</v>
+      </c>
+      <c r="B389" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C389" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D389" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E389" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F389" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G389" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H389" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I389" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J389" t="s" s="0">
+        <v>1060</v>
+      </c>
+      <c r="K389" s="0"/>
+      <c r="L389" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M389" s="0"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n" s="0">
+        <v>389.0</v>
+      </c>
+      <c r="B390" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C390" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D390" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E390" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F390" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G390" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H390" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I390" t="s" s="0">
+        <v>910</v>
+      </c>
+      <c r="J390" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="K390" s="0"/>
+      <c r="L390" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M390" s="0"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n" s="0">
+        <v>390.0</v>
+      </c>
+      <c r="B391" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C391" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D391" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E391" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F391" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G391" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H391" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I391" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J391" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="K391" s="0"/>
+      <c r="L391" t="s" s="0">
+        <v>1152</v>
+      </c>
+      <c r="M391" s="0"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n" s="0">
+        <v>391.0</v>
+      </c>
+      <c r="B392" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C392" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D392" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E392" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F392" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G392" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H392" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I392" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="J392" t="s" s="0">
+        <v>1153</v>
+      </c>
+      <c r="K392" s="0"/>
+      <c r="L392" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M392" s="0"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n" s="0">
+        <v>392.0</v>
+      </c>
+      <c r="B393" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C393" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D393" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E393" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F393" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G393" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="H393" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="I393" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="J393" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="K393" s="0"/>
+      <c r="L393" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="M393" s="0"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n" s="0">
+        <v>393.0</v>
+      </c>
+      <c r="B394" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C394" t="s" s="0">
+        <v>1158</v>
+      </c>
+      <c r="D394" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="E394" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="F394" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="G394" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H394" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I394" t="s" s="0">
+        <v>1159</v>
+      </c>
+      <c r="J394" t="s" s="0">
+        <v>1160</v>
+      </c>
+      <c r="K394" s="0"/>
+      <c r="L394" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M394" s="0"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n" s="0">
+        <v>394.0</v>
+      </c>
+      <c r="B395" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C395" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D395" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="E395" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="F395" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G395" t="s" s="0">
+        <v>1161</v>
+      </c>
+      <c r="H395" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="I395" t="s" s="0">
+        <v>1163</v>
+      </c>
+      <c r="J395" t="s" s="0">
+        <v>1164</v>
+      </c>
+      <c r="K395" s="0"/>
+      <c r="L395" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M395" s="0"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n" s="0">
+        <v>395.0</v>
+      </c>
+      <c r="B396" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C396" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D396" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E396" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F396" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G396" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H396" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I396" t="s" s="0">
+        <v>1165</v>
+      </c>
+      <c r="J396" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="K396" s="0"/>
+      <c r="L396" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M396" s="0"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n" s="0">
+        <v>396.0</v>
+      </c>
+      <c r="B397" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C397" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D397" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E397" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F397" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G397" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H397" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I397" t="s" s="0">
+        <v>1167</v>
+      </c>
+      <c r="J397" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="K397" s="0"/>
+      <c r="L397" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M397" s="0"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n" s="0">
+        <v>397.0</v>
+      </c>
+      <c r="B398" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C398" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="D398" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E398" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F398" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G398" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H398" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I398" t="s" s="0">
+        <v>1168</v>
+      </c>
+      <c r="J398" t="s" s="0">
+        <v>1169</v>
+      </c>
+      <c r="K398" s="0"/>
+      <c r="L398" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="M398" s="0"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n" s="0">
+        <v>398.0</v>
+      </c>
+      <c r="B399" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C399" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="D399" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E399" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F399" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G399" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H399" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I399" t="s" s="0">
+        <v>1171</v>
+      </c>
+      <c r="J399" t="s" s="0">
+        <v>1172</v>
+      </c>
+      <c r="K399" s="0"/>
+      <c r="L399" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M399" s="0"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n" s="0">
+        <v>399.0</v>
+      </c>
+      <c r="B400" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C400" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="D400" t="s" s="0">
+        <v>1173</v>
+      </c>
+      <c r="E400" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F400" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G400" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H400" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I400" t="s" s="0">
+        <v>1174</v>
+      </c>
+      <c r="J400" t="s" s="0">
+        <v>930</v>
+      </c>
+      <c r="K400" s="0"/>
+      <c r="L400" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M400" s="0"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n" s="0">
+        <v>400.0</v>
+      </c>
+      <c r="B401" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C401" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D401" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E401" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F401" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G401" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H401" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I401" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J401" t="s" s="0">
+        <v>529</v>
+      </c>
+      <c r="K401" s="0"/>
+      <c r="L401" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M401" s="0"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n" s="0">
+        <v>401.0</v>
+      </c>
+      <c r="B402" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C402" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D402" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="E402" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F402" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="G402" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H402" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I402" t="s" s="0">
+        <v>1175</v>
+      </c>
+      <c r="J402" t="s" s="0">
+        <v>1176</v>
+      </c>
+      <c r="K402" s="0"/>
+      <c r="L402" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M402" s="0"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n" s="0">
+        <v>402.0</v>
+      </c>
+      <c r="B403" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C403" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D403" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E403" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F403" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G403" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H403" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I403" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="J403" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="K403" s="0"/>
+      <c r="L403" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M403" s="0"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n" s="0">
+        <v>403.0</v>
+      </c>
+      <c r="B404" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C404" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D404" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E404" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F404" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G404" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H404" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I404" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J404" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="K404" s="0"/>
+      <c r="L404" t="s" s="0">
+        <v>1178</v>
+      </c>
+      <c r="M404" s="0"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n" s="0">
+        <v>404.0</v>
+      </c>
+      <c r="B405" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C405" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D405" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="E405" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F405" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G405" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H405" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I405" t="s" s="0">
+        <v>1179</v>
+      </c>
+      <c r="J405" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K405" s="0"/>
+      <c r="L405" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M405" s="0"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n" s="0">
+        <v>405.0</v>
+      </c>
+      <c r="B406" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C406" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D406" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E406" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F406" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G406" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H406" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I406" t="s" s="0">
+        <v>1180</v>
+      </c>
+      <c r="J406" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="K406" s="0"/>
+      <c r="L406" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M406" s="0"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n" s="0">
+        <v>406.0</v>
+      </c>
+      <c r="B407" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C407" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D407" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E407" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F407" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G407" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="H407" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I407" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="J407" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K407" s="0"/>
+      <c r="L407" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M407" s="0"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="n" s="0">
+        <v>407.0</v>
+      </c>
+      <c r="B408" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C408" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="D408" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="E408" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="F408" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="G408" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H408" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I408" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J408" t="s" s="0">
+        <v>1181</v>
+      </c>
+      <c r="K408" s="0"/>
+      <c r="L408" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M408" s="0"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="n" s="0">
+        <v>408.0</v>
+      </c>
+      <c r="B409" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C409" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="D409" t="s" s="0">
+        <v>1182</v>
+      </c>
+      <c r="E409" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F409" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G409" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H409" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I409" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="J409" t="s" s="0">
+        <v>937</v>
+      </c>
+      <c r="K409" s="0"/>
+      <c r="L409" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M409" s="0"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="n" s="0">
+        <v>409.0</v>
+      </c>
+      <c r="B410" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C410" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="D410" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E410" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F410" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G410" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H410" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I410" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J410" t="s" s="0">
+        <v>1183</v>
+      </c>
+      <c r="K410" s="0"/>
+      <c r="L410" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M410" s="0"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="n" s="0">
+        <v>410.0</v>
+      </c>
+      <c r="B411" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C411" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D411" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E411" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F411" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G411" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H411" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I411" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J411" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="K411" s="0"/>
+      <c r="L411" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="M411" s="0"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="n" s="0">
+        <v>411.0</v>
+      </c>
+      <c r="B412" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C412" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="D412" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="E412" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="F412" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="G412" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H412" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I412" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J412" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="K412" s="0"/>
+      <c r="L412" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M412" s="0"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="n" s="0">
+        <v>412.0</v>
+      </c>
+      <c r="B413" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C413" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D413" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E413" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F413" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G413" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H413" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I413" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="J413" t="s" s="0">
+        <v>790</v>
+      </c>
+      <c r="K413" s="0"/>
+      <c r="L413" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M413" s="0"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="n" s="0">
+        <v>413.0</v>
+      </c>
+      <c r="B414" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C414" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D414" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="E414" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F414" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G414" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H414" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I414" t="s" s="0">
+        <v>1188</v>
+      </c>
+      <c r="J414" t="s" s="0">
+        <v>1004</v>
+      </c>
+      <c r="K414" s="0"/>
+      <c r="L414" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="M414" s="0"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="n" s="0">
+        <v>414.0</v>
+      </c>
+      <c r="B415" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C415" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D415" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E415" t="s" s="0">
+        <v>1189</v>
+      </c>
+      <c r="F415" t="s" s="0">
+        <v>1190</v>
+      </c>
+      <c r="G415" t="s" s="0">
+        <v>1191</v>
+      </c>
+      <c r="H415" t="s" s="0">
+        <v>1192</v>
+      </c>
+      <c r="I415" t="s" s="0">
+        <v>1193</v>
+      </c>
+      <c r="J415" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="K415" s="0"/>
+      <c r="L415" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M415" s="0"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="n" s="0">
+        <v>415.0</v>
+      </c>
+      <c r="B416" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C416" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="D416" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="E416" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F416" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G416" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H416" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I416" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J416" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="K416" s="0"/>
+      <c r="L416" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M416" s="0"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="n" s="0">
+        <v>416.0</v>
+      </c>
+      <c r="B417" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C417" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D417" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="E417" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="F417" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="G417" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H417" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I417" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="J417" t="s" s="0">
+        <v>1195</v>
+      </c>
+      <c r="K417" s="0"/>
+      <c r="L417" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M417" s="0"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="n" s="0">
+        <v>417.0</v>
+      </c>
+      <c r="B418" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C418" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D418" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="E418" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="F418" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="G418" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H418" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I418" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="J418" t="s" s="0">
+        <v>1197</v>
+      </c>
+      <c r="K418" s="0"/>
+      <c r="L418" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M418" s="0"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n" s="0">
+        <v>418.0</v>
+      </c>
+      <c r="B419" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C419" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D419" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E419" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F419" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G419" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H419" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I419" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J419" t="s" s="0">
+        <v>1199</v>
+      </c>
+      <c r="K419" s="0"/>
+      <c r="L419" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="M419" s="0"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n" s="0">
+        <v>419.0</v>
+      </c>
+      <c r="B420" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C420" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D420" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="E420" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F420" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G420" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H420" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I420" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J420" t="s" s="0">
+        <v>805</v>
+      </c>
+      <c r="K420" s="0"/>
+      <c r="L420" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M420" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4198" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="1236">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3612,6 +3612,114 @@
   </si>
   <si>
     <t>1:58 PM</t>
+  </si>
+  <si>
+    <t>FR9280</t>
+  </si>
+  <si>
+    <t>Agadir</t>
+  </si>
+  <si>
+    <t>(AGA)</t>
+  </si>
+  <si>
+    <t>(EI-EVA)</t>
+  </si>
+  <si>
+    <t>2:50 PM</t>
+  </si>
+  <si>
+    <t>(9H-VUW)</t>
+  </si>
+  <si>
+    <t>4:25 PM</t>
+  </si>
+  <si>
+    <t>4:29 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Star Alliance Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIO)</t>
+  </si>
+  <si>
+    <t>4:39 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -6 minutes</t>
+  </si>
+  <si>
+    <t>(PH-EZR)</t>
+  </si>
+  <si>
+    <t>5:06 PM</t>
+  </si>
+  <si>
+    <t>(SP-RSO)</t>
+  </si>
+  <si>
+    <t>5:46 PM</t>
+  </si>
+  <si>
+    <t>5:48 PM</t>
+  </si>
+  <si>
+    <t>(EI-EGB)</t>
+  </si>
+  <si>
+    <t>0 hours, 44 minutes</t>
+  </si>
+  <si>
+    <t>1 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>6:22 PM</t>
+  </si>
+  <si>
+    <t>(9H-QCY)</t>
+  </si>
+  <si>
+    <t>(G-EZTR)</t>
+  </si>
+  <si>
+    <t>7:40 PM</t>
+  </si>
+  <si>
+    <t>(9H-QCO)</t>
+  </si>
+  <si>
+    <t>7:48 PM</t>
+  </si>
+  <si>
+    <t>(G-EUYA)</t>
+  </si>
+  <si>
+    <t>(9H-QBG)</t>
+  </si>
+  <si>
+    <t>(OE-IZF)</t>
+  </si>
+  <si>
+    <t>8:13 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKH)</t>
+  </si>
+  <si>
+    <t>8:38 PM</t>
+  </si>
+  <si>
+    <t>(EI-DCJ)</t>
+  </si>
+  <si>
+    <t>(SP-LDK)</t>
+  </si>
+  <si>
+    <t>9:29 PM</t>
+  </si>
+  <si>
+    <t>9:40 PM</t>
   </si>
 </sst>
 </file>
@@ -3656,7 +3764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M420"/>
+  <dimension ref="A1:M452"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -19194,6 +19302,1190 @@
       </c>
       <c r="M420" s="0"/>
     </row>
+    <row r="421">
+      <c r="A421" t="n" s="0">
+        <v>420.0</v>
+      </c>
+      <c r="B421" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C421" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D421" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="E421" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="F421" t="s" s="0">
+        <v>1202</v>
+      </c>
+      <c r="G421" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H421" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I421" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="J421" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="K421" s="0"/>
+      <c r="L421" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M421" s="0"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n" s="0">
+        <v>421.0</v>
+      </c>
+      <c r="B422" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C422" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D422" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E422" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F422" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G422" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H422" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I422" t="s" s="0">
+        <v>1061</v>
+      </c>
+      <c r="J422" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="K422" s="0"/>
+      <c r="L422" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M422" s="0"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n" s="0">
+        <v>422.0</v>
+      </c>
+      <c r="B423" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C423" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="D423" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E423" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F423" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G423" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H423" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I423" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J423" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="K423" s="0"/>
+      <c r="L423" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M423" s="0"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n" s="0">
+        <v>423.0</v>
+      </c>
+      <c r="B424" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C424" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D424" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E424" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F424" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G424" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H424" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I424" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="J424" t="s" s="0">
+        <v>594</v>
+      </c>
+      <c r="K424" s="0"/>
+      <c r="L424" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M424" s="0"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="n" s="0">
+        <v>424.0</v>
+      </c>
+      <c r="B425" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C425" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D425" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E425" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F425" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G425" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H425" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I425" t="s" s="0">
+        <v>1205</v>
+      </c>
+      <c r="J425" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="K425" s="0"/>
+      <c r="L425" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M425" s="0"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n" s="0">
+        <v>425.0</v>
+      </c>
+      <c r="B426" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C426" t="s" s="0">
+        <v>1206</v>
+      </c>
+      <c r="D426" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="E426" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="F426" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="G426" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H426" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I426" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J426" t="s" s="0">
+        <v>1207</v>
+      </c>
+      <c r="K426" s="0"/>
+      <c r="L426" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M426" s="0"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n" s="0">
+        <v>426.0</v>
+      </c>
+      <c r="B427" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C427" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D427" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="E427" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="F427" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="G427" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="H427" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I427" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="J427" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="K427" s="0"/>
+      <c r="L427" t="s" s="0">
+        <v>1211</v>
+      </c>
+      <c r="M427" s="0"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n" s="0">
+        <v>427.0</v>
+      </c>
+      <c r="B428" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C428" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D428" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E428" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F428" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G428" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H428" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I428" t="s" s="0">
+        <v>1212</v>
+      </c>
+      <c r="J428" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="K428" s="0"/>
+      <c r="L428" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M428" s="0"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n" s="0">
+        <v>428.0</v>
+      </c>
+      <c r="B429" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C429" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="D429" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E429" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="F429" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="G429" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H429" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I429" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J429" t="s" s="0">
+        <v>1213</v>
+      </c>
+      <c r="K429" s="0"/>
+      <c r="L429" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M429" s="0"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n" s="0">
+        <v>429.0</v>
+      </c>
+      <c r="B430" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C430" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="D430" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="E430" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="F430" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="G430" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H430" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I430" t="s" s="0">
+        <v>1214</v>
+      </c>
+      <c r="J430" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="K430" s="0"/>
+      <c r="L430" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M430" s="0"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n" s="0">
+        <v>430.0</v>
+      </c>
+      <c r="B431" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C431" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="D431" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="E431" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F431" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G431" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H431" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I431" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="J431" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="K431" s="0"/>
+      <c r="L431" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M431" s="0"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n" s="0">
+        <v>431.0</v>
+      </c>
+      <c r="B432" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C432" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="D432" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E432" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F432" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G432" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H432" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I432" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="J432" t="s" s="0">
+        <v>1216</v>
+      </c>
+      <c r="K432" s="0"/>
+      <c r="L432" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M432" s="0"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n" s="0">
+        <v>432.0</v>
+      </c>
+      <c r="B433" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C433" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="D433" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="E433" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="F433" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="G433" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H433" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I433" t="s" s="0">
+        <v>1217</v>
+      </c>
+      <c r="J433" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="K433" s="0"/>
+      <c r="L433" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M433" s="0"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n" s="0">
+        <v>433.0</v>
+      </c>
+      <c r="B434" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C434" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="D434" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E434" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F434" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G434" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H434" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I434" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="J434" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="K434" s="0"/>
+      <c r="L434" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M434" s="0"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n" s="0">
+        <v>434.0</v>
+      </c>
+      <c r="B435" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C435" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D435" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E435" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F435" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G435" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H435" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I435" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="J435" t="s" s="0">
+        <v>955</v>
+      </c>
+      <c r="K435" s="0"/>
+      <c r="L435" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M435" s="0"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="n" s="0">
+        <v>435.0</v>
+      </c>
+      <c r="B436" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C436" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D436" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="E436" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F436" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G436" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H436" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I436" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J436" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K436" s="0"/>
+      <c r="L436" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="M436" s="0"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="n" s="0">
+        <v>436.0</v>
+      </c>
+      <c r="B437" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C437" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D437" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="E437" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="F437" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="G437" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H437" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I437" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J437" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="K437" s="0"/>
+      <c r="L437" t="s" s="0">
+        <v>1219</v>
+      </c>
+      <c r="M437" s="0"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="n" s="0">
+        <v>437.0</v>
+      </c>
+      <c r="B438" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C438" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="D438" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E438" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F438" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G438" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H438" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I438" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="J438" t="s" s="0">
+        <v>1017</v>
+      </c>
+      <c r="K438" s="0"/>
+      <c r="L438" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M438" s="0"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="n" s="0">
+        <v>438.0</v>
+      </c>
+      <c r="B439" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C439" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="D439" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E439" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F439" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G439" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H439" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I439" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="J439" t="s" s="0">
+        <v>1220</v>
+      </c>
+      <c r="K439" s="0"/>
+      <c r="L439" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M439" s="0"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="n" s="0">
+        <v>439.0</v>
+      </c>
+      <c r="B440" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C440" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="D440" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="E440" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F440" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="G440" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H440" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I440" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="J440" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="K440" s="0"/>
+      <c r="L440" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M440" s="0"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="n" s="0">
+        <v>440.0</v>
+      </c>
+      <c r="B441" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C441" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="D441" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="E441" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F441" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G441" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H441" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I441" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="J441" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="K441" s="0"/>
+      <c r="L441" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M441" s="0"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="n" s="0">
+        <v>441.0</v>
+      </c>
+      <c r="B442" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C442" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="D442" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E442" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F442" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="G442" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H442" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I442" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J442" t="s" s="0">
+        <v>328</v>
+      </c>
+      <c r="K442" s="0"/>
+      <c r="L442" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M442" s="0"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="n" s="0">
+        <v>442.0</v>
+      </c>
+      <c r="B443" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C443" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="D443" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E443" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F443" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G443" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H443" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I443" t="s" s="0">
+        <v>1224</v>
+      </c>
+      <c r="J443" t="s" s="0">
+        <v>1225</v>
+      </c>
+      <c r="K443" s="0"/>
+      <c r="L443" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M443" s="0"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="n" s="0">
+        <v>443.0</v>
+      </c>
+      <c r="B444" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C444" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="D444" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E444" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F444" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G444" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H444" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I444" t="s" s="0">
+        <v>1226</v>
+      </c>
+      <c r="J444" t="s" s="0">
+        <v>1035</v>
+      </c>
+      <c r="K444" s="0"/>
+      <c r="L444" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="M444" s="0"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="n" s="0">
+        <v>444.0</v>
+      </c>
+      <c r="B445" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C445" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="D445" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="E445" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="F445" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="G445" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H445" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I445" t="s" s="0">
+        <v>1227</v>
+      </c>
+      <c r="J445" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="K445" s="0"/>
+      <c r="L445" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M445" s="0"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="n" s="0">
+        <v>445.0</v>
+      </c>
+      <c r="B446" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C446" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="D446" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="E446" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F446" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G446" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H446" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I446" t="s" s="0">
+        <v>1228</v>
+      </c>
+      <c r="J446" t="s" s="0">
+        <v>1229</v>
+      </c>
+      <c r="K446" s="0"/>
+      <c r="L446" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M446" s="0"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="n" s="0">
+        <v>446.0</v>
+      </c>
+      <c r="B447" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C447" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="D447" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="E447" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="F447" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="G447" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H447" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I447" t="s" s="0">
+        <v>673</v>
+      </c>
+      <c r="J447" t="s" s="0">
+        <v>1125</v>
+      </c>
+      <c r="K447" s="0"/>
+      <c r="L447" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M447" s="0"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="n" s="0">
+        <v>447.0</v>
+      </c>
+      <c r="B448" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C448" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="D448" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="E448" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="F448" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="G448" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H448" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I448" t="s" s="0">
+        <v>1230</v>
+      </c>
+      <c r="J448" t="s" s="0">
+        <v>1231</v>
+      </c>
+      <c r="K448" s="0"/>
+      <c r="L448" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M448" s="0"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="n" s="0">
+        <v>448.0</v>
+      </c>
+      <c r="B449" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C449" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D449" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="E449" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="F449" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="G449" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H449" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I449" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J449" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="K449" s="0"/>
+      <c r="L449" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M449" s="0"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="n" s="0">
+        <v>449.0</v>
+      </c>
+      <c r="B450" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C450" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D450" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E450" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F450" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G450" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H450" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I450" t="s" s="0">
+        <v>1232</v>
+      </c>
+      <c r="J450" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="K450" s="0"/>
+      <c r="L450" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M450" s="0"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="n" s="0">
+        <v>450.0</v>
+      </c>
+      <c r="B451" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C451" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D451" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E451" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F451" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G451" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="H451" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I451" t="s" s="0">
+        <v>1233</v>
+      </c>
+      <c r="J451" t="s" s="0">
+        <v>1234</v>
+      </c>
+      <c r="K451" s="0"/>
+      <c r="L451" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M451" s="0"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="n" s="0">
+        <v>451.0</v>
+      </c>
+      <c r="B452" t="s" s="0">
+        <v>1136</v>
+      </c>
+      <c r="C452" t="s" s="0">
+        <v>1235</v>
+      </c>
+      <c r="D452" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E452" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F452" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G452" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H452" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I452" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="J452" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="K452" s="0"/>
+      <c r="L452" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="M452" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="1259">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3720,6 +3720,75 @@
   </si>
   <si>
     <t>9:40 PM</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>5:43 AM</t>
+  </si>
+  <si>
+    <t>6:05 AM</t>
+  </si>
+  <si>
+    <t>6:08 AM</t>
+  </si>
+  <si>
+    <t>(D-AIEK)</t>
+  </si>
+  <si>
+    <t>6:18 AM</t>
+  </si>
+  <si>
+    <t>(SP-RZK)</t>
+  </si>
+  <si>
+    <t>6:58 AM</t>
+  </si>
+  <si>
+    <t>7:18 AM</t>
+  </si>
+  <si>
+    <t>7:23 AM</t>
+  </si>
+  <si>
+    <t>(OE-LWP)</t>
+  </si>
+  <si>
+    <t>7:21 AM</t>
+  </si>
+  <si>
+    <t>7:34 AM</t>
+  </si>
+  <si>
+    <t>7:48 AM</t>
+  </si>
+  <si>
+    <t>(HA-LVG)</t>
+  </si>
+  <si>
+    <t>8:27 AM</t>
+  </si>
+  <si>
+    <t>(9H-QAS)</t>
+  </si>
+  <si>
+    <t>8:31 AM</t>
+  </si>
+  <si>
+    <t>(OH-LKH)</t>
+  </si>
+  <si>
+    <t>8:44 AM</t>
+  </si>
+  <si>
+    <t>(SP-ESH)</t>
+  </si>
+  <si>
+    <t>10:15 AM</t>
+  </si>
+  <si>
+    <t>RR9501</t>
   </si>
 </sst>
 </file>
@@ -3764,7 +3833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M452"/>
+  <dimension ref="A1:M475"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -20486,6 +20555,857 @@
       </c>
       <c r="M452" s="0"/>
     </row>
+    <row r="453">
+      <c r="A453" t="n" s="0">
+        <v>452.0</v>
+      </c>
+      <c r="B453" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C453" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D453" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E453" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F453" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G453" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H453" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I453" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="J453" t="s" s="0">
+        <v>1237</v>
+      </c>
+      <c r="K453" s="0"/>
+      <c r="L453" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M453" s="0"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="n" s="0">
+        <v>453.0</v>
+      </c>
+      <c r="B454" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C454" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D454" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="E454" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="F454" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="G454" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H454" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I454" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J454" t="s" s="0">
+        <v>1238</v>
+      </c>
+      <c r="K454" s="0"/>
+      <c r="L454" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M454" s="0"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="n" s="0">
+        <v>454.0</v>
+      </c>
+      <c r="B455" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C455" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D455" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E455" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F455" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G455" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H455" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I455" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="J455" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="K455" s="0"/>
+      <c r="L455" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M455" s="0"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="n" s="0">
+        <v>455.0</v>
+      </c>
+      <c r="B456" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C456" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D456" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E456" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="F456" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="G456" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H456" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I456" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J456" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="K456" s="0"/>
+      <c r="L456" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M456" s="0"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="n" s="0">
+        <v>456.0</v>
+      </c>
+      <c r="B457" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C457" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D457" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E457" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F457" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G457" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H457" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I457" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="J457" t="s" s="0">
+        <v>1050</v>
+      </c>
+      <c r="K457" s="0"/>
+      <c r="L457" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M457" s="0"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="n" s="0">
+        <v>457.0</v>
+      </c>
+      <c r="B458" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C458" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D458" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E458" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F458" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G458" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H458" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I458" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J458" t="s" s="0">
+        <v>1241</v>
+      </c>
+      <c r="K458" s="0"/>
+      <c r="L458" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="M458" s="0"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="n" s="0">
+        <v>458.0</v>
+      </c>
+      <c r="B459" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C459" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D459" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E459" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F459" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G459" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H459" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I459" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J459" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="K459" s="0"/>
+      <c r="L459" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M459" s="0"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="n" s="0">
+        <v>459.0</v>
+      </c>
+      <c r="B460" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C460" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D460" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E460" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F460" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G460" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H460" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I460" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J460" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="K460" s="0"/>
+      <c r="L460" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M460" s="0"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="n" s="0">
+        <v>460.0</v>
+      </c>
+      <c r="B461" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C461" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D461" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E461" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F461" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G461" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H461" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I461" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J461" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="K461" s="0"/>
+      <c r="L461" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M461" s="0"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="n" s="0">
+        <v>461.0</v>
+      </c>
+      <c r="B462" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C462" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D462" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E462" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F462" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G462" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H462" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I462" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J462" t="s" s="0">
+        <v>1244</v>
+      </c>
+      <c r="K462" s="0"/>
+      <c r="L462" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M462" s="0"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="n" s="0">
+        <v>462.0</v>
+      </c>
+      <c r="B463" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C463" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D463" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E463" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F463" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G463" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H463" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I463" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J463" t="s" s="0">
+        <v>1245</v>
+      </c>
+      <c r="K463" s="0"/>
+      <c r="L463" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M463" s="0"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="n" s="0">
+        <v>463.0</v>
+      </c>
+      <c r="B464" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C464" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D464" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E464" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F464" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G464" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H464" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I464" t="s" s="0">
+        <v>1246</v>
+      </c>
+      <c r="J464" t="s" s="0">
+        <v>1247</v>
+      </c>
+      <c r="K464" s="0"/>
+      <c r="L464" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="M464" s="0"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="n" s="0">
+        <v>464.0</v>
+      </c>
+      <c r="B465" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C465" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D465" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E465" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F465" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G465" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H465" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I465" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J465" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="K465" s="0"/>
+      <c r="L465" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M465" s="0"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="n" s="0">
+        <v>465.0</v>
+      </c>
+      <c r="B466" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C466" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D466" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E466" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F466" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G466" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H466" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I466" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J466" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="K466" s="0"/>
+      <c r="L466" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M466" s="0"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="n" s="0">
+        <v>466.0</v>
+      </c>
+      <c r="B467" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C467" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D467" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E467" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F467" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G467" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H467" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I467" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J467" t="s" s="0">
+        <v>1249</v>
+      </c>
+      <c r="K467" s="0"/>
+      <c r="L467" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M467" s="0"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="n" s="0">
+        <v>467.0</v>
+      </c>
+      <c r="B468" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C468" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D468" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E468" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F468" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G468" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H468" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I468" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J468" t="s" s="0">
+        <v>1063</v>
+      </c>
+      <c r="K468" s="0"/>
+      <c r="L468" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M468" s="0"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="n" s="0">
+        <v>468.0</v>
+      </c>
+      <c r="B469" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C469" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="D469" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E469" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F469" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="G469" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H469" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I469" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J469" t="s" s="0">
+        <v>1251</v>
+      </c>
+      <c r="K469" s="0"/>
+      <c r="L469" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M469" s="0"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="n" s="0">
+        <v>469.0</v>
+      </c>
+      <c r="B470" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C470" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D470" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E470" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F470" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G470" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H470" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I470" t="s" s="0">
+        <v>1252</v>
+      </c>
+      <c r="J470" t="s" s="0">
+        <v>1253</v>
+      </c>
+      <c r="K470" s="0"/>
+      <c r="L470" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M470" s="0"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="n" s="0">
+        <v>470.0</v>
+      </c>
+      <c r="B471" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C471" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D471" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E471" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F471" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G471" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H471" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I471" t="s" s="0">
+        <v>1254</v>
+      </c>
+      <c r="J471" t="s" s="0">
+        <v>1255</v>
+      </c>
+      <c r="K471" s="0"/>
+      <c r="L471" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M471" s="0"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="n" s="0">
+        <v>471.0</v>
+      </c>
+      <c r="B472" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C472" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D472" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E472" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F472" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G472" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="H472" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I472" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="J472" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="K472" s="0"/>
+      <c r="L472" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M472" s="0"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="n" s="0">
+        <v>472.0</v>
+      </c>
+      <c r="B473" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C473" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="D473" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E473" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F473" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G473" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H473" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I473" t="s" s="0">
+        <v>916</v>
+      </c>
+      <c r="J473" t="s" s="0">
+        <v>1153</v>
+      </c>
+      <c r="K473" s="0"/>
+      <c r="L473" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M473" s="0"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="n" s="0">
+        <v>473.0</v>
+      </c>
+      <c r="B474" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C474" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D474" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E474" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F474" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G474" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H474" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I474" t="s" s="0">
+        <v>1256</v>
+      </c>
+      <c r="J474" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="K474" s="0"/>
+      <c r="L474" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M474" s="0"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="n" s="0">
+        <v>474.0</v>
+      </c>
+      <c r="B475" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C475" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="D475" t="s" s="0">
+        <v>1258</v>
+      </c>
+      <c r="E475" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F475" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G475" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H475" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I475" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="J475" t="s" s="0">
+        <v>492</v>
+      </c>
+      <c r="K475" s="0"/>
+      <c r="L475" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M475" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="1266">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3789,6 +3789,27 @@
   </si>
   <si>
     <t>RR9501</t>
+  </si>
+  <si>
+    <t>(D-AIUK)</t>
+  </si>
+  <si>
+    <t>RR9503</t>
+  </si>
+  <si>
+    <t>(EI-HEY)</t>
+  </si>
+  <si>
+    <t>(EI-DHD)</t>
+  </si>
+  <si>
+    <t>11:54 AM</t>
+  </si>
+  <si>
+    <t>(A6-FMO)</t>
+  </si>
+  <si>
+    <t>12:33 PM</t>
   </si>
 </sst>
 </file>
@@ -3833,7 +3854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M475"/>
+  <dimension ref="A1:M484"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -21406,6 +21427,339 @@
       </c>
       <c r="M475" s="0"/>
     </row>
+    <row r="476">
+      <c r="A476" t="n" s="0">
+        <v>475.0</v>
+      </c>
+      <c r="B476" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C476" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D476" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E476" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F476" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G476" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H476" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I476" t="s" s="0">
+        <v>1259</v>
+      </c>
+      <c r="J476" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="K476" s="0"/>
+      <c r="L476" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M476" s="0"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="n" s="0">
+        <v>476.0</v>
+      </c>
+      <c r="B477" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C477" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D477" t="s" s="0">
+        <v>1260</v>
+      </c>
+      <c r="E477" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F477" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G477" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H477" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I477" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J477" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="K477" s="0"/>
+      <c r="L477" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M477" s="0"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="n" s="0">
+        <v>477.0</v>
+      </c>
+      <c r="B478" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C478" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D478" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E478" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F478" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G478" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H478" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I478" t="s" s="0">
+        <v>1261</v>
+      </c>
+      <c r="J478" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="K478" s="0"/>
+      <c r="L478" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M478" s="0"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="n" s="0">
+        <v>478.0</v>
+      </c>
+      <c r="B479" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C479" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D479" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E479" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F479" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G479" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H479" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I479" t="s" s="0">
+        <v>1262</v>
+      </c>
+      <c r="J479" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="K479" s="0"/>
+      <c r="L479" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="M479" s="0"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="n" s="0">
+        <v>479.0</v>
+      </c>
+      <c r="B480" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C480" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D480" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E480" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F480" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="G480" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H480" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I480" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J480" t="s" s="0">
+        <v>1263</v>
+      </c>
+      <c r="K480" s="0"/>
+      <c r="L480" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M480" s="0"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="n" s="0">
+        <v>480.0</v>
+      </c>
+      <c r="B481" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C481" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D481" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E481" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F481" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G481" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H481" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I481" t="s" s="0">
+        <v>1264</v>
+      </c>
+      <c r="J481" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="K481" s="0"/>
+      <c r="L481" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M481" s="0"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="n" s="0">
+        <v>481.0</v>
+      </c>
+      <c r="B482" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C482" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D482" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E482" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F482" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G482" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H482" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I482" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="J482" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="K482" s="0"/>
+      <c r="L482" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M482" s="0"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="n" s="0">
+        <v>482.0</v>
+      </c>
+      <c r="B483" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C483" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="D483" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E483" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F483" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G483" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H483" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I483" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J483" t="s" s="0">
+        <v>1265</v>
+      </c>
+      <c r="K483" s="0"/>
+      <c r="L483" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M483" s="0"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="n" s="0">
+        <v>483.0</v>
+      </c>
+      <c r="B484" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C484" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D484" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="E484" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F484" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G484" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H484" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I484" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J484" t="s" s="0">
+        <v>787</v>
+      </c>
+      <c r="K484" s="0"/>
+      <c r="L484" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M484" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="1280">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3810,6 +3810,48 @@
   </si>
   <si>
     <t>12:33 PM</t>
+  </si>
+  <si>
+    <t>1:33 PM</t>
+  </si>
+  <si>
+    <t>2:54 PM</t>
+  </si>
+  <si>
+    <t>(SP-LNL)</t>
+  </si>
+  <si>
+    <t>3:31 PM</t>
+  </si>
+  <si>
+    <t>3:47 PM</t>
+  </si>
+  <si>
+    <t>(OE-ICR)</t>
+  </si>
+  <si>
+    <t>3:54 PM</t>
+  </si>
+  <si>
+    <t>4:03 PM</t>
+  </si>
+  <si>
+    <t>3:58 PM</t>
+  </si>
+  <si>
+    <t>(9H-QBY)</t>
+  </si>
+  <si>
+    <t>(9H-LMH)</t>
+  </si>
+  <si>
+    <t>5:27 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 17 minutes</t>
+  </si>
+  <si>
+    <t>5:21 PM</t>
   </si>
 </sst>
 </file>
@@ -3854,7 +3896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M484"/>
+  <dimension ref="A1:M498"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -21760,6 +21802,524 @@
       </c>
       <c r="M484" s="0"/>
     </row>
+    <row r="485">
+      <c r="A485" t="n" s="0">
+        <v>484.0</v>
+      </c>
+      <c r="B485" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C485" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D485" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E485" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F485" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G485" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H485" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I485" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="J485" t="s" s="0">
+        <v>1266</v>
+      </c>
+      <c r="K485" s="0"/>
+      <c r="L485" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M485" s="0"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="n" s="0">
+        <v>485.0</v>
+      </c>
+      <c r="B486" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C486" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D486" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E486" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F486" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G486" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H486" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I486" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="J486" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="K486" s="0"/>
+      <c r="L486" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M486" s="0"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="n" s="0">
+        <v>486.0</v>
+      </c>
+      <c r="B487" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C487" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D487" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E487" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F487" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G487" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H487" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I487" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J487" t="s" s="0">
+        <v>808</v>
+      </c>
+      <c r="K487" s="0"/>
+      <c r="L487" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M487" s="0"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="n" s="0">
+        <v>487.0</v>
+      </c>
+      <c r="B488" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C488" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D488" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E488" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F488" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G488" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H488" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I488" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="J488" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="K488" s="0"/>
+      <c r="L488" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M488" s="0"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="n" s="0">
+        <v>488.0</v>
+      </c>
+      <c r="B489" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C489" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="D489" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E489" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="F489" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G489" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H489" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I489" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J489" t="s" s="0">
+        <v>1267</v>
+      </c>
+      <c r="K489" s="0"/>
+      <c r="L489" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M489" s="0"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="n" s="0">
+        <v>489.0</v>
+      </c>
+      <c r="B490" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C490" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="D490" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E490" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F490" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G490" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H490" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I490" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="J490" t="s" s="0">
+        <v>1269</v>
+      </c>
+      <c r="K490" s="0"/>
+      <c r="L490" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="M490" s="0"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="n" s="0">
+        <v>490.0</v>
+      </c>
+      <c r="B491" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C491" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D491" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E491" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F491" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G491" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H491" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I491" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J491" t="s" s="0">
+        <v>1270</v>
+      </c>
+      <c r="K491" s="0"/>
+      <c r="L491" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M491" s="0"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="n" s="0">
+        <v>491.0</v>
+      </c>
+      <c r="B492" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C492" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D492" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E492" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F492" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G492" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H492" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I492" t="s" s="0">
+        <v>1271</v>
+      </c>
+      <c r="J492" t="s" s="0">
+        <v>1272</v>
+      </c>
+      <c r="K492" s="0"/>
+      <c r="L492" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M492" s="0"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="n" s="0">
+        <v>492.0</v>
+      </c>
+      <c r="B493" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C493" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D493" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="E493" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="F493" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="G493" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H493" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I493" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J493" t="s" s="0">
+        <v>1273</v>
+      </c>
+      <c r="K493" s="0"/>
+      <c r="L493" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M493" s="0"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="n" s="0">
+        <v>493.0</v>
+      </c>
+      <c r="B494" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C494" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="D494" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E494" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F494" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G494" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H494" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I494" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J494" t="s" s="0">
+        <v>1274</v>
+      </c>
+      <c r="K494" s="0"/>
+      <c r="L494" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M494" s="0"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="n" s="0">
+        <v>494.0</v>
+      </c>
+      <c r="B495" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C495" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D495" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E495" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="F495" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="G495" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H495" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I495" t="s" s="0">
+        <v>1275</v>
+      </c>
+      <c r="J495" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="K495" s="0"/>
+      <c r="L495" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M495" s="0"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="n" s="0">
+        <v>495.0</v>
+      </c>
+      <c r="B496" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C496" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D496" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E496" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F496" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G496" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="H496" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I496" t="s" s="0">
+        <v>1276</v>
+      </c>
+      <c r="J496" t="s" s="0">
+        <v>1277</v>
+      </c>
+      <c r="K496" s="0"/>
+      <c r="L496" t="s" s="0">
+        <v>1278</v>
+      </c>
+      <c r="M496" s="0"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="n" s="0">
+        <v>496.0</v>
+      </c>
+      <c r="B497" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C497" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D497" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E497" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F497" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G497" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H497" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I497" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="J497" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K497" s="0"/>
+      <c r="L497" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M497" s="0"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="n" s="0">
+        <v>497.0</v>
+      </c>
+      <c r="B498" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C498" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D498" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E498" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F498" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G498" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H498" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I498" t="s" s="0">
+        <v>1077</v>
+      </c>
+      <c r="J498" t="s" s="0">
+        <v>1279</v>
+      </c>
+      <c r="K498" s="0"/>
+      <c r="L498" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M498" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4978" uniqueCount="1280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="1297">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3852,6 +3852,57 @@
   </si>
   <si>
     <t>5:21 PM</t>
+  </si>
+  <si>
+    <t>6:01 PM</t>
+  </si>
+  <si>
+    <t>6:06 PM</t>
+  </si>
+  <si>
+    <t>(D-AGWL)</t>
+  </si>
+  <si>
+    <t>(G-MIDO)</t>
+  </si>
+  <si>
+    <t>7:16 PM</t>
+  </si>
+  <si>
+    <t>(SP-RZC)</t>
+  </si>
+  <si>
+    <t>(SP-RST)</t>
+  </si>
+  <si>
+    <t>7:24 PM</t>
+  </si>
+  <si>
+    <t>7:32 PM</t>
+  </si>
+  <si>
+    <t>(9H-QCX)</t>
+  </si>
+  <si>
+    <t>7:49 PM</t>
+  </si>
+  <si>
+    <t>(9H-QDG)</t>
+  </si>
+  <si>
+    <t>9:02 PM</t>
+  </si>
+  <si>
+    <t>(EI-ENL)</t>
+  </si>
+  <si>
+    <t>9:34 PM</t>
+  </si>
+  <si>
+    <t>9:38 PM</t>
+  </si>
+  <si>
+    <t>(EI-DHB)</t>
   </si>
 </sst>
 </file>
@@ -3896,7 +3947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M498"/>
+  <dimension ref="A1:M515"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -22320,6 +22371,635 @@
       </c>
       <c r="M498" s="0"/>
     </row>
+    <row r="499">
+      <c r="A499" t="n" s="0">
+        <v>498.0</v>
+      </c>
+      <c r="B499" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C499" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D499" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E499" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F499" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G499" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H499" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I499" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J499" t="s" s="0">
+        <v>1280</v>
+      </c>
+      <c r="K499" s="0"/>
+      <c r="L499" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M499" s="0"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="n" s="0">
+        <v>499.0</v>
+      </c>
+      <c r="B500" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C500" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D500" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E500" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F500" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G500" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H500" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I500" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J500" t="s" s="0">
+        <v>1281</v>
+      </c>
+      <c r="K500" s="0"/>
+      <c r="L500" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M500" s="0"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="B501" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C501" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D501" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E501" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F501" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G501" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H501" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I501" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J501" t="s" s="0">
+        <v>1118</v>
+      </c>
+      <c r="K501" s="0"/>
+      <c r="L501" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M501" s="0"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="n" s="0">
+        <v>501.0</v>
+      </c>
+      <c r="B502" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C502" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D502" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E502" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="F502" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="G502" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H502" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I502" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J502" t="s" s="0">
+        <v>1018</v>
+      </c>
+      <c r="K502" s="0"/>
+      <c r="L502" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="M502" s="0"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="n" s="0">
+        <v>502.0</v>
+      </c>
+      <c r="B503" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C503" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D503" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E503" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F503" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G503" t="s" s="0">
+        <v>677</v>
+      </c>
+      <c r="H503" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I503" t="s" s="0">
+        <v>1282</v>
+      </c>
+      <c r="J503" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K503" s="0"/>
+      <c r="L503" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M503" s="0"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="n" s="0">
+        <v>503.0</v>
+      </c>
+      <c r="B504" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C504" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D504" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E504" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F504" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G504" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H504" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I504" t="s" s="0">
+        <v>1283</v>
+      </c>
+      <c r="J504" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="K504" s="0"/>
+      <c r="L504" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M504" s="0"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="n" s="0">
+        <v>504.0</v>
+      </c>
+      <c r="B505" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C505" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D505" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E505" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F505" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G505" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H505" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I505" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J505" t="s" s="0">
+        <v>1284</v>
+      </c>
+      <c r="K505" s="0"/>
+      <c r="L505" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M505" s="0"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="n" s="0">
+        <v>505.0</v>
+      </c>
+      <c r="B506" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C506" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D506" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="E506" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F506" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="G506" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H506" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I506" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J506" t="s" s="0">
+        <v>664</v>
+      </c>
+      <c r="K506" s="0"/>
+      <c r="L506" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M506" s="0"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="n" s="0">
+        <v>506.0</v>
+      </c>
+      <c r="B507" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C507" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="D507" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="E507" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="F507" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="G507" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H507" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I507" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J507" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="K507" s="0"/>
+      <c r="L507" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M507" s="0"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="n" s="0">
+        <v>507.0</v>
+      </c>
+      <c r="B508" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C508" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D508" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E508" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F508" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G508" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H508" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I508" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="J508" t="s" s="0">
+        <v>1287</v>
+      </c>
+      <c r="K508" s="0"/>
+      <c r="L508" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M508" s="0"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="n" s="0">
+        <v>508.0</v>
+      </c>
+      <c r="B509" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C509" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="D509" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E509" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F509" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G509" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H509" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I509" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J509" t="s" s="0">
+        <v>1288</v>
+      </c>
+      <c r="K509" s="0"/>
+      <c r="L509" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M509" s="0"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="n" s="0">
+        <v>509.0</v>
+      </c>
+      <c r="B510" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C510" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D510" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="E510" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="F510" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="G510" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H510" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I510" t="s" s="0">
+        <v>1289</v>
+      </c>
+      <c r="J510" t="s" s="0">
+        <v>1290</v>
+      </c>
+      <c r="K510" s="0"/>
+      <c r="L510" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M510" s="0"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="n" s="0">
+        <v>510.0</v>
+      </c>
+      <c r="B511" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C511" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="D511" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="E511" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="F511" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="G511" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H511" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I511" t="s" s="0">
+        <v>1291</v>
+      </c>
+      <c r="J511" t="s" s="0">
+        <v>1292</v>
+      </c>
+      <c r="K511" s="0"/>
+      <c r="L511" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M511" s="0"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="n" s="0">
+        <v>511.0</v>
+      </c>
+      <c r="B512" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C512" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="D512" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E512" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="F512" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="G512" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H512" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I512" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J512" t="s" s="0">
+        <v>1234</v>
+      </c>
+      <c r="K512" s="0"/>
+      <c r="L512" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M512" s="0"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="n" s="0">
+        <v>512.0</v>
+      </c>
+      <c r="B513" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C513" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="D513" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E513" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F513" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G513" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H513" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I513" t="s" s="0">
+        <v>1293</v>
+      </c>
+      <c r="J513" t="s" s="0">
+        <v>1294</v>
+      </c>
+      <c r="K513" s="0"/>
+      <c r="L513" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M513" s="0"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="n" s="0">
+        <v>513.0</v>
+      </c>
+      <c r="B514" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C514" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="D514" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E514" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F514" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G514" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H514" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I514" t="s" s="0">
+        <v>1134</v>
+      </c>
+      <c r="J514" t="s" s="0">
+        <v>1295</v>
+      </c>
+      <c r="K514" s="0"/>
+      <c r="L514" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M514" s="0"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="n" s="0">
+        <v>514.0</v>
+      </c>
+      <c r="B515" t="s" s="0">
+        <v>1236</v>
+      </c>
+      <c r="C515" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="D515" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E515" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F515" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G515" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H515" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I515" t="s" s="0">
+        <v>1296</v>
+      </c>
+      <c r="J515" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="K515" s="0"/>
+      <c r="L515" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M515" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5598" uniqueCount="1343">
   <si>
     <t>NUMBER</t>
   </si>
@@ -3903,6 +3903,144 @@
   </si>
   <si>
     <t>(EI-DHB)</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>1 hours, 54 minutes</t>
+  </si>
+  <si>
+    <t>(PH-NXF)</t>
+  </si>
+  <si>
+    <t>6:02 AM</t>
+  </si>
+  <si>
+    <t>6:32 AM</t>
+  </si>
+  <si>
+    <t>(D-AIDG)</t>
+  </si>
+  <si>
+    <t>6:39 AM</t>
+  </si>
+  <si>
+    <t>W65053</t>
+  </si>
+  <si>
+    <t>Reykjavik</t>
+  </si>
+  <si>
+    <t>(KEF)</t>
+  </si>
+  <si>
+    <t>7:43 AM</t>
+  </si>
+  <si>
+    <t>(D-AIWJ)</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>8:07 AM</t>
+  </si>
+  <si>
+    <t>(9H-QCV)</t>
+  </si>
+  <si>
+    <t>0 hours, 36 minutes</t>
+  </si>
+  <si>
+    <t>9:06 AM</t>
+  </si>
+  <si>
+    <t>8:46 AM</t>
+  </si>
+  <si>
+    <t>(HB-JCF)</t>
+  </si>
+  <si>
+    <t>10:09 AM</t>
+  </si>
+  <si>
+    <t>(EI-DWA)</t>
+  </si>
+  <si>
+    <t>(LN-ENT)</t>
+  </si>
+  <si>
+    <t>10:14 AM</t>
+  </si>
+  <si>
+    <t>(SE-RPD)</t>
+  </si>
+  <si>
+    <t>(EI-ENN)</t>
+  </si>
+  <si>
+    <t>(LN-NGD)</t>
+  </si>
+  <si>
+    <t>11:09 AM</t>
+  </si>
+  <si>
+    <t>11:43 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian (Jan Baalsrud Livery) </t>
+  </si>
+  <si>
+    <t>(LN-ENR)</t>
+  </si>
+  <si>
+    <t>12:16 PM</t>
+  </si>
+  <si>
+    <t>(A6-FMI)</t>
+  </si>
+  <si>
+    <t>12:18 PM</t>
+  </si>
+  <si>
+    <t>(G-EUUD)</t>
+  </si>
+  <si>
+    <t>12:50 PM</t>
+  </si>
+  <si>
+    <t>12:57 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -3 minutes</t>
+  </si>
+  <si>
+    <t>1:29 PM</t>
+  </si>
+  <si>
+    <t>(D-AIWB)</t>
+  </si>
+  <si>
+    <t>1:42 PM</t>
+  </si>
+  <si>
+    <t>(OE-INB)</t>
+  </si>
+  <si>
+    <t>2:21 PM</t>
+  </si>
+  <si>
+    <t>(9H-QAM)</t>
+  </si>
+  <si>
+    <t>2:26 PM</t>
+  </si>
+  <si>
+    <t>3:04 PM</t>
+  </si>
+  <si>
+    <t>4:04 PM</t>
   </si>
 </sst>
 </file>
@@ -3947,7 +4085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M515"/>
+  <dimension ref="A1:M560"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -23000,6 +23138,1671 @@
       </c>
       <c r="M515" s="0"/>
     </row>
+    <row r="516">
+      <c r="A516" t="n" s="0">
+        <v>515.0</v>
+      </c>
+      <c r="B516" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C516" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D516" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E516" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F516" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G516" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H516" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I516" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="J516" t="s" s="0">
+        <v>1248</v>
+      </c>
+      <c r="K516" s="0"/>
+      <c r="L516" t="s" s="0">
+        <v>1298</v>
+      </c>
+      <c r="M516" s="0"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="n" s="0">
+        <v>516.0</v>
+      </c>
+      <c r="B517" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C517" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D517" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E517" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F517" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G517" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H517" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I517" t="s" s="0">
+        <v>1299</v>
+      </c>
+      <c r="J517" t="s" s="0">
+        <v>1300</v>
+      </c>
+      <c r="K517" s="0"/>
+      <c r="L517" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M517" s="0"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="n" s="0">
+        <v>517.0</v>
+      </c>
+      <c r="B518" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C518" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D518" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="E518" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="F518" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="G518" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H518" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I518" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J518" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K518" s="0"/>
+      <c r="L518" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M518" s="0"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="n" s="0">
+        <v>518.0</v>
+      </c>
+      <c r="B519" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C519" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D519" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E519" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F519" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G519" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H519" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I519" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J519" t="s" s="0">
+        <v>1301</v>
+      </c>
+      <c r="K519" s="0"/>
+      <c r="L519" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M519" s="0"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="n" s="0">
+        <v>519.0</v>
+      </c>
+      <c r="B520" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C520" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D520" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E520" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F520" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G520" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H520" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I520" t="s" s="0">
+        <v>1302</v>
+      </c>
+      <c r="J520" t="s" s="0">
+        <v>1303</v>
+      </c>
+      <c r="K520" s="0"/>
+      <c r="L520" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M520" s="0"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="n" s="0">
+        <v>520.0</v>
+      </c>
+      <c r="B521" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C521" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D521" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="E521" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="F521" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="G521" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H521" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I521" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J521" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K521" s="0"/>
+      <c r="L521" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M521" s="0"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="n" s="0">
+        <v>521.0</v>
+      </c>
+      <c r="B522" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C522" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D522" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E522" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="F522" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="G522" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H522" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I522" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J522" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="K522" s="0"/>
+      <c r="L522" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M522" s="0"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="n" s="0">
+        <v>522.0</v>
+      </c>
+      <c r="B523" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C523" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D523" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="E523" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F523" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G523" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H523" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I523" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J523" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="K523" s="0"/>
+      <c r="L523" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M523" s="0"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="n" s="0">
+        <v>523.0</v>
+      </c>
+      <c r="B524" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C524" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="D524" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E524" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F524" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G524" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H524" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I524" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J524" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="K524" s="0"/>
+      <c r="L524" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M524" s="0"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="n" s="0">
+        <v>524.0</v>
+      </c>
+      <c r="B525" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C525" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D525" t="s" s="0">
+        <v>1304</v>
+      </c>
+      <c r="E525" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="F525" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="G525" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H525" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I525" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J525" t="s" s="0">
+        <v>1244</v>
+      </c>
+      <c r="K525" s="0"/>
+      <c r="L525" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M525" s="0"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v>525.0</v>
+      </c>
+      <c r="B526" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C526" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D526" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E526" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F526" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G526" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H526" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I526" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J526" t="s" s="0">
+        <v>1307</v>
+      </c>
+      <c r="K526" s="0"/>
+      <c r="L526" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M526" s="0"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="n" s="0">
+        <v>526.0</v>
+      </c>
+      <c r="B527" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C527" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D527" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E527" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F527" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G527" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H527" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I527" t="s" s="0">
+        <v>1308</v>
+      </c>
+      <c r="J527" t="s" s="0">
+        <v>1150</v>
+      </c>
+      <c r="K527" s="0"/>
+      <c r="L527" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M527" s="0"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="n" s="0">
+        <v>527.0</v>
+      </c>
+      <c r="B528" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C528" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D528" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E528" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F528" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G528" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H528" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I528" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J528" t="s" s="0">
+        <v>749</v>
+      </c>
+      <c r="K528" s="0"/>
+      <c r="L528" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M528" s="0"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="n" s="0">
+        <v>528.0</v>
+      </c>
+      <c r="B529" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C529" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="D529" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E529" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F529" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G529" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H529" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I529" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J529" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="K529" s="0"/>
+      <c r="L529" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M529" s="0"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="n" s="0">
+        <v>529.0</v>
+      </c>
+      <c r="B530" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C530" t="s" s="0">
+        <v>1309</v>
+      </c>
+      <c r="D530" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="E530" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F530" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G530" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H530" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I530" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J530" t="s" s="0">
+        <v>1310</v>
+      </c>
+      <c r="K530" s="0"/>
+      <c r="L530" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M530" s="0"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="n" s="0">
+        <v>530.0</v>
+      </c>
+      <c r="B531" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C531" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="D531" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="E531" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="F531" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="G531" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H531" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I531" t="s" s="0">
+        <v>1311</v>
+      </c>
+      <c r="J531" t="s" s="0">
+        <v>1153</v>
+      </c>
+      <c r="K531" s="0"/>
+      <c r="L531" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M531" s="0"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="n" s="0">
+        <v>531.0</v>
+      </c>
+      <c r="B532" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C532" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D532" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E532" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F532" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G532" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H532" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I532" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J532" t="s" s="0">
+        <v>1313</v>
+      </c>
+      <c r="K532" s="0"/>
+      <c r="L532" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M532" s="0"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="n" s="0">
+        <v>532.0</v>
+      </c>
+      <c r="B533" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C533" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D533" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E533" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F533" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G533" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="H533" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I533" t="s" s="0">
+        <v>1209</v>
+      </c>
+      <c r="J533" t="s" s="0">
+        <v>1314</v>
+      </c>
+      <c r="K533" s="0"/>
+      <c r="L533" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="M533" s="0"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="n" s="0">
+        <v>533.0</v>
+      </c>
+      <c r="B534" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C534" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D534" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="E534" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="F534" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G534" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="H534" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="I534" t="s" s="0">
+        <v>1315</v>
+      </c>
+      <c r="J534" t="s" s="0">
+        <v>1316</v>
+      </c>
+      <c r="K534" s="0"/>
+      <c r="L534" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M534" s="0"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="n" s="0">
+        <v>534.0</v>
+      </c>
+      <c r="B535" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C535" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D535" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E535" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F535" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G535" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H535" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I535" t="s" s="0">
+        <v>1317</v>
+      </c>
+      <c r="J535" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="K535" s="0"/>
+      <c r="L535" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M535" s="0"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="n" s="0">
+        <v>535.0</v>
+      </c>
+      <c r="B536" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C536" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D536" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="E536" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="F536" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="G536" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H536" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I536" t="s" s="0">
+        <v>1318</v>
+      </c>
+      <c r="J536" t="s" s="0">
+        <v>1319</v>
+      </c>
+      <c r="K536" s="0"/>
+      <c r="L536" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M536" s="0"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="n" s="0">
+        <v>536.0</v>
+      </c>
+      <c r="B537" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C537" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="D537" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="E537" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F537" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G537" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H537" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I537" t="s" s="0">
+        <v>1320</v>
+      </c>
+      <c r="J537" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="K537" s="0"/>
+      <c r="L537" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M537" s="0"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="n" s="0">
+        <v>537.0</v>
+      </c>
+      <c r="B538" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C538" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="D538" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="E538" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="F538" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="G538" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H538" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I538" t="s" s="0">
+        <v>1321</v>
+      </c>
+      <c r="J538" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="K538" s="0"/>
+      <c r="L538" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M538" s="0"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="n" s="0">
+        <v>538.0</v>
+      </c>
+      <c r="B539" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C539" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="D539" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E539" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F539" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G539" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H539" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I539" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="J539" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="K539" s="0"/>
+      <c r="L539" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M539" s="0"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="n" s="0">
+        <v>539.0</v>
+      </c>
+      <c r="B540" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C540" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="D540" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="E540" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F540" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G540" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H540" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I540" t="s" s="0">
+        <v>1322</v>
+      </c>
+      <c r="J540" t="s" s="0">
+        <v>1323</v>
+      </c>
+      <c r="K540" s="0"/>
+      <c r="L540" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M540" s="0"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="n" s="0">
+        <v>540.0</v>
+      </c>
+      <c r="B541" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C541" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="D541" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="E541" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F541" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G541" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H541" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I541" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J541" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="K541" s="0"/>
+      <c r="L541" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M541" s="0"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="n" s="0">
+        <v>541.0</v>
+      </c>
+      <c r="B542" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C542" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D542" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="E542" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="F542" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="G542" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H542" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I542" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="J542" t="s" s="0">
+        <v>1324</v>
+      </c>
+      <c r="K542" s="0"/>
+      <c r="L542" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M542" s="0"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="n" s="0">
+        <v>542.0</v>
+      </c>
+      <c r="B543" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C543" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D543" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E543" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F543" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G543" t="s" s="0">
+        <v>1325</v>
+      </c>
+      <c r="H543" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I543" t="s" s="0">
+        <v>1326</v>
+      </c>
+      <c r="J543" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="K543" s="0"/>
+      <c r="L543" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M543" s="0"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="n" s="0">
+        <v>543.0</v>
+      </c>
+      <c r="B544" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C544" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D544" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E544" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F544" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G544" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H544" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I544" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J544" t="s" s="0">
+        <v>1327</v>
+      </c>
+      <c r="K544" s="0"/>
+      <c r="L544" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M544" s="0"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="n" s="0">
+        <v>544.0</v>
+      </c>
+      <c r="B545" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C545" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D545" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E545" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F545" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G545" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H545" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I545" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="J545" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="K545" s="0"/>
+      <c r="L545" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="M545" s="0"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="n" s="0">
+        <v>545.0</v>
+      </c>
+      <c r="B546" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C546" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D546" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E546" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F546" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G546" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H546" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I546" t="s" s="0">
+        <v>1328</v>
+      </c>
+      <c r="J546" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="K546" s="0"/>
+      <c r="L546" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="M546" s="0"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="n" s="0">
+        <v>546.0</v>
+      </c>
+      <c r="B547" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C547" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D547" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E547" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F547" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G547" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H547" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I547" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="J547" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="K547" s="0"/>
+      <c r="L547" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M547" s="0"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="n" s="0">
+        <v>547.0</v>
+      </c>
+      <c r="B548" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C548" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D548" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E548" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F548" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G548" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H548" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I548" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J548" t="s" s="0">
+        <v>1329</v>
+      </c>
+      <c r="K548" s="0"/>
+      <c r="L548" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M548" s="0"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="n" s="0">
+        <v>548.0</v>
+      </c>
+      <c r="B549" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C549" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="D549" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E549" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F549" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G549" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H549" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I549" t="s" s="0">
+        <v>1330</v>
+      </c>
+      <c r="J549" t="s" s="0">
+        <v>1265</v>
+      </c>
+      <c r="K549" s="0"/>
+      <c r="L549" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M549" s="0"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="n" s="0">
+        <v>549.0</v>
+      </c>
+      <c r="B550" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C550" t="s" s="0">
+        <v>1331</v>
+      </c>
+      <c r="D550" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E550" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F550" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="G550" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H550" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I550" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J550" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="K550" s="0"/>
+      <c r="L550" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M550" s="0"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="n" s="0">
+        <v>550.0</v>
+      </c>
+      <c r="B551" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C551" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D551" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="E551" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="F551" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="G551" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H551" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I551" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J551" t="s" s="0">
+        <v>1332</v>
+      </c>
+      <c r="K551" s="0"/>
+      <c r="L551" t="s" s="0">
+        <v>1333</v>
+      </c>
+      <c r="M551" s="0"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="n" s="0">
+        <v>551.0</v>
+      </c>
+      <c r="B552" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C552" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D552" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E552" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F552" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G552" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H552" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I552" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="J552" t="s" s="0">
+        <v>1334</v>
+      </c>
+      <c r="K552" s="0"/>
+      <c r="L552" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M552" s="0"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="n" s="0">
+        <v>552.0</v>
+      </c>
+      <c r="B553" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C553" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D553" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="E553" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="F553" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="G553" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H553" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I553" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="J553" t="s" s="0">
+        <v>1266</v>
+      </c>
+      <c r="K553" s="0"/>
+      <c r="L553" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M553" s="0"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="n" s="0">
+        <v>553.0</v>
+      </c>
+      <c r="B554" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C554" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D554" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E554" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F554" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G554" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H554" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I554" t="s" s="0">
+        <v>1335</v>
+      </c>
+      <c r="J554" t="s" s="0">
+        <v>1336</v>
+      </c>
+      <c r="K554" s="0"/>
+      <c r="L554" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M554" s="0"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="n" s="0">
+        <v>554.0</v>
+      </c>
+      <c r="B555" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C555" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D555" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E555" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F555" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G555" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H555" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I555" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J555" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="K555" s="0"/>
+      <c r="L555" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M555" s="0"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="n" s="0">
+        <v>555.0</v>
+      </c>
+      <c r="B556" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C556" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D556" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E556" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F556" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G556" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H556" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I556" t="s" s="0">
+        <v>1337</v>
+      </c>
+      <c r="J556" t="s" s="0">
+        <v>1338</v>
+      </c>
+      <c r="K556" s="0"/>
+      <c r="L556" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M556" s="0"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="n" s="0">
+        <v>556.0</v>
+      </c>
+      <c r="B557" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C557" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="D557" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="E557" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="F557" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="G557" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H557" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I557" t="s" s="0">
+        <v>1339</v>
+      </c>
+      <c r="J557" t="s" s="0">
+        <v>1099</v>
+      </c>
+      <c r="K557" s="0"/>
+      <c r="L557" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="M557" s="0"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="n" s="0">
+        <v>557.0</v>
+      </c>
+      <c r="B558" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C558" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="D558" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E558" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F558" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G558" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H558" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I558" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J558" t="s" s="0">
+        <v>1340</v>
+      </c>
+      <c r="K558" s="0"/>
+      <c r="L558" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M558" s="0"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="n" s="0">
+        <v>558.0</v>
+      </c>
+      <c r="B559" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C559" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D559" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E559" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F559" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G559" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H559" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I559" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="J559" t="s" s="0">
+        <v>1341</v>
+      </c>
+      <c r="K559" s="0"/>
+      <c r="L559" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M559" s="0"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="n" s="0">
+        <v>559.0</v>
+      </c>
+      <c r="B560" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C560" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D560" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="E560" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="F560" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="G560" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H560" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I560" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J560" t="s" s="0">
+        <v>1342</v>
+      </c>
+      <c r="K560" s="0"/>
+      <c r="L560" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M560" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5598" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5718" uniqueCount="1354">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4041,6 +4041,39 @@
   </si>
   <si>
     <t>4:04 PM</t>
+  </si>
+  <si>
+    <t>(9H-QES)</t>
+  </si>
+  <si>
+    <t>4:08 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIA)</t>
+  </si>
+  <si>
+    <t>4:32 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -13 minutes</t>
+  </si>
+  <si>
+    <t>(G-EZWX)</t>
+  </si>
+  <si>
+    <t>5:17 PM</t>
+  </si>
+  <si>
+    <t>(9H-VUU)</t>
+  </si>
+  <si>
+    <t>5:25 PM</t>
+  </si>
+  <si>
+    <t>5:53 PM</t>
+  </si>
+  <si>
+    <t>(EI-DPG)</t>
   </si>
 </sst>
 </file>
@@ -4085,7 +4118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M560"/>
+  <dimension ref="A1:M572"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -24803,6 +24836,450 @@
       </c>
       <c r="M560" s="0"/>
     </row>
+    <row r="561">
+      <c r="A561" t="n" s="0">
+        <v>560.0</v>
+      </c>
+      <c r="B561" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C561" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D561" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="E561" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="F561" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="G561" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H561" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I561" t="s" s="0">
+        <v>1343</v>
+      </c>
+      <c r="J561" t="s" s="0">
+        <v>1344</v>
+      </c>
+      <c r="K561" s="0"/>
+      <c r="L561" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M561" s="0"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="n" s="0">
+        <v>561.0</v>
+      </c>
+      <c r="B562" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C562" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D562" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E562" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F562" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G562" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H562" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I562" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="J562" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="K562" s="0"/>
+      <c r="L562" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M562" s="0"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="n" s="0">
+        <v>562.0</v>
+      </c>
+      <c r="B563" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C563" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D563" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="E563" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="F563" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="G563" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H563" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I563" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J563" t="s" s="0">
+        <v>616</v>
+      </c>
+      <c r="K563" s="0"/>
+      <c r="L563" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M563" s="0"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="n" s="0">
+        <v>563.0</v>
+      </c>
+      <c r="B564" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C564" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D564" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="E564" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="F564" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="G564" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H564" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I564" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="J564" t="s" s="0">
+        <v>1346</v>
+      </c>
+      <c r="K564" s="0"/>
+      <c r="L564" t="s" s="0">
+        <v>1347</v>
+      </c>
+      <c r="M564" s="0"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="n" s="0">
+        <v>564.0</v>
+      </c>
+      <c r="B565" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C565" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D565" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="E565" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F565" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G565" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H565" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I565" t="s" s="0">
+        <v>1348</v>
+      </c>
+      <c r="J565" t="s" s="0">
+        <v>1015</v>
+      </c>
+      <c r="K565" s="0"/>
+      <c r="L565" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M565" s="0"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="n" s="0">
+        <v>565.0</v>
+      </c>
+      <c r="B566" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C566" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D566" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E566" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F566" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G566" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H566" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I566" t="s" s="0">
+        <v>849</v>
+      </c>
+      <c r="J566" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="K566" s="0"/>
+      <c r="L566" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M566" s="0"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="n" s="0">
+        <v>566.0</v>
+      </c>
+      <c r="B567" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C567" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="D567" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E567" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F567" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G567" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H567" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I567" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J567" t="s" s="0">
+        <v>1349</v>
+      </c>
+      <c r="K567" s="0"/>
+      <c r="L567" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M567" s="0"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="n" s="0">
+        <v>567.0</v>
+      </c>
+      <c r="B568" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C568" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D568" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="E568" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="F568" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="G568" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H568" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I568" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="J568" t="s" s="0">
+        <v>1118</v>
+      </c>
+      <c r="K568" s="0"/>
+      <c r="L568" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M568" s="0"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="n" s="0">
+        <v>568.0</v>
+      </c>
+      <c r="B569" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C569" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="D569" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="E569" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F569" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G569" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H569" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I569" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J569" t="s" s="0">
+        <v>1352</v>
+      </c>
+      <c r="K569" s="0"/>
+      <c r="L569" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M569" s="0"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="n" s="0">
+        <v>569.0</v>
+      </c>
+      <c r="B570" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C570" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="D570" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="E570" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F570" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="G570" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H570" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I570" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J570" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="K570" s="0"/>
+      <c r="L570" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M570" s="0"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="n" s="0">
+        <v>570.0</v>
+      </c>
+      <c r="B571" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C571" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D571" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E571" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F571" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G571" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H571" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I571" t="s" s="0">
+        <v>1353</v>
+      </c>
+      <c r="J571" t="s" s="0">
+        <v>1215</v>
+      </c>
+      <c r="K571" s="0"/>
+      <c r="L571" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M571" s="0"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="n" s="0">
+        <v>571.0</v>
+      </c>
+      <c r="B572" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C572" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D572" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E572" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F572" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G572" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H572" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I572" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J572" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="K572" s="0"/>
+      <c r="L572" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M572" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5718" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="1378">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4074,6 +4074,78 @@
   </si>
   <si>
     <t>(EI-DPG)</t>
+  </si>
+  <si>
+    <t>(EI-HGG)</t>
+  </si>
+  <si>
+    <t>6:37 PM</t>
+  </si>
+  <si>
+    <t>(OH-LVH)</t>
+  </si>
+  <si>
+    <t>7:01 PM</t>
+  </si>
+  <si>
+    <t>6:54 PM</t>
+  </si>
+  <si>
+    <t>7:28 PM</t>
+  </si>
+  <si>
+    <t>(EI-EXF)</t>
+  </si>
+  <si>
+    <t>(ORY)</t>
+  </si>
+  <si>
+    <t>(F-HTVX)</t>
+  </si>
+  <si>
+    <t>(EI-EKG)</t>
+  </si>
+  <si>
+    <t>8:41 PM</t>
+  </si>
+  <si>
+    <t>(OE-IJG)</t>
+  </si>
+  <si>
+    <t>8:31 PM</t>
+  </si>
+  <si>
+    <t>8:58 PM</t>
+  </si>
+  <si>
+    <t>9:20 PM</t>
+  </si>
+  <si>
+    <t>(G-UZHP)</t>
+  </si>
+  <si>
+    <t>9:36 PM</t>
+  </si>
+  <si>
+    <t>(SP-LDG)</t>
+  </si>
+  <si>
+    <t>9:18 PM</t>
+  </si>
+  <si>
+    <t>FR2437</t>
+  </si>
+  <si>
+    <t>10:16 PM</t>
+  </si>
+  <si>
+    <t>(LN-ENV)</t>
+  </si>
+  <si>
+    <t>(G-EZFU)</t>
+  </si>
+  <si>
+    <t>10:32 PM</t>
   </si>
 </sst>
 </file>
@@ -4118,7 +4190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M572"/>
+  <dimension ref="A1:M593"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -25280,6 +25352,783 @@
       </c>
       <c r="M572" s="0"/>
     </row>
+    <row r="573">
+      <c r="A573" t="n" s="0">
+        <v>572.0</v>
+      </c>
+      <c r="B573" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C573" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D573" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E573" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F573" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G573" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H573" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I573" t="s" s="0">
+        <v>1354</v>
+      </c>
+      <c r="J573" t="s" s="0">
+        <v>862</v>
+      </c>
+      <c r="K573" s="0"/>
+      <c r="L573" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M573" s="0"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="n" s="0">
+        <v>573.0</v>
+      </c>
+      <c r="B574" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C574" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="D574" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E574" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F574" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G574" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H574" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I574" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="J574" t="s" s="0">
+        <v>1355</v>
+      </c>
+      <c r="K574" s="0"/>
+      <c r="L574" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M574" s="0"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="n" s="0">
+        <v>574.0</v>
+      </c>
+      <c r="B575" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C575" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D575" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E575" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F575" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G575" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H575" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I575" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J575" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="K575" s="0"/>
+      <c r="L575" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M575" s="0"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="n" s="0">
+        <v>575.0</v>
+      </c>
+      <c r="B576" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C576" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D576" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E576" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F576" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G576" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H576" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I576" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J576" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="K576" s="0"/>
+      <c r="L576" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M576" s="0"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="B577" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C577" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D577" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="E577" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F577" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G577" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H577" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I577" t="s" s="0">
+        <v>1356</v>
+      </c>
+      <c r="J577" t="s" s="0">
+        <v>1357</v>
+      </c>
+      <c r="K577" s="0"/>
+      <c r="L577" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M577" s="0"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="n" s="0">
+        <v>577.0</v>
+      </c>
+      <c r="B578" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C578" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D578" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E578" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F578" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G578" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H578" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I578" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J578" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K578" s="0"/>
+      <c r="L578" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M578" s="0"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="n" s="0">
+        <v>578.0</v>
+      </c>
+      <c r="B579" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C579" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D579" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="E579" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F579" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G579" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H579" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I579" t="s" s="0">
+        <v>658</v>
+      </c>
+      <c r="J579" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="K579" s="0"/>
+      <c r="L579" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M579" s="0"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="n" s="0">
+        <v>579.0</v>
+      </c>
+      <c r="B580" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C580" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D580" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="E580" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F580" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="G580" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H580" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I580" t="s" s="0">
+        <v>967</v>
+      </c>
+      <c r="J580" t="s" s="0">
+        <v>1358</v>
+      </c>
+      <c r="K580" s="0"/>
+      <c r="L580" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M580" s="0"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="n" s="0">
+        <v>580.0</v>
+      </c>
+      <c r="B581" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C581" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D581" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="E581" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F581" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="G581" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H581" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I581" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J581" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="K581" s="0"/>
+      <c r="L581" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M581" s="0"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="n" s="0">
+        <v>581.0</v>
+      </c>
+      <c r="B582" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C582" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="D582" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E582" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F582" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G582" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H582" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I582" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J582" t="s" s="0">
+        <v>1359</v>
+      </c>
+      <c r="K582" s="0"/>
+      <c r="L582" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M582" s="0"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="n" s="0">
+        <v>582.0</v>
+      </c>
+      <c r="B583" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C583" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="D583" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="E583" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="F583" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="G583" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H583" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I583" t="s" s="0">
+        <v>1360</v>
+      </c>
+      <c r="J583" t="s" s="0">
+        <v>668</v>
+      </c>
+      <c r="K583" s="0"/>
+      <c r="L583" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M583" s="0"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="n" s="0">
+        <v>583.0</v>
+      </c>
+      <c r="B584" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C584" t="s" s="0">
+        <v>1122</v>
+      </c>
+      <c r="D584" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E584" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F584" t="s" s="0">
+        <v>1361</v>
+      </c>
+      <c r="G584" t="s" s="0">
+        <v>607</v>
+      </c>
+      <c r="H584" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I584" t="s" s="0">
+        <v>1362</v>
+      </c>
+      <c r="J584" t="s" s="0">
+        <v>680</v>
+      </c>
+      <c r="K584" s="0"/>
+      <c r="L584" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M584" s="0"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="n" s="0">
+        <v>584.0</v>
+      </c>
+      <c r="B585" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C585" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D585" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="E585" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="F585" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="G585" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H585" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I585" t="s" s="0">
+        <v>1363</v>
+      </c>
+      <c r="J585" t="s" s="0">
+        <v>1364</v>
+      </c>
+      <c r="K585" s="0"/>
+      <c r="L585" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M585" s="0"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="n" s="0">
+        <v>585.0</v>
+      </c>
+      <c r="B586" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C586" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D586" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="E586" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F586" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G586" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H586" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I586" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="J586" t="s" s="0">
+        <v>1366</v>
+      </c>
+      <c r="K586" s="0"/>
+      <c r="L586" t="s" s="0">
+        <v>841</v>
+      </c>
+      <c r="M586" s="0"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="n" s="0">
+        <v>586.0</v>
+      </c>
+      <c r="B587" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C587" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D587" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E587" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F587" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G587" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H587" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I587" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J587" t="s" s="0">
+        <v>1367</v>
+      </c>
+      <c r="K587" s="0"/>
+      <c r="L587" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M587" s="0"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="n" s="0">
+        <v>587.0</v>
+      </c>
+      <c r="B588" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C588" t="s" s="0">
+        <v>1368</v>
+      </c>
+      <c r="D588" t="s" s="0">
+        <v>1173</v>
+      </c>
+      <c r="E588" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F588" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G588" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H588" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I588" t="s" s="0">
+        <v>1369</v>
+      </c>
+      <c r="J588" t="s" s="0">
+        <v>1370</v>
+      </c>
+      <c r="K588" s="0"/>
+      <c r="L588" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M588" s="0"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="n" s="0">
+        <v>588.0</v>
+      </c>
+      <c r="B589" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C589" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D589" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E589" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F589" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G589" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H589" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I589" t="s" s="0">
+        <v>1371</v>
+      </c>
+      <c r="J589" t="s" s="0">
+        <v>1372</v>
+      </c>
+      <c r="K589" s="0"/>
+      <c r="L589" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="M589" s="0"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="n" s="0">
+        <v>589.0</v>
+      </c>
+      <c r="B590" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C590" t="s" s="0">
+        <v>1235</v>
+      </c>
+      <c r="D590" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E590" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F590" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G590" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H590" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I590" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="J590" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="K590" s="0"/>
+      <c r="L590" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M590" s="0"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="n" s="0">
+        <v>590.0</v>
+      </c>
+      <c r="B591" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C591" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="D591" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E591" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F591" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G591" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H591" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I591" t="s" s="0">
+        <v>702</v>
+      </c>
+      <c r="J591" t="s" s="0">
+        <v>1374</v>
+      </c>
+      <c r="K591" s="0"/>
+      <c r="L591" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M591" s="0"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="n" s="0">
+        <v>591.0</v>
+      </c>
+      <c r="B592" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C592" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="D592" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E592" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F592" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G592" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H592" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I592" t="s" s="0">
+        <v>1375</v>
+      </c>
+      <c r="J592" t="s" s="0">
+        <v>1130</v>
+      </c>
+      <c r="K592" s="0"/>
+      <c r="L592" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M592" s="0"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="n" s="0">
+        <v>592.0</v>
+      </c>
+      <c r="B593" t="s" s="0">
+        <v>1297</v>
+      </c>
+      <c r="C593" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="D593" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="E593" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F593" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G593" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H593" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I593" t="s" s="0">
+        <v>1376</v>
+      </c>
+      <c r="J593" t="s" s="0">
+        <v>1377</v>
+      </c>
+      <c r="K593" s="0"/>
+      <c r="L593" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M593" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6128" uniqueCount="1391">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4146,6 +4146,45 @@
   </si>
   <si>
     <t>10:32 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 16</t>
+  </si>
+  <si>
+    <t>6:13 AM</t>
+  </si>
+  <si>
+    <t>6:21 AM</t>
+  </si>
+  <si>
+    <t>6:19 AM</t>
+  </si>
+  <si>
+    <t>(PH-NXN)</t>
+  </si>
+  <si>
+    <t>6:42 AM</t>
+  </si>
+  <si>
+    <t>6:37 AM</t>
+  </si>
+  <si>
+    <t>7:24 AM</t>
+  </si>
+  <si>
+    <t>8:28 AM</t>
+  </si>
+  <si>
+    <t>9:02 AM</t>
+  </si>
+  <si>
+    <t>9:41 AM</t>
+  </si>
+  <si>
+    <t>(EI-EMR)</t>
+  </si>
+  <si>
+    <t>9:48 AM</t>
   </si>
 </sst>
 </file>
@@ -4190,7 +4229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M593"/>
+  <dimension ref="A1:M613"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -26129,6 +26168,746 @@
       </c>
       <c r="M593" s="0"/>
     </row>
+    <row r="594">
+      <c r="A594" t="n" s="0">
+        <v>593.0</v>
+      </c>
+      <c r="B594" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C594" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D594" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="E594" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F594" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G594" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H594" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I594" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="J594" t="s" s="0">
+        <v>1379</v>
+      </c>
+      <c r="K594" s="0"/>
+      <c r="L594" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="M594" s="0"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="n" s="0">
+        <v>594.0</v>
+      </c>
+      <c r="B595" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C595" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D595" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E595" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F595" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G595" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H595" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I595" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="J595" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="K595" s="0"/>
+      <c r="L595" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M595" s="0"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="n" s="0">
+        <v>595.0</v>
+      </c>
+      <c r="B596" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C596" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="D596" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="E596" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F596" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G596" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H596" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I596" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J596" t="s" s="0">
+        <v>1380</v>
+      </c>
+      <c r="K596" s="0"/>
+      <c r="L596" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M596" s="0"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="n" s="0">
+        <v>596.0</v>
+      </c>
+      <c r="B597" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C597" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D597" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="E597" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="F597" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="G597" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H597" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I597" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J597" t="s" s="0">
+        <v>1381</v>
+      </c>
+      <c r="K597" s="0"/>
+      <c r="L597" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M597" s="0"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="n" s="0">
+        <v>597.0</v>
+      </c>
+      <c r="B598" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C598" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D598" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E598" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F598" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G598" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H598" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I598" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="J598" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="K598" s="0"/>
+      <c r="L598" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M598" s="0"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="n" s="0">
+        <v>598.0</v>
+      </c>
+      <c r="B599" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C599" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D599" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E599" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F599" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G599" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H599" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I599" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J599" t="s" s="0">
+        <v>1383</v>
+      </c>
+      <c r="K599" s="0"/>
+      <c r="L599" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M599" s="0"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="n" s="0">
+        <v>599.0</v>
+      </c>
+      <c r="B600" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C600" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D600" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E600" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="F600" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="G600" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H600" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I600" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J600" t="s" s="0">
+        <v>1384</v>
+      </c>
+      <c r="K600" s="0"/>
+      <c r="L600" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M600" s="0"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="B601" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C601" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D601" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E601" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F601" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G601" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H601" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I601" t="s" s="0">
+        <v>1240</v>
+      </c>
+      <c r="J601" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="K601" s="0"/>
+      <c r="L601" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M601" s="0"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="n" s="0">
+        <v>601.0</v>
+      </c>
+      <c r="B602" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C602" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D602" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E602" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F602" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G602" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H602" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I602" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J602" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="K602" s="0"/>
+      <c r="L602" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M602" s="0"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="n" s="0">
+        <v>602.0</v>
+      </c>
+      <c r="B603" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C603" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D603" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="E603" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="F603" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="G603" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H603" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I603" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J603" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="K603" s="0"/>
+      <c r="L603" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M603" s="0"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="n" s="0">
+        <v>603.0</v>
+      </c>
+      <c r="B604" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C604" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D604" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="E604" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="F604" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="G604" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H604" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I604" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J604" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K604" s="0"/>
+      <c r="L604" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="M604" s="0"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="n" s="0">
+        <v>604.0</v>
+      </c>
+      <c r="B605" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C605" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D605" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="E605" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F605" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G605" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H605" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I605" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J605" t="s" s="0">
+        <v>1055</v>
+      </c>
+      <c r="K605" s="0"/>
+      <c r="L605" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M605" s="0"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="n" s="0">
+        <v>605.0</v>
+      </c>
+      <c r="B606" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C606" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D606" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E606" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F606" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G606" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H606" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I606" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J606" t="s" s="0">
+        <v>1385</v>
+      </c>
+      <c r="K606" s="0"/>
+      <c r="L606" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M606" s="0"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="n" s="0">
+        <v>606.0</v>
+      </c>
+      <c r="B607" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C607" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D607" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="E607" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="F607" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="G607" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H607" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I607" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J607" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="K607" s="0"/>
+      <c r="L607" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="M607" s="0"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="n" s="0">
+        <v>607.0</v>
+      </c>
+      <c r="B608" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C608" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D608" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E608" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F608" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G608" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H608" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I608" t="s" s="0">
+        <v>1061</v>
+      </c>
+      <c r="J608" t="s" s="0">
+        <v>747</v>
+      </c>
+      <c r="K608" s="0"/>
+      <c r="L608" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M608" s="0"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="n" s="0">
+        <v>608.0</v>
+      </c>
+      <c r="B609" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C609" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D609" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E609" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F609" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G609" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H609" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I609" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J609" t="s" s="0">
+        <v>1249</v>
+      </c>
+      <c r="K609" s="0"/>
+      <c r="L609" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M609" s="0"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="n" s="0">
+        <v>609.0</v>
+      </c>
+      <c r="B610" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C610" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D610" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E610" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F610" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G610" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H610" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I610" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J610" t="s" s="0">
+        <v>1386</v>
+      </c>
+      <c r="K610" s="0"/>
+      <c r="L610" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M610" s="0"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="n" s="0">
+        <v>610.0</v>
+      </c>
+      <c r="B611" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C611" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D611" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E611" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F611" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G611" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H611" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I611" t="s" s="0">
+        <v>1345</v>
+      </c>
+      <c r="J611" t="s" s="0">
+        <v>1387</v>
+      </c>
+      <c r="K611" s="0"/>
+      <c r="L611" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M611" s="0"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="n" s="0">
+        <v>611.0</v>
+      </c>
+      <c r="B612" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C612" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="D612" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E612" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F612" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G612" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H612" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I612" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J612" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="K612" s="0"/>
+      <c r="L612" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M612" s="0"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="n" s="0">
+        <v>612.0</v>
+      </c>
+      <c r="B613" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C613" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D613" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E613" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F613" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G613" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H613" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I613" t="s" s="0">
+        <v>1389</v>
+      </c>
+      <c r="J613" t="s" s="0">
+        <v>1390</v>
+      </c>
+      <c r="K613" s="0"/>
+      <c r="L613" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M613" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6128" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7548" uniqueCount="1520">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4185,6 +4185,393 @@
   </si>
   <si>
     <t>9:48 AM</t>
+  </si>
+  <si>
+    <t>12:47 PM</t>
+  </si>
+  <si>
+    <t>(G-EUUU)</t>
+  </si>
+  <si>
+    <t>0 hours, 43 minutes</t>
+  </si>
+  <si>
+    <t>(LN-DYY)</t>
+  </si>
+  <si>
+    <t>1 hours, 6 minutes</t>
+  </si>
+  <si>
+    <t>(D-AISU)</t>
+  </si>
+  <si>
+    <t>(G-EZBI)</t>
+  </si>
+  <si>
+    <t>1:07 PM</t>
+  </si>
+  <si>
+    <t>1:48 PM</t>
+  </si>
+  <si>
+    <t>1:46 PM</t>
+  </si>
+  <si>
+    <t>(D-AIEI)</t>
+  </si>
+  <si>
+    <t>(EI-HET)</t>
+  </si>
+  <si>
+    <t>0 hours, 50 minutes</t>
+  </si>
+  <si>
+    <t>(SP-RKM)</t>
+  </si>
+  <si>
+    <t>(HB-AZJ)</t>
+  </si>
+  <si>
+    <t>2:53 PM</t>
+  </si>
+  <si>
+    <t>(OE-LWD)</t>
+  </si>
+  <si>
+    <t>3:08 PM</t>
+  </si>
+  <si>
+    <t>(SP-LNK)</t>
+  </si>
+  <si>
+    <t>3:22 PM</t>
+  </si>
+  <si>
+    <t>(SP-RSF)</t>
+  </si>
+  <si>
+    <t>3:48 PM</t>
+  </si>
+  <si>
+    <t>(EI-EFH)</t>
+  </si>
+  <si>
+    <t>3:46 PM</t>
+  </si>
+  <si>
+    <t>(9H-QDP)</t>
+  </si>
+  <si>
+    <t>3:53 PM</t>
+  </si>
+  <si>
+    <t>(LX-LQI)</t>
+  </si>
+  <si>
+    <t>3:39 PM</t>
+  </si>
+  <si>
+    <t>4:01 PM</t>
+  </si>
+  <si>
+    <t>LO9</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>(ORD)</t>
+  </si>
+  <si>
+    <t>B788</t>
+  </si>
+  <si>
+    <t>(SP-LRF)</t>
+  </si>
+  <si>
+    <t>(EI-EMI)</t>
+  </si>
+  <si>
+    <t>6:03 PM</t>
+  </si>
+  <si>
+    <t>6:21 PM</t>
+  </si>
+  <si>
+    <t>(G-EZDI)</t>
+  </si>
+  <si>
+    <t>0 hours, 52 minutes</t>
+  </si>
+  <si>
+    <t>6:53 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Dolomiti </t>
+  </si>
+  <si>
+    <t>(I-ADJS)</t>
+  </si>
+  <si>
+    <t>0 hours, 54 minutes</t>
+  </si>
+  <si>
+    <t>7:23 PM</t>
+  </si>
+  <si>
+    <t>(G-JZBC)</t>
+  </si>
+  <si>
+    <t>8:05 PM</t>
+  </si>
+  <si>
+    <t>(G-DRTN)</t>
+  </si>
+  <si>
+    <t>8:37 PM</t>
+  </si>
+  <si>
+    <t>(9H-VUX)</t>
+  </si>
+  <si>
+    <t>(EI-HMT)</t>
+  </si>
+  <si>
+    <t>10:22 PM</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t>5:52 AM</t>
+  </si>
+  <si>
+    <t>7:39 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 29 minutes</t>
+  </si>
+  <si>
+    <t>6:33 AM</t>
+  </si>
+  <si>
+    <t>(HA-LZG)</t>
+  </si>
+  <si>
+    <t>(D-AIQW)</t>
+  </si>
+  <si>
+    <t>9:29 AM</t>
+  </si>
+  <si>
+    <t>(EI-EVH)</t>
+  </si>
+  <si>
+    <t>10:08 AM</t>
+  </si>
+  <si>
+    <t>(D-ACNO)</t>
+  </si>
+  <si>
+    <t>(EI-IFW)</t>
+  </si>
+  <si>
+    <t>11:31 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 48 minutes</t>
+  </si>
+  <si>
+    <t>11:28 AM</t>
+  </si>
+  <si>
+    <t>(A6-FKD)</t>
+  </si>
+  <si>
+    <t>12:37 PM</t>
+  </si>
+  <si>
+    <t>(G-EZGG)</t>
+  </si>
+  <si>
+    <t>VTB200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JetStream </t>
+  </si>
+  <si>
+    <t>C650</t>
+  </si>
+  <si>
+    <t>(HA-JEX)</t>
+  </si>
+  <si>
+    <t>2:02 PM</t>
+  </si>
+  <si>
+    <t>1:49 PM</t>
+  </si>
+  <si>
+    <t>(OE-LWE)</t>
+  </si>
+  <si>
+    <t>2:43 PM</t>
+  </si>
+  <si>
+    <t>(9H-QDV)</t>
+  </si>
+  <si>
+    <t>4:26 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -10 minutes</t>
+  </si>
+  <si>
+    <t>5:54 PM</t>
+  </si>
+  <si>
+    <t>6:46 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKI)</t>
+  </si>
+  <si>
+    <t>(EI-EVI)</t>
+  </si>
+  <si>
+    <t>9:06 PM</t>
+  </si>
+  <si>
+    <t>(SP-LIQ)</t>
+  </si>
+  <si>
+    <t>9:24 PM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 18</t>
+  </si>
+  <si>
+    <t>(D-AIDX)</t>
+  </si>
+  <si>
+    <t>6:43 AM</t>
+  </si>
+  <si>
+    <t>7:03 AM</t>
+  </si>
+  <si>
+    <t>7:16 AM</t>
+  </si>
+  <si>
+    <t>(SP-LIL)</t>
+  </si>
+  <si>
+    <t>(EI-ENO)</t>
+  </si>
+  <si>
+    <t>(EI-DPF)</t>
+  </si>
+  <si>
+    <t>10:19 AM</t>
+  </si>
+  <si>
+    <t>(D-AIUF)</t>
+  </si>
+  <si>
+    <t>10:59 AM</t>
+  </si>
+  <si>
+    <t>(A6-FPA)</t>
+  </si>
+  <si>
+    <t>1:03 PM</t>
+  </si>
+  <si>
+    <t>12:49 PM</t>
+  </si>
+  <si>
+    <t>12:59 PM</t>
+  </si>
+  <si>
+    <t>1:16 PM</t>
+  </si>
+  <si>
+    <t>(EI-EFX)</t>
+  </si>
+  <si>
+    <t>OU8367</t>
+  </si>
+  <si>
+    <t>Skopje</t>
+  </si>
+  <si>
+    <t>(SKP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia Airlines </t>
+  </si>
+  <si>
+    <t>(9A-CQA)</t>
+  </si>
+  <si>
+    <t>2:03 PM</t>
+  </si>
+  <si>
+    <t>2:12 PM</t>
+  </si>
+  <si>
+    <t>2:38 PM</t>
+  </si>
+  <si>
+    <t>3:06 PM</t>
+  </si>
+  <si>
+    <t>(9H-QDO)</t>
+  </si>
+  <si>
+    <t>4:38 PM</t>
+  </si>
+  <si>
+    <t>4:59 PM</t>
+  </si>
+  <si>
+    <t>(PH-EZZ)</t>
+  </si>
+  <si>
+    <t>5:03 PM</t>
+  </si>
+  <si>
+    <t>(SP-RKW)</t>
+  </si>
+  <si>
+    <t>7:06 PM</t>
+  </si>
+  <si>
+    <t>(OH-LZR)</t>
+  </si>
+  <si>
+    <t>6:52 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malta Air </t>
+  </si>
+  <si>
+    <t>(9H-VUB)</t>
+  </si>
+  <si>
+    <t>LJ45</t>
+  </si>
+  <si>
+    <t>(M-ABEU)</t>
+  </si>
+  <si>
+    <t>(EI-HEV)</t>
+  </si>
+  <si>
+    <t>9:16 PM</t>
+  </si>
+  <si>
+    <t>9:37 PM</t>
   </si>
 </sst>
 </file>
@@ -4229,7 +4616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M613"/>
+  <dimension ref="A1:M755"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -26908,6 +27295,5260 @@
       </c>
       <c r="M613" s="0"/>
     </row>
+    <row r="614">
+      <c r="A614" t="n" s="0">
+        <v>613.0</v>
+      </c>
+      <c r="B614" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C614" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D614" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E614" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F614" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G614" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H614" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I614" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J614" t="s" s="0">
+        <v>1391</v>
+      </c>
+      <c r="K614" s="0"/>
+      <c r="L614" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M614" s="0"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="n" s="0">
+        <v>614.0</v>
+      </c>
+      <c r="B615" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C615" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D615" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E615" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F615" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G615" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H615" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I615" t="s" s="0">
+        <v>1392</v>
+      </c>
+      <c r="J615" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="K615" s="0"/>
+      <c r="L615" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="M615" s="0"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="n" s="0">
+        <v>615.0</v>
+      </c>
+      <c r="B616" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C616" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D616" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E616" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F616" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G616" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H616" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I616" t="s" s="0">
+        <v>1394</v>
+      </c>
+      <c r="J616" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="K616" s="0"/>
+      <c r="L616" t="s" s="0">
+        <v>1395</v>
+      </c>
+      <c r="M616" s="0"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="n" s="0">
+        <v>616.0</v>
+      </c>
+      <c r="B617" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C617" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D617" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="E617" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F617" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G617" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H617" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I617" t="s" s="0">
+        <v>1396</v>
+      </c>
+      <c r="J617" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="K617" s="0"/>
+      <c r="L617" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M617" s="0"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="n" s="0">
+        <v>617.0</v>
+      </c>
+      <c r="B618" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C618" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="D618" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="E618" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F618" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G618" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H618" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I618" t="s" s="0">
+        <v>1397</v>
+      </c>
+      <c r="J618" t="s" s="0">
+        <v>1398</v>
+      </c>
+      <c r="K618" s="0"/>
+      <c r="L618" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M618" s="0"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="n" s="0">
+        <v>618.0</v>
+      </c>
+      <c r="B619" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C619" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D619" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="E619" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="F619" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="G619" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H619" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I619" t="s" s="0">
+        <v>1350</v>
+      </c>
+      <c r="J619" t="s" s="0">
+        <v>1399</v>
+      </c>
+      <c r="K619" s="0"/>
+      <c r="L619" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M619" s="0"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="n" s="0">
+        <v>619.0</v>
+      </c>
+      <c r="B620" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C620" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D620" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="E620" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F620" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G620" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H620" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I620" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J620" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="K620" s="0"/>
+      <c r="L620" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M620" s="0"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="n" s="0">
+        <v>620.0</v>
+      </c>
+      <c r="B621" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C621" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D621" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E621" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F621" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G621" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H621" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I621" t="s" s="0">
+        <v>1401</v>
+      </c>
+      <c r="J621" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="K621" s="0"/>
+      <c r="L621" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="M621" s="0"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="n" s="0">
+        <v>621.0</v>
+      </c>
+      <c r="B622" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C622" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="D622" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E622" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F622" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G622" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H622" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I622" t="s" s="0">
+        <v>1402</v>
+      </c>
+      <c r="J622" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="K622" s="0"/>
+      <c r="L622" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="M622" s="0"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="n" s="0">
+        <v>622.0</v>
+      </c>
+      <c r="B623" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C623" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="D623" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E623" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F623" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G623" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H623" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I623" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J623" t="s" s="0">
+        <v>1095</v>
+      </c>
+      <c r="K623" s="0"/>
+      <c r="L623" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M623" s="0"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="n" s="0">
+        <v>623.0</v>
+      </c>
+      <c r="B624" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C624" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D624" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E624" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F624" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G624" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H624" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I624" t="s" s="0">
+        <v>1404</v>
+      </c>
+      <c r="J624" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="K624" s="0"/>
+      <c r="L624" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M624" s="0"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="n" s="0">
+        <v>624.0</v>
+      </c>
+      <c r="B625" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C625" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D625" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="E625" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="F625" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G625" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="H625" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I625" t="s" s="0">
+        <v>1405</v>
+      </c>
+      <c r="J625" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="K625" s="0"/>
+      <c r="L625" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M625" s="0"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="n" s="0">
+        <v>625.0</v>
+      </c>
+      <c r="B626" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C626" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D626" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E626" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F626" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G626" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H626" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I626" t="s" s="0">
+        <v>1407</v>
+      </c>
+      <c r="J626" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="K626" s="0"/>
+      <c r="L626" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="M626" s="0"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="n" s="0">
+        <v>626.0</v>
+      </c>
+      <c r="B627" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C627" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="D627" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E627" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F627" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G627" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H627" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I627" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J627" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="K627" s="0"/>
+      <c r="L627" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M627" s="0"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="n" s="0">
+        <v>627.0</v>
+      </c>
+      <c r="B628" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C628" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D628" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E628" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F628" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G628" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H628" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I628" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="J628" t="s" s="0">
+        <v>1410</v>
+      </c>
+      <c r="K628" s="0"/>
+      <c r="L628" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M628" s="0"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="n" s="0">
+        <v>628.0</v>
+      </c>
+      <c r="B629" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C629" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="D629" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="E629" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="F629" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="G629" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H629" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I629" t="s" s="0">
+        <v>1411</v>
+      </c>
+      <c r="J629" t="s" s="0">
+        <v>823</v>
+      </c>
+      <c r="K629" s="0"/>
+      <c r="L629" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M629" s="0"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="n" s="0">
+        <v>629.0</v>
+      </c>
+      <c r="B630" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C630" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="D630" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E630" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F630" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G630" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H630" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I630" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J630" t="s" s="0">
+        <v>1412</v>
+      </c>
+      <c r="K630" s="0"/>
+      <c r="L630" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="M630" s="0"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="n" s="0">
+        <v>630.0</v>
+      </c>
+      <c r="B631" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C631" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="D631" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="E631" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="F631" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="G631" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H631" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I631" t="s" s="0">
+        <v>1413</v>
+      </c>
+      <c r="J631" t="s" s="0">
+        <v>1414</v>
+      </c>
+      <c r="K631" s="0"/>
+      <c r="L631" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M631" s="0"/>
+    </row>
+    <row r="632">
+      <c r="A632" t="n" s="0">
+        <v>631.0</v>
+      </c>
+      <c r="B632" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C632" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="D632" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="E632" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F632" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="G632" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H632" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I632" t="s" s="0">
+        <v>1415</v>
+      </c>
+      <c r="J632" t="s" s="0">
+        <v>1416</v>
+      </c>
+      <c r="K632" s="0"/>
+      <c r="L632" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M632" s="0"/>
+    </row>
+    <row r="633">
+      <c r="A633" t="n" s="0">
+        <v>632.0</v>
+      </c>
+      <c r="B633" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C633" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="D633" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E633" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F633" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G633" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="H633" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="I633" t="s" s="0">
+        <v>1417</v>
+      </c>
+      <c r="J633" t="s" s="0">
+        <v>1418</v>
+      </c>
+      <c r="K633" s="0"/>
+      <c r="L633" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M633" s="0"/>
+    </row>
+    <row r="634">
+      <c r="A634" t="n" s="0">
+        <v>633.0</v>
+      </c>
+      <c r="B634" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C634" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D634" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E634" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F634" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G634" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H634" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I634" t="s" s="0">
+        <v>1365</v>
+      </c>
+      <c r="J634" t="s" s="0">
+        <v>1419</v>
+      </c>
+      <c r="K634" s="0"/>
+      <c r="L634" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M634" s="0"/>
+    </row>
+    <row r="635">
+      <c r="A635" t="n" s="0">
+        <v>634.0</v>
+      </c>
+      <c r="B635" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C635" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D635" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E635" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F635" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G635" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H635" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I635" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J635" t="s" s="0">
+        <v>1207</v>
+      </c>
+      <c r="K635" s="0"/>
+      <c r="L635" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M635" s="0"/>
+    </row>
+    <row r="636">
+      <c r="A636" t="n" s="0">
+        <v>635.0</v>
+      </c>
+      <c r="B636" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C636" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D636" t="s" s="0">
+        <v>1420</v>
+      </c>
+      <c r="E636" t="s" s="0">
+        <v>1421</v>
+      </c>
+      <c r="F636" t="s" s="0">
+        <v>1422</v>
+      </c>
+      <c r="G636" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H636" t="s" s="0">
+        <v>1423</v>
+      </c>
+      <c r="I636" t="s" s="0">
+        <v>1424</v>
+      </c>
+      <c r="J636" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="K636" s="0"/>
+      <c r="L636" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M636" s="0"/>
+    </row>
+    <row r="637">
+      <c r="A637" t="n" s="0">
+        <v>636.0</v>
+      </c>
+      <c r="B637" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C637" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D637" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E637" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F637" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G637" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H637" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I637" t="s" s="0">
+        <v>1425</v>
+      </c>
+      <c r="J637" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="K637" s="0"/>
+      <c r="L637" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M637" s="0"/>
+    </row>
+    <row r="638">
+      <c r="A638" t="n" s="0">
+        <v>637.0</v>
+      </c>
+      <c r="B638" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C638" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D638" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E638" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F638" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G638" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H638" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I638" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J638" t="s" s="0">
+        <v>1016</v>
+      </c>
+      <c r="K638" s="0"/>
+      <c r="L638" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M638" s="0"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="n" s="0">
+        <v>638.0</v>
+      </c>
+      <c r="B639" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C639" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D639" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E639" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F639" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G639" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H639" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I639" t="s" s="0">
+        <v>948</v>
+      </c>
+      <c r="J639" t="s" s="0">
+        <v>1279</v>
+      </c>
+      <c r="K639" s="0"/>
+      <c r="L639" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M639" s="0"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="n" s="0">
+        <v>639.0</v>
+      </c>
+      <c r="B640" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C640" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="D640" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E640" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="F640" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="G640" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H640" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I640" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J640" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="K640" s="0"/>
+      <c r="L640" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M640" s="0"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="n" s="0">
+        <v>640.0</v>
+      </c>
+      <c r="B641" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C641" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D641" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E641" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F641" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G641" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H641" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I641" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="J641" t="s" s="0">
+        <v>954</v>
+      </c>
+      <c r="K641" s="0"/>
+      <c r="L641" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M641" s="0"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="n" s="0">
+        <v>641.0</v>
+      </c>
+      <c r="B642" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C642" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="D642" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E642" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F642" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G642" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H642" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I642" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J642" t="s" s="0">
+        <v>1426</v>
+      </c>
+      <c r="K642" s="0"/>
+      <c r="L642" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M642" s="0"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="n" s="0">
+        <v>642.0</v>
+      </c>
+      <c r="B643" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C643" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D643" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E643" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F643" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G643" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H643" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I643" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="J643" t="s" s="0">
+        <v>1427</v>
+      </c>
+      <c r="K643" s="0"/>
+      <c r="L643" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M643" s="0"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="n" s="0">
+        <v>643.0</v>
+      </c>
+      <c r="B644" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C644" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D644" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E644" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F644" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G644" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H644" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I644" t="s" s="0">
+        <v>1428</v>
+      </c>
+      <c r="J644" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="K644" s="0"/>
+      <c r="L644" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M644" s="0"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="n" s="0">
+        <v>644.0</v>
+      </c>
+      <c r="B645" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C645" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D645" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="E645" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F645" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G645" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H645" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I645" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J645" t="s" s="0">
+        <v>1026</v>
+      </c>
+      <c r="K645" s="0"/>
+      <c r="L645" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="M645" s="0"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="n" s="0">
+        <v>645.0</v>
+      </c>
+      <c r="B646" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C646" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D646" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="E646" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="F646" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="G646" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H646" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I646" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J646" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="K646" s="0"/>
+      <c r="L646" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M646" s="0"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="n" s="0">
+        <v>646.0</v>
+      </c>
+      <c r="B647" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C647" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D647" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E647" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F647" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G647" t="s" s="0">
+        <v>1431</v>
+      </c>
+      <c r="H647" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I647" t="s" s="0">
+        <v>1432</v>
+      </c>
+      <c r="J647" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="K647" s="0"/>
+      <c r="L647" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="M647" s="0"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="n" s="0">
+        <v>647.0</v>
+      </c>
+      <c r="B648" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C648" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="D648" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E648" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F648" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="G648" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H648" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I648" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J648" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="K648" s="0"/>
+      <c r="L648" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M648" s="0"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="n" s="0">
+        <v>648.0</v>
+      </c>
+      <c r="B649" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C649" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="D649" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E649" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F649" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G649" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H649" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I649" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J649" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="K649" s="0"/>
+      <c r="L649" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="M649" s="0"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="n" s="0">
+        <v>649.0</v>
+      </c>
+      <c r="B650" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C650" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="D650" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="E650" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F650" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G650" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H650" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I650" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J650" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="K650" s="0"/>
+      <c r="L650" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M650" s="0"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="n" s="0">
+        <v>650.0</v>
+      </c>
+      <c r="B651" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C651" t="s" s="0">
+        <v>870</v>
+      </c>
+      <c r="D651" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="E651" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F651" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="G651" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H651" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I651" t="s" s="0">
+        <v>1435</v>
+      </c>
+      <c r="J651" t="s" s="0">
+        <v>1436</v>
+      </c>
+      <c r="K651" s="0"/>
+      <c r="L651" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M651" s="0"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="n" s="0">
+        <v>651.0</v>
+      </c>
+      <c r="B652" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C652" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="D652" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="E652" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F652" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G652" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H652" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I652" t="s" s="0">
+        <v>1437</v>
+      </c>
+      <c r="J652" t="s" s="0">
+        <v>1438</v>
+      </c>
+      <c r="K652" s="0"/>
+      <c r="L652" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M652" s="0"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="n" s="0">
+        <v>652.0</v>
+      </c>
+      <c r="B653" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C653" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="D653" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E653" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F653" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G653" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H653" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I653" t="s" s="0">
+        <v>1439</v>
+      </c>
+      <c r="J653" t="s" s="0">
+        <v>1133</v>
+      </c>
+      <c r="K653" s="0"/>
+      <c r="L653" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M653" s="0"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="n" s="0">
+        <v>653.0</v>
+      </c>
+      <c r="B654" t="s" s="0">
+        <v>1378</v>
+      </c>
+      <c r="C654" t="s" s="0">
+        <v>891</v>
+      </c>
+      <c r="D654" t="s" s="0">
+        <v>892</v>
+      </c>
+      <c r="E654" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F654" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G654" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H654" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I654" t="s" s="0">
+        <v>1440</v>
+      </c>
+      <c r="J654" t="s" s="0">
+        <v>1441</v>
+      </c>
+      <c r="K654" s="0"/>
+      <c r="L654" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M654" s="0"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="n" s="0">
+        <v>654.0</v>
+      </c>
+      <c r="B655" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C655" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D655" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E655" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F655" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G655" t="s" s="0">
+        <v>1208</v>
+      </c>
+      <c r="H655" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="I655" t="s" s="0">
+        <v>1233</v>
+      </c>
+      <c r="J655" t="s" s="0">
+        <v>1443</v>
+      </c>
+      <c r="K655" s="0"/>
+      <c r="L655" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M655" s="0"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="n" s="0">
+        <v>655.0</v>
+      </c>
+      <c r="B656" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C656" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D656" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E656" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F656" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G656" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H656" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I656" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J656" t="s" s="0">
+        <v>1241</v>
+      </c>
+      <c r="K656" s="0"/>
+      <c r="L656" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M656" s="0"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="n" s="0">
+        <v>656.0</v>
+      </c>
+      <c r="B657" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C657" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D657" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E657" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F657" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G657" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H657" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I657" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="J657" t="s" s="0">
+        <v>1380</v>
+      </c>
+      <c r="K657" s="0"/>
+      <c r="L657" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M657" s="0"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="n" s="0">
+        <v>657.0</v>
+      </c>
+      <c r="B658" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C658" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D658" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="E658" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="F658" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="G658" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H658" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I658" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J658" t="s" s="0">
+        <v>1444</v>
+      </c>
+      <c r="K658" s="0"/>
+      <c r="L658" t="s" s="0">
+        <v>1445</v>
+      </c>
+      <c r="M658" s="0"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="n" s="0">
+        <v>658.0</v>
+      </c>
+      <c r="B659" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C659" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D659" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E659" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F659" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G659" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H659" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I659" t="s" s="0">
+        <v>902</v>
+      </c>
+      <c r="J659" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="K659" s="0"/>
+      <c r="L659" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M659" s="0"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="n" s="0">
+        <v>659.0</v>
+      </c>
+      <c r="B660" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C660" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D660" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E660" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F660" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G660" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H660" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I660" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J660" t="s" s="0">
+        <v>1446</v>
+      </c>
+      <c r="K660" s="0"/>
+      <c r="L660" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M660" s="0"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="n" s="0">
+        <v>660.0</v>
+      </c>
+      <c r="B661" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C661" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D661" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E661" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F661" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G661" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H661" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I661" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J661" t="s" s="0">
+        <v>740</v>
+      </c>
+      <c r="K661" s="0"/>
+      <c r="L661" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M661" s="0"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="n" s="0">
+        <v>661.0</v>
+      </c>
+      <c r="B662" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C662" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D662" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E662" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F662" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G662" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H662" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I662" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J662" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="K662" s="0"/>
+      <c r="L662" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M662" s="0"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="n" s="0">
+        <v>662.0</v>
+      </c>
+      <c r="B663" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C663" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D663" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E663" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F663" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G663" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H663" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I663" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J663" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="K663" s="0"/>
+      <c r="L663" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M663" s="0"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="n" s="0">
+        <v>663.0</v>
+      </c>
+      <c r="B664" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C664" t="s" s="0">
+        <v>906</v>
+      </c>
+      <c r="D664" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="E664" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="F664" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="G664" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H664" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I664" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J664" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="K664" s="0"/>
+      <c r="L664" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M664" s="0"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="n" s="0">
+        <v>664.0</v>
+      </c>
+      <c r="B665" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C665" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D665" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E665" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F665" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G665" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H665" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I665" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="J665" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="K665" s="0"/>
+      <c r="L665" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M665" s="0"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="n" s="0">
+        <v>665.0</v>
+      </c>
+      <c r="B666" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C666" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D666" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E666" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F666" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G666" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H666" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I666" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J666" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="K666" s="0"/>
+      <c r="L666" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M666" s="0"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="n" s="0">
+        <v>666.0</v>
+      </c>
+      <c r="B667" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C667" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D667" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E667" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F667" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G667" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H667" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I667" t="s" s="0">
+        <v>1448</v>
+      </c>
+      <c r="J667" t="s" s="0">
+        <v>1307</v>
+      </c>
+      <c r="K667" s="0"/>
+      <c r="L667" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M667" s="0"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="n" s="0">
+        <v>667.0</v>
+      </c>
+      <c r="B668" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C668" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="D668" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E668" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F668" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="G668" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H668" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I668" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J668" t="s" s="0">
+        <v>1255</v>
+      </c>
+      <c r="K668" s="0"/>
+      <c r="L668" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M668" s="0"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="n" s="0">
+        <v>668.0</v>
+      </c>
+      <c r="B669" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C669" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D669" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E669" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F669" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G669" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H669" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I669" t="s" s="0">
+        <v>713</v>
+      </c>
+      <c r="J669" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="K669" s="0"/>
+      <c r="L669" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M669" s="0"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="n" s="0">
+        <v>669.0</v>
+      </c>
+      <c r="B670" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C670" t="s" s="0">
+        <v>915</v>
+      </c>
+      <c r="D670" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="E670" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="F670" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="G670" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H670" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I670" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="J670" t="s" s="0">
+        <v>1449</v>
+      </c>
+      <c r="K670" s="0"/>
+      <c r="L670" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M670" s="0"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="n" s="0">
+        <v>670.0</v>
+      </c>
+      <c r="B671" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C671" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="D671" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E671" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F671" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G671" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H671" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I671" t="s" s="0">
+        <v>1450</v>
+      </c>
+      <c r="J671" t="s" s="0">
+        <v>1451</v>
+      </c>
+      <c r="K671" s="0"/>
+      <c r="L671" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M671" s="0"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="n" s="0">
+        <v>671.0</v>
+      </c>
+      <c r="B672" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C672" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D672" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E672" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F672" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G672" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H672" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I672" t="s" s="0">
+        <v>1452</v>
+      </c>
+      <c r="J672" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="K672" s="0"/>
+      <c r="L672" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M672" s="0"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="n" s="0">
+        <v>672.0</v>
+      </c>
+      <c r="B673" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C673" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="D673" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E673" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F673" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G673" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H673" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I673" t="s" s="0">
+        <v>1453</v>
+      </c>
+      <c r="J673" t="s" s="0">
+        <v>517</v>
+      </c>
+      <c r="K673" s="0"/>
+      <c r="L673" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M673" s="0"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="n" s="0">
+        <v>673.0</v>
+      </c>
+      <c r="B674" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C674" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="D674" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E674" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F674" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G674" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H674" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I674" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J674" t="s" s="0">
+        <v>1454</v>
+      </c>
+      <c r="K674" s="0"/>
+      <c r="L674" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M674" s="0"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="n" s="0">
+        <v>674.0</v>
+      </c>
+      <c r="B675" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C675" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="D675" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E675" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F675" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G675" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H675" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I675" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J675" t="s" s="0">
+        <v>1194</v>
+      </c>
+      <c r="K675" s="0"/>
+      <c r="L675" t="s" s="0">
+        <v>1455</v>
+      </c>
+      <c r="M675" s="0"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="n" s="0">
+        <v>675.0</v>
+      </c>
+      <c r="B676" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C676" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D676" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="E676" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F676" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G676" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H676" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I676" t="s" s="0">
+        <v>1376</v>
+      </c>
+      <c r="J676" t="s" s="0">
+        <v>1456</v>
+      </c>
+      <c r="K676" s="0"/>
+      <c r="L676" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M676" s="0"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="n" s="0">
+        <v>676.0</v>
+      </c>
+      <c r="B677" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C677" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D677" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E677" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F677" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G677" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H677" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I677" t="s" s="0">
+        <v>1457</v>
+      </c>
+      <c r="J677" t="s" s="0">
+        <v>1331</v>
+      </c>
+      <c r="K677" s="0"/>
+      <c r="L677" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M677" s="0"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="n" s="0">
+        <v>677.0</v>
+      </c>
+      <c r="B678" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C678" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D678" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E678" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F678" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G678" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H678" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I678" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="J678" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K678" s="0"/>
+      <c r="L678" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M678" s="0"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="n" s="0">
+        <v>678.0</v>
+      </c>
+      <c r="B679" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C679" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="D679" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E679" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F679" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G679" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H679" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I679" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J679" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="K679" s="0"/>
+      <c r="L679" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M679" s="0"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="n" s="0">
+        <v>679.0</v>
+      </c>
+      <c r="B680" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C680" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="D680" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="E680" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="F680" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="G680" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H680" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I680" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J680" t="s" s="0">
+        <v>1458</v>
+      </c>
+      <c r="K680" s="0"/>
+      <c r="L680" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M680" s="0"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="n" s="0">
+        <v>680.0</v>
+      </c>
+      <c r="B681" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C681" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="D681" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="E681" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F681" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G681" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H681" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I681" t="s" s="0">
+        <v>1459</v>
+      </c>
+      <c r="J681" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="K681" s="0"/>
+      <c r="L681" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M681" s="0"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="n" s="0">
+        <v>681.0</v>
+      </c>
+      <c r="B682" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C682" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D682" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E682" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F682" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="G682" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H682" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I682" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J682" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K682" s="0"/>
+      <c r="L682" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M682" s="0"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="n" s="0">
+        <v>682.0</v>
+      </c>
+      <c r="B683" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C683" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D683" t="s" s="0">
+        <v>1460</v>
+      </c>
+      <c r="E683" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="F683" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="G683" t="s" s="0">
+        <v>1461</v>
+      </c>
+      <c r="H683" t="s" s="0">
+        <v>1462</v>
+      </c>
+      <c r="I683" t="s" s="0">
+        <v>1463</v>
+      </c>
+      <c r="J683" t="s" s="0">
+        <v>1464</v>
+      </c>
+      <c r="K683" s="0"/>
+      <c r="L683" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="M683" s="0"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="n" s="0">
+        <v>683.0</v>
+      </c>
+      <c r="B684" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C684" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D684" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E684" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F684" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G684" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H684" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I684" t="s" s="0">
+        <v>748</v>
+      </c>
+      <c r="J684" t="s" s="0">
+        <v>1465</v>
+      </c>
+      <c r="K684" s="0"/>
+      <c r="L684" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M684" s="0"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="n" s="0">
+        <v>684.0</v>
+      </c>
+      <c r="B685" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C685" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D685" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E685" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F685" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G685" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H685" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I685" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J685" t="s" s="0">
+        <v>1400</v>
+      </c>
+      <c r="K685" s="0"/>
+      <c r="L685" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M685" s="0"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="n" s="0">
+        <v>685.0</v>
+      </c>
+      <c r="B686" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C686" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D686" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E686" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F686" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G686" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H686" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I686" t="s" s="0">
+        <v>1466</v>
+      </c>
+      <c r="J686" t="s" s="0">
+        <v>1467</v>
+      </c>
+      <c r="K686" s="0"/>
+      <c r="L686" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M686" s="0"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="n" s="0">
+        <v>686.0</v>
+      </c>
+      <c r="B687" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C687" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D687" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E687" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F687" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G687" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H687" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I687" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="J687" t="s" s="0">
+        <v>946</v>
+      </c>
+      <c r="K687" s="0"/>
+      <c r="L687" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M687" s="0"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="n" s="0">
+        <v>687.0</v>
+      </c>
+      <c r="B688" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C688" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D688" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="E688" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="F688" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="G688" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H688" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I688" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J688" t="s" s="0">
+        <v>1006</v>
+      </c>
+      <c r="K688" s="0"/>
+      <c r="L688" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M688" s="0"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="n" s="0">
+        <v>688.0</v>
+      </c>
+      <c r="B689" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C689" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D689" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E689" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F689" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G689" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H689" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I689" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="J689" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="K689" s="0"/>
+      <c r="L689" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M689" s="0"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="n" s="0">
+        <v>689.0</v>
+      </c>
+      <c r="B690" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C690" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D690" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E690" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F690" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G690" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H690" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I690" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J690" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="K690" s="0"/>
+      <c r="L690" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M690" s="0"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="n" s="0">
+        <v>690.0</v>
+      </c>
+      <c r="B691" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C691" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D691" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E691" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F691" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G691" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H691" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I691" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="J691" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="K691" s="0"/>
+      <c r="L691" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M691" s="0"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="n" s="0">
+        <v>691.0</v>
+      </c>
+      <c r="B692" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C692" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D692" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E692" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F692" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G692" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H692" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I692" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="J692" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="K692" s="0"/>
+      <c r="L692" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="M692" s="0"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="n" s="0">
+        <v>692.0</v>
+      </c>
+      <c r="B693" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C693" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="D693" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E693" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F693" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G693" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H693" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I693" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J693" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="K693" s="0"/>
+      <c r="L693" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M693" s="0"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="n" s="0">
+        <v>693.0</v>
+      </c>
+      <c r="B694" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C694" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="D694" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E694" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F694" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G694" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H694" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I694" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J694" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="K694" s="0"/>
+      <c r="L694" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M694" s="0"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="n" s="0">
+        <v>694.0</v>
+      </c>
+      <c r="B695" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C695" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D695" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E695" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F695" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G695" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H695" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I695" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J695" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="K695" s="0"/>
+      <c r="L695" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M695" s="0"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="n" s="0">
+        <v>695.0</v>
+      </c>
+      <c r="B696" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C696" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D696" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="E696" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F696" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G696" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H696" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I696" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J696" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="K696" s="0"/>
+      <c r="L696" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M696" s="0"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="n" s="0">
+        <v>696.0</v>
+      </c>
+      <c r="B697" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C697" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D697" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E697" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F697" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G697" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H697" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I697" t="s" s="0">
+        <v>1404</v>
+      </c>
+      <c r="J697" t="s" s="0">
+        <v>1472</v>
+      </c>
+      <c r="K697" s="0"/>
+      <c r="L697" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M697" s="0"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="n" s="0">
+        <v>697.0</v>
+      </c>
+      <c r="B698" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C698" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D698" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E698" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F698" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G698" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H698" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I698" t="s" s="0">
+        <v>1473</v>
+      </c>
+      <c r="J698" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K698" s="0"/>
+      <c r="L698" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M698" s="0"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="n" s="0">
+        <v>698.0</v>
+      </c>
+      <c r="B699" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C699" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D699" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E699" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F699" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G699" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H699" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I699" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J699" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K699" s="0"/>
+      <c r="L699" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M699" s="0"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="n" s="0">
+        <v>699.0</v>
+      </c>
+      <c r="B700" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C700" t="s" s="0">
+        <v>963</v>
+      </c>
+      <c r="D700" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E700" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F700" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G700" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H700" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I700" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="J700" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="K700" s="0"/>
+      <c r="L700" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="M700" s="0"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="n" s="0">
+        <v>700.0</v>
+      </c>
+      <c r="B701" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C701" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="D701" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E701" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F701" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G701" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H701" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I701" t="s" s="0">
+        <v>1474</v>
+      </c>
+      <c r="J701" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="K701" s="0"/>
+      <c r="L701" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M701" s="0"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="n" s="0">
+        <v>701.0</v>
+      </c>
+      <c r="B702" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C702" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="D702" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="E702" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="F702" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="G702" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H702" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I702" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="J702" t="s" s="0">
+        <v>1475</v>
+      </c>
+      <c r="K702" s="0"/>
+      <c r="L702" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M702" s="0"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="n" s="0">
+        <v>702.0</v>
+      </c>
+      <c r="B703" t="s" s="0">
+        <v>1442</v>
+      </c>
+      <c r="C703" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D703" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E703" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F703" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G703" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H703" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I703" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="J703" t="s" s="0">
+        <v>1477</v>
+      </c>
+      <c r="K703" s="0"/>
+      <c r="L703" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M703" s="0"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="n" s="0">
+        <v>703.0</v>
+      </c>
+      <c r="B704" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C704" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D704" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="E704" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F704" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G704" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H704" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I704" t="s" s="0">
+        <v>936</v>
+      </c>
+      <c r="J704" t="s" s="0">
+        <v>1239</v>
+      </c>
+      <c r="K704" s="0"/>
+      <c r="L704" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M704" s="0"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="n" s="0">
+        <v>704.0</v>
+      </c>
+      <c r="B705" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C705" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D705" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E705" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F705" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G705" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H705" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I705" t="s" s="0">
+        <v>816</v>
+      </c>
+      <c r="J705" t="s" s="0">
+        <v>1380</v>
+      </c>
+      <c r="K705" s="0"/>
+      <c r="L705" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="M705" s="0"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="n" s="0">
+        <v>705.0</v>
+      </c>
+      <c r="B706" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C706" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D706" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E706" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F706" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G706" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H706" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I706" t="s" s="0">
+        <v>1382</v>
+      </c>
+      <c r="J706" t="s" s="0">
+        <v>1379</v>
+      </c>
+      <c r="K706" s="0"/>
+      <c r="L706" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M706" s="0"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="n" s="0">
+        <v>706.0</v>
+      </c>
+      <c r="B707" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C707" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D707" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E707" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F707" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G707" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H707" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I707" t="s" s="0">
+        <v>1479</v>
+      </c>
+      <c r="J707" t="s" s="0">
+        <v>1480</v>
+      </c>
+      <c r="K707" s="0"/>
+      <c r="L707" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M707" s="0"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="n" s="0">
+        <v>707.0</v>
+      </c>
+      <c r="B708" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C708" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D708" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="E708" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="F708" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="G708" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H708" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I708" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J708" t="s" s="0">
+        <v>1481</v>
+      </c>
+      <c r="K708" s="0"/>
+      <c r="L708" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M708" s="0"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="n" s="0">
+        <v>708.0</v>
+      </c>
+      <c r="B709" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C709" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D709" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="E709" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="F709" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="G709" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H709" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I709" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J709" t="s" s="0">
+        <v>1482</v>
+      </c>
+      <c r="K709" s="0"/>
+      <c r="L709" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M709" s="0"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="n" s="0">
+        <v>709.0</v>
+      </c>
+      <c r="B710" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C710" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="D710" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E710" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F710" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G710" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H710" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I710" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J710" t="s" s="0">
+        <v>1245</v>
+      </c>
+      <c r="K710" s="0"/>
+      <c r="L710" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M710" s="0"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="n" s="0">
+        <v>710.0</v>
+      </c>
+      <c r="B711" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C711" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="D711" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E711" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F711" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G711" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H711" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I711" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J711" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="K711" s="0"/>
+      <c r="L711" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M711" s="0"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="n" s="0">
+        <v>711.0</v>
+      </c>
+      <c r="B712" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C712" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D712" t="s" s="0">
+        <v>1304</v>
+      </c>
+      <c r="E712" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="F712" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="G712" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H712" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I712" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J712" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="K712" s="0"/>
+      <c r="L712" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M712" s="0"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="n" s="0">
+        <v>712.0</v>
+      </c>
+      <c r="B713" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C713" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D713" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E713" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F713" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G713" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H713" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I713" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J713" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="K713" s="0"/>
+      <c r="L713" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M713" s="0"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="n" s="0">
+        <v>713.0</v>
+      </c>
+      <c r="B714" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C714" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D714" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E714" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F714" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G714" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H714" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I714" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="J714" t="s" s="0">
+        <v>1309</v>
+      </c>
+      <c r="K714" s="0"/>
+      <c r="L714" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M714" s="0"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="n" s="0">
+        <v>714.0</v>
+      </c>
+      <c r="B715" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C715" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D715" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E715" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F715" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G715" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H715" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I715" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J715" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="K715" s="0"/>
+      <c r="L715" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="M715" s="0"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="n" s="0">
+        <v>715.0</v>
+      </c>
+      <c r="B716" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C716" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D716" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E716" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F716" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G716" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H716" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I716" t="s" s="0">
+        <v>1483</v>
+      </c>
+      <c r="J716" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="K716" s="0"/>
+      <c r="L716" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="M716" s="0"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="n" s="0">
+        <v>716.0</v>
+      </c>
+      <c r="B717" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C717" t="s" s="0">
+        <v>917</v>
+      </c>
+      <c r="D717" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E717" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F717" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G717" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H717" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I717" t="s" s="0">
+        <v>1484</v>
+      </c>
+      <c r="J717" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="K717" s="0"/>
+      <c r="L717" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M717" s="0"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="n" s="0">
+        <v>717.0</v>
+      </c>
+      <c r="B718" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C718" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D718" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E718" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F718" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G718" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H718" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I718" t="s" s="0">
+        <v>1485</v>
+      </c>
+      <c r="J718" t="s" s="0">
+        <v>1486</v>
+      </c>
+      <c r="K718" s="0"/>
+      <c r="L718" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M718" s="0"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="n" s="0">
+        <v>718.0</v>
+      </c>
+      <c r="B719" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C719" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D719" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E719" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F719" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G719" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H719" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I719" t="s" s="0">
+        <v>1487</v>
+      </c>
+      <c r="J719" t="s" s="0">
+        <v>1488</v>
+      </c>
+      <c r="K719" s="0"/>
+      <c r="L719" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M719" s="0"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="n" s="0">
+        <v>719.0</v>
+      </c>
+      <c r="B720" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C720" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="D720" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="E720" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="F720" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="G720" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H720" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I720" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J720" t="s" s="0">
+        <v>931</v>
+      </c>
+      <c r="K720" s="0"/>
+      <c r="L720" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M720" s="0"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="n" s="0">
+        <v>720.0</v>
+      </c>
+      <c r="B721" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C721" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D721" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E721" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F721" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G721" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H721" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I721" t="s" s="0">
+        <v>1489</v>
+      </c>
+      <c r="J721" t="s" s="0">
+        <v>1490</v>
+      </c>
+      <c r="K721" s="0"/>
+      <c r="L721" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M721" s="0"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="n" s="0">
+        <v>721.0</v>
+      </c>
+      <c r="B722" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C722" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D722" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E722" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F722" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G722" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H722" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I722" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="J722" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="K722" s="0"/>
+      <c r="L722" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M722" s="0"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="n" s="0">
+        <v>722.0</v>
+      </c>
+      <c r="B723" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C723" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D723" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E723" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F723" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G723" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H723" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I723" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J723" t="s" s="0">
+        <v>1491</v>
+      </c>
+      <c r="K723" s="0"/>
+      <c r="L723" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M723" s="0"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="n" s="0">
+        <v>723.0</v>
+      </c>
+      <c r="B724" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C724" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D724" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="E724" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F724" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G724" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H724" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I724" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J724" t="s" s="0">
+        <v>1492</v>
+      </c>
+      <c r="K724" s="0"/>
+      <c r="L724" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M724" s="0"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="n" s="0">
+        <v>724.0</v>
+      </c>
+      <c r="B725" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C725" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D725" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E725" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F725" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G725" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H725" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I725" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J725" t="s" s="0">
+        <v>994</v>
+      </c>
+      <c r="K725" s="0"/>
+      <c r="L725" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M725" s="0"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="n" s="0">
+        <v>725.0</v>
+      </c>
+      <c r="B726" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C726" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D726" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E726" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F726" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G726" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H726" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I726" t="s" s="0">
+        <v>1283</v>
+      </c>
+      <c r="J726" t="s" s="0">
+        <v>1493</v>
+      </c>
+      <c r="K726" s="0"/>
+      <c r="L726" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M726" s="0"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="n" s="0">
+        <v>726.0</v>
+      </c>
+      <c r="B727" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C727" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D727" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E727" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F727" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G727" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H727" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I727" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J727" t="s" s="0">
+        <v>800</v>
+      </c>
+      <c r="K727" s="0"/>
+      <c r="L727" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M727" s="0"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="n" s="0">
+        <v>727.0</v>
+      </c>
+      <c r="B728" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C728" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="D728" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="E728" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="F728" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="G728" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H728" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I728" t="s" s="0">
+        <v>1494</v>
+      </c>
+      <c r="J728" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="K728" s="0"/>
+      <c r="L728" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M728" s="0"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="n" s="0">
+        <v>728.0</v>
+      </c>
+      <c r="B729" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C729" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D729" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E729" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F729" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G729" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H729" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I729" t="s" s="0">
+        <v>1198</v>
+      </c>
+      <c r="J729" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="K729" s="0"/>
+      <c r="L729" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="M729" s="0"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="n" s="0">
+        <v>729.0</v>
+      </c>
+      <c r="B730" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C730" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="D730" t="s" s="0">
+        <v>1495</v>
+      </c>
+      <c r="E730" t="s" s="0">
+        <v>1496</v>
+      </c>
+      <c r="F730" t="s" s="0">
+        <v>1497</v>
+      </c>
+      <c r="G730" t="s" s="0">
+        <v>1498</v>
+      </c>
+      <c r="H730" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="I730" t="s" s="0">
+        <v>1499</v>
+      </c>
+      <c r="J730" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="K730" s="0"/>
+      <c r="L730" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M730" s="0"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="n" s="0">
+        <v>730.0</v>
+      </c>
+      <c r="B731" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C731" t="s" s="0">
+        <v>1002</v>
+      </c>
+      <c r="D731" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E731" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F731" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G731" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H731" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I731" t="s" s="0">
+        <v>1003</v>
+      </c>
+      <c r="J731" t="s" s="0">
+        <v>1500</v>
+      </c>
+      <c r="K731" s="0"/>
+      <c r="L731" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M731" s="0"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="n" s="0">
+        <v>731.0</v>
+      </c>
+      <c r="B732" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C732" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D732" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E732" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="F732" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G732" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H732" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I732" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J732" t="s" s="0">
+        <v>1501</v>
+      </c>
+      <c r="K732" s="0"/>
+      <c r="L732" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M732" s="0"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="n" s="0">
+        <v>732.0</v>
+      </c>
+      <c r="B733" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C733" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D733" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="E733" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F733" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G733" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H733" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I733" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J733" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="K733" s="0"/>
+      <c r="L733" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M733" s="0"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="n" s="0">
+        <v>733.0</v>
+      </c>
+      <c r="B734" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C734" t="s" s="0">
+        <v>1007</v>
+      </c>
+      <c r="D734" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E734" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F734" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G734" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H734" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I734" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J734" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="K734" s="0"/>
+      <c r="L734" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M734" s="0"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="n" s="0">
+        <v>734.0</v>
+      </c>
+      <c r="B735" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C735" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D735" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E735" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F735" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G735" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H735" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I735" t="s" s="0">
+        <v>1466</v>
+      </c>
+      <c r="J735" t="s" s="0">
+        <v>1502</v>
+      </c>
+      <c r="K735" s="0"/>
+      <c r="L735" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M735" s="0"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="n" s="0">
+        <v>735.0</v>
+      </c>
+      <c r="B736" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C736" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D736" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E736" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F736" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G736" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H736" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I736" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="J736" t="s" s="0">
+        <v>1503</v>
+      </c>
+      <c r="K736" s="0"/>
+      <c r="L736" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M736" s="0"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="n" s="0">
+        <v>736.0</v>
+      </c>
+      <c r="B737" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C737" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D737" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E737" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F737" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G737" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H737" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I737" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J737" t="s" s="0">
+        <v>1274</v>
+      </c>
+      <c r="K737" s="0"/>
+      <c r="L737" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M737" s="0"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="n" s="0">
+        <v>737.0</v>
+      </c>
+      <c r="B738" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C738" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D738" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="E738" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="F738" t="s" s="0">
+        <v>376</v>
+      </c>
+      <c r="G738" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H738" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I738" t="s" s="0">
+        <v>1504</v>
+      </c>
+      <c r="J738" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="K738" s="0"/>
+      <c r="L738" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M738" s="0"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="n" s="0">
+        <v>738.0</v>
+      </c>
+      <c r="B739" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C739" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D739" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E739" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F739" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G739" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H739" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I739" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J739" t="s" s="0">
+        <v>1505</v>
+      </c>
+      <c r="K739" s="0"/>
+      <c r="L739" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M739" s="0"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="n" s="0">
+        <v>739.0</v>
+      </c>
+      <c r="B740" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C740" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D740" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="E740" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F740" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G740" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H740" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I740" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="J740" t="s" s="0">
+        <v>1506</v>
+      </c>
+      <c r="K740" s="0"/>
+      <c r="L740" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M740" s="0"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="n" s="0">
+        <v>740.0</v>
+      </c>
+      <c r="B741" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C741" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D741" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E741" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F741" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G741" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H741" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I741" t="s" s="0">
+        <v>1507</v>
+      </c>
+      <c r="J741" t="s" s="0">
+        <v>1508</v>
+      </c>
+      <c r="K741" s="0"/>
+      <c r="L741" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M741" s="0"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="n" s="0">
+        <v>741.0</v>
+      </c>
+      <c r="B742" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C742" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D742" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E742" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F742" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G742" t="s" s="0">
+        <v>1100</v>
+      </c>
+      <c r="H742" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I742" t="s" s="0">
+        <v>1101</v>
+      </c>
+      <c r="J742" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="K742" s="0"/>
+      <c r="L742" t="s" s="0">
+        <v>1470</v>
+      </c>
+      <c r="M742" s="0"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="n" s="0">
+        <v>742.0</v>
+      </c>
+      <c r="B743" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C743" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="D743" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E743" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F743" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G743" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H743" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I743" t="s" s="0">
+        <v>1509</v>
+      </c>
+      <c r="J743" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="K743" s="0"/>
+      <c r="L743" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M743" s="0"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="n" s="0">
+        <v>743.0</v>
+      </c>
+      <c r="B744" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C744" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D744" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E744" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F744" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G744" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H744" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I744" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J744" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="K744" s="0"/>
+      <c r="L744" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M744" s="0"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="n" s="0">
+        <v>744.0</v>
+      </c>
+      <c r="B745" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C745" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D745" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="E745" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F745" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G745" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H745" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I745" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J745" t="s" s="0">
+        <v>1510</v>
+      </c>
+      <c r="K745" s="0"/>
+      <c r="L745" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M745" s="0"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="n" s="0">
+        <v>745.0</v>
+      </c>
+      <c r="B746" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C746" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="D746" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E746" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F746" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G746" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H746" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I746" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="J746" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K746" s="0"/>
+      <c r="L746" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M746" s="0"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="n" s="0">
+        <v>746.0</v>
+      </c>
+      <c r="B747" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C747" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D747" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="E747" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F747" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G747" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H747" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I747" t="s" s="0">
+        <v>1511</v>
+      </c>
+      <c r="J747" t="s" s="0">
+        <v>1512</v>
+      </c>
+      <c r="K747" s="0"/>
+      <c r="L747" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M747" s="0"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="n" s="0">
+        <v>747.0</v>
+      </c>
+      <c r="B748" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C748" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D748" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E748" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F748" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G748" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H748" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I748" t="s" s="0">
+        <v>655</v>
+      </c>
+      <c r="J748" t="s" s="0">
+        <v>333</v>
+      </c>
+      <c r="K748" s="0"/>
+      <c r="L748" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M748" s="0"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="n" s="0">
+        <v>748.0</v>
+      </c>
+      <c r="B749" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C749" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D749" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E749" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F749" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G749" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H749" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I749" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J749" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="K749" s="0"/>
+      <c r="L749" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M749" s="0"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="n" s="0">
+        <v>749.0</v>
+      </c>
+      <c r="B750" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C750" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D750" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="E750" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F750" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="G750" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H750" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I750" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J750" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="K750" s="0"/>
+      <c r="L750" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M750" s="0"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="n" s="0">
+        <v>750.0</v>
+      </c>
+      <c r="B751" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C751" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D751" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E751" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F751" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G751" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H751" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I751" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J751" t="s" s="0">
+        <v>1434</v>
+      </c>
+      <c r="K751" s="0"/>
+      <c r="L751" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M751" s="0"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="n" s="0">
+        <v>751.0</v>
+      </c>
+      <c r="B752" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C752" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D752" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E752" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F752" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G752" t="s" s="0">
+        <v>1513</v>
+      </c>
+      <c r="H752" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I752" t="s" s="0">
+        <v>1514</v>
+      </c>
+      <c r="J752" t="s" s="0">
+        <v>1030</v>
+      </c>
+      <c r="K752" s="0"/>
+      <c r="L752" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M752" s="0"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="n" s="0">
+        <v>752.0</v>
+      </c>
+      <c r="B753" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C753" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="D753" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E753" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F753" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G753" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H753" t="s" s="0">
+        <v>1515</v>
+      </c>
+      <c r="I753" t="s" s="0">
+        <v>1516</v>
+      </c>
+      <c r="J753" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="K753" s="0"/>
+      <c r="L753" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M753" s="0"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="n" s="0">
+        <v>753.0</v>
+      </c>
+      <c r="B754" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C754" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D754" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E754" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F754" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G754" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H754" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I754" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="J754" t="s" s="0">
+        <v>1518</v>
+      </c>
+      <c r="K754" s="0"/>
+      <c r="L754" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M754" s="0"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="n" s="0">
+        <v>754.0</v>
+      </c>
+      <c r="B755" t="s" s="0">
+        <v>1478</v>
+      </c>
+      <c r="C755" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D755" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E755" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F755" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G755" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H755" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I755" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="J755" t="s" s="0">
+        <v>1519</v>
+      </c>
+      <c r="K755" s="0"/>
+      <c r="L755" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M755" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7548" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8608" uniqueCount="1612">
   <si>
     <t>NUMBER</t>
   </si>
@@ -4572,6 +4572,282 @@
   </si>
   <si>
     <t>9:37 PM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Independence Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LVD)</t>
+  </si>
+  <si>
+    <t>5:58 AM</t>
+  </si>
+  <si>
+    <t>5:47 AM</t>
+  </si>
+  <si>
+    <t>6:28 AM</t>
+  </si>
+  <si>
+    <t>(SP-RZE)</t>
+  </si>
+  <si>
+    <t>(HA-LXE)</t>
+  </si>
+  <si>
+    <t>(D-AIEA)</t>
+  </si>
+  <si>
+    <t>(SP-RZG)</t>
+  </si>
+  <si>
+    <t>8:10 AM</t>
+  </si>
+  <si>
+    <t>7:49 AM</t>
+  </si>
+  <si>
+    <t>(HB-AZL)</t>
+  </si>
+  <si>
+    <t>(EI-EFE)</t>
+  </si>
+  <si>
+    <t>10:52 AM</t>
+  </si>
+  <si>
+    <t>10:28 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 18 minutes</t>
+  </si>
+  <si>
+    <t>(G-EZUO)</t>
+  </si>
+  <si>
+    <t>11:23 AM</t>
+  </si>
+  <si>
+    <t>11:36 AM</t>
+  </si>
+  <si>
+    <t>(G-JZHS)</t>
+  </si>
+  <si>
+    <t>11:47 AM</t>
+  </si>
+  <si>
+    <t>(G-DRTB)</t>
+  </si>
+  <si>
+    <t>12:27 PM</t>
+  </si>
+  <si>
+    <t>(A6-FPB)</t>
+  </si>
+  <si>
+    <t>12:31 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 19 minutes</t>
+  </si>
+  <si>
+    <t>(D-AIZW)</t>
+  </si>
+  <si>
+    <t>(LN-DYM)</t>
+  </si>
+  <si>
+    <t>(SP-RSC)</t>
+  </si>
+  <si>
+    <t>1:32 PM</t>
+  </si>
+  <si>
+    <t>(D-AIWK)</t>
+  </si>
+  <si>
+    <t>2:07 PM</t>
+  </si>
+  <si>
+    <t>3:16 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 56 minutes</t>
+  </si>
+  <si>
+    <t>(9H-VUR)</t>
+  </si>
+  <si>
+    <t>4:28 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
+  </si>
+  <si>
+    <t>1 hours, 58 minutes</t>
+  </si>
+  <si>
+    <t>(SP-RKQ)</t>
+  </si>
+  <si>
+    <t>6:17 PM</t>
+  </si>
+  <si>
+    <t>(EI-EMH)</t>
+  </si>
+  <si>
+    <t>4 hours, 27 minutes</t>
+  </si>
+  <si>
+    <t>6:31 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>(D-ACNW)</t>
+  </si>
+  <si>
+    <t>8:51 PM</t>
+  </si>
+  <si>
+    <t>2 hours, 11 minutes</t>
+  </si>
+  <si>
+    <t>9:08 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 28 minutes</t>
+  </si>
+  <si>
+    <t>(G-EUYN)</t>
+  </si>
+  <si>
+    <t>8:28 PM</t>
+  </si>
+  <si>
+    <t>(OE-IVW)</t>
+  </si>
+  <si>
+    <t>9:17 PM</t>
+  </si>
+  <si>
+    <t>10:42 PM</t>
+  </si>
+  <si>
+    <t>2 hours, 12 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryanair (Boeing Livery) </t>
+  </si>
+  <si>
+    <t>(EI-DCL)</t>
+  </si>
+  <si>
+    <t>1:06 AM</t>
+  </si>
+  <si>
+    <t>3 hours, 41 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>0 hours, 49 minutes</t>
+  </si>
+  <si>
+    <t>7 hours, 49 minutes</t>
+  </si>
+  <si>
+    <t>7:14 AM</t>
+  </si>
+  <si>
+    <t>7:42 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 57 minutes</t>
+  </si>
+  <si>
+    <t>1 hours, 12 minutes</t>
+  </si>
+  <si>
+    <t>7:57 AM</t>
+  </si>
+  <si>
+    <t>(HA-LZK)</t>
+  </si>
+  <si>
+    <t>10:17 AM</t>
+  </si>
+  <si>
+    <t>2 hours, 47 minutes</t>
+  </si>
+  <si>
+    <t>9:04 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 24 minutes</t>
+  </si>
+  <si>
+    <t>9:22 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 37 minutes</t>
+  </si>
+  <si>
+    <t>8:56 AM</t>
+  </si>
+  <si>
+    <t>9:25 AM</t>
+  </si>
+  <si>
+    <t>9:28 AM</t>
+  </si>
+  <si>
+    <t>(9H-QDN)</t>
+  </si>
+  <si>
+    <t>(SP-ENR)</t>
+  </si>
+  <si>
+    <t>(EI-HMY)</t>
+  </si>
+  <si>
+    <t>10:29 AM</t>
+  </si>
+  <si>
+    <t>Innsbruck</t>
+  </si>
+  <si>
+    <t>(INN)</t>
+  </si>
+  <si>
+    <t>(CS-PHA)</t>
+  </si>
+  <si>
+    <t>(EI-EMN)</t>
+  </si>
+  <si>
+    <t>11:48 AM</t>
+  </si>
+  <si>
+    <t>(EI-EBF)</t>
+  </si>
+  <si>
+    <t>(SP-LNI)</t>
+  </si>
+  <si>
+    <t>1:02 PM</t>
+  </si>
+  <si>
+    <t>1 hours, 5 minutes</t>
   </si>
 </sst>
 </file>
@@ -4616,7 +4892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M755"/>
+  <dimension ref="A1:M861"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -32549,6 +32825,3928 @@
       </c>
       <c r="M755" s="0"/>
     </row>
+    <row r="756">
+      <c r="A756" t="n" s="0">
+        <v>755.0</v>
+      </c>
+      <c r="B756" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C756" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D756" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="E756" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F756" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G756" t="s" s="0">
+        <v>1521</v>
+      </c>
+      <c r="H756" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I756" t="s" s="0">
+        <v>1522</v>
+      </c>
+      <c r="J756" t="s" s="0">
+        <v>1523</v>
+      </c>
+      <c r="K756" s="0"/>
+      <c r="L756" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M756" s="0"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="n" s="0">
+        <v>756.0</v>
+      </c>
+      <c r="B757" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C757" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D757" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E757" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F757" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G757" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H757" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I757" t="s" s="0">
+        <v>1268</v>
+      </c>
+      <c r="J757" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="K757" s="0"/>
+      <c r="L757" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M757" s="0"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="n" s="0">
+        <v>757.0</v>
+      </c>
+      <c r="B758" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C758" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="D758" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="E758" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F758" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G758" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H758" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I758" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J758" t="s" s="0">
+        <v>1238</v>
+      </c>
+      <c r="K758" s="0"/>
+      <c r="L758" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M758" s="0"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="n" s="0">
+        <v>758.0</v>
+      </c>
+      <c r="B759" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C759" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D759" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E759" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F759" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G759" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H759" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I759" t="s" s="0">
+        <v>896</v>
+      </c>
+      <c r="J759" t="s" s="0">
+        <v>1380</v>
+      </c>
+      <c r="K759" s="0"/>
+      <c r="L759" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M759" s="0"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="n" s="0">
+        <v>759.0</v>
+      </c>
+      <c r="B760" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C760" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D760" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E760" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="F760" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G760" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H760" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I760" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J760" t="s" s="0">
+        <v>1525</v>
+      </c>
+      <c r="K760" s="0"/>
+      <c r="L760" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M760" s="0"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="n" s="0">
+        <v>760.0</v>
+      </c>
+      <c r="B761" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C761" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D761" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="E761" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F761" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="G761" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H761" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I761" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J761" t="s" s="0">
+        <v>729</v>
+      </c>
+      <c r="K761" s="0"/>
+      <c r="L761" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M761" s="0"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="n" s="0">
+        <v>761.0</v>
+      </c>
+      <c r="B762" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C762" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D762" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E762" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F762" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G762" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H762" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I762" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="J762" t="s" s="0">
+        <v>1381</v>
+      </c>
+      <c r="K762" s="0"/>
+      <c r="L762" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M762" s="0"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="n" s="0">
+        <v>762.0</v>
+      </c>
+      <c r="B763" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C763" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D763" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E763" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F763" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G763" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H763" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I763" t="s" s="0">
+        <v>1528</v>
+      </c>
+      <c r="J763" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="K763" s="0"/>
+      <c r="L763" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="M763" s="0"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="n" s="0">
+        <v>763.0</v>
+      </c>
+      <c r="B764" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C764" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D764" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="E764" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="F764" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="G764" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H764" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I764" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J764" t="s" s="0">
+        <v>1480</v>
+      </c>
+      <c r="K764" s="0"/>
+      <c r="L764" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M764" s="0"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="n" s="0">
+        <v>764.0</v>
+      </c>
+      <c r="B765" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C765" t="s" s="0">
+        <v>904</v>
+      </c>
+      <c r="D765" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E765" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F765" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G765" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H765" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I765" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="J765" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="K765" s="0"/>
+      <c r="L765" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M765" s="0"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="n" s="0">
+        <v>765.0</v>
+      </c>
+      <c r="B766" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C766" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D766" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="E766" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F766" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G766" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H766" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I766" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J766" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="K766" s="0"/>
+      <c r="L766" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M766" s="0"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="n" s="0">
+        <v>766.0</v>
+      </c>
+      <c r="B767" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C767" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="D767" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="E767" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="F767" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="G767" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H767" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I767" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J767" t="s" s="0">
+        <v>1247</v>
+      </c>
+      <c r="K767" s="0"/>
+      <c r="L767" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M767" s="0"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="B768" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C768" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="D768" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="E768" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="F768" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="G768" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H768" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I768" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J768" t="s" s="0">
+        <v>1244</v>
+      </c>
+      <c r="K768" s="0"/>
+      <c r="L768" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M768" s="0"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="n" s="0">
+        <v>768.0</v>
+      </c>
+      <c r="B769" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C769" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D769" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E769" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F769" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G769" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H769" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I769" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J769" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="K769" s="0"/>
+      <c r="L769" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M769" s="0"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="n" s="0">
+        <v>769.0</v>
+      </c>
+      <c r="B770" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C770" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D770" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E770" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F770" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G770" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H770" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I770" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="J770" t="s" s="0">
+        <v>1530</v>
+      </c>
+      <c r="K770" s="0"/>
+      <c r="L770" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="M770" s="0"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="n" s="0">
+        <v>770.0</v>
+      </c>
+      <c r="B771" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C771" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D771" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E771" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F771" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G771" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H771" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I771" t="s" s="0">
+        <v>1308</v>
+      </c>
+      <c r="J771" t="s" s="0">
+        <v>1531</v>
+      </c>
+      <c r="K771" s="0"/>
+      <c r="L771" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M771" s="0"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="n" s="0">
+        <v>771.0</v>
+      </c>
+      <c r="B772" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C772" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D772" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E772" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F772" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G772" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H772" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I772" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J772" t="s" s="0">
+        <v>1314</v>
+      </c>
+      <c r="K772" s="0"/>
+      <c r="L772" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M772" s="0"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="n" s="0">
+        <v>772.0</v>
+      </c>
+      <c r="B773" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C773" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D773" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E773" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F773" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G773" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H773" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I773" t="s" s="0">
+        <v>969</v>
+      </c>
+      <c r="J773" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="K773" s="0"/>
+      <c r="L773" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M773" s="0"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="n" s="0">
+        <v>773.0</v>
+      </c>
+      <c r="B774" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C774" t="s" s="0">
+        <v>1154</v>
+      </c>
+      <c r="D774" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E774" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F774" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G774" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="H774" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="I774" t="s" s="0">
+        <v>1155</v>
+      </c>
+      <c r="J774" t="s" s="0">
+        <v>1153</v>
+      </c>
+      <c r="K774" s="0"/>
+      <c r="L774" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M774" s="0"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="n" s="0">
+        <v>774.0</v>
+      </c>
+      <c r="B775" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C775" t="s" s="0">
+        <v>1158</v>
+      </c>
+      <c r="D775" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="E775" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="F775" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="G775" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H775" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I775" t="s" s="0">
+        <v>999</v>
+      </c>
+      <c r="J775" t="s" s="0">
+        <v>1388</v>
+      </c>
+      <c r="K775" s="0"/>
+      <c r="L775" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M775" s="0"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="n" s="0">
+        <v>775.0</v>
+      </c>
+      <c r="B776" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C776" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D776" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="E776" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="F776" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G776" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="H776" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I776" t="s" s="0">
+        <v>1532</v>
+      </c>
+      <c r="J776" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="K776" s="0"/>
+      <c r="L776" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M776" s="0"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="n" s="0">
+        <v>776.0</v>
+      </c>
+      <c r="B777" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C777" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D777" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E777" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F777" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G777" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H777" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I777" t="s" s="0">
+        <v>1533</v>
+      </c>
+      <c r="J777" t="s" s="0">
+        <v>1319</v>
+      </c>
+      <c r="K777" s="0"/>
+      <c r="L777" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M777" s="0"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="n" s="0">
+        <v>777.0</v>
+      </c>
+      <c r="B778" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C778" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D778" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E778" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F778" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G778" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H778" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I778" t="s" s="0">
+        <v>1517</v>
+      </c>
+      <c r="J778" t="s" s="0">
+        <v>1534</v>
+      </c>
+      <c r="K778" s="0"/>
+      <c r="L778" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="M778" s="0"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="n" s="0">
+        <v>778.0</v>
+      </c>
+      <c r="B779" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C779" t="s" s="0">
+        <v>920</v>
+      </c>
+      <c r="D779" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E779" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F779" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G779" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H779" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I779" t="s" s="0">
+        <v>1168</v>
+      </c>
+      <c r="J779" t="s" s="0">
+        <v>1535</v>
+      </c>
+      <c r="K779" s="0"/>
+      <c r="L779" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M779" s="0"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="n" s="0">
+        <v>779.0</v>
+      </c>
+      <c r="B780" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C780" t="s" s="0">
+        <v>1170</v>
+      </c>
+      <c r="D780" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E780" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F780" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G780" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H780" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I780" t="s" s="0">
+        <v>1440</v>
+      </c>
+      <c r="J780" t="s" s="0">
+        <v>1085</v>
+      </c>
+      <c r="K780" s="0"/>
+      <c r="L780" t="s" s="0">
+        <v>1536</v>
+      </c>
+      <c r="M780" s="0"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="n" s="0">
+        <v>780.0</v>
+      </c>
+      <c r="B781" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C781" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="D781" t="s" s="0">
+        <v>1173</v>
+      </c>
+      <c r="E781" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F781" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G781" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H781" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I781" t="s" s="0">
+        <v>1537</v>
+      </c>
+      <c r="J781" t="s" s="0">
+        <v>1538</v>
+      </c>
+      <c r="K781" s="0"/>
+      <c r="L781" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M781" s="0"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="n" s="0">
+        <v>781.0</v>
+      </c>
+      <c r="B782" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C782" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D782" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E782" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F782" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G782" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H782" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I782" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J782" t="s" s="0">
+        <v>1539</v>
+      </c>
+      <c r="K782" s="0"/>
+      <c r="L782" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="M782" s="0"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="n" s="0">
+        <v>782.0</v>
+      </c>
+      <c r="B783" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C783" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D783" t="s" s="0">
+        <v>877</v>
+      </c>
+      <c r="E783" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F783" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="G783" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H783" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I783" t="s" s="0">
+        <v>1540</v>
+      </c>
+      <c r="J783" t="s" s="0">
+        <v>1541</v>
+      </c>
+      <c r="K783" s="0"/>
+      <c r="L783" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M783" s="0"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="n" s="0">
+        <v>783.0</v>
+      </c>
+      <c r="B784" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C784" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D784" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E784" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F784" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G784" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H784" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I784" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J784" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="K784" s="0"/>
+      <c r="L784" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="M784" s="0"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="n" s="0">
+        <v>784.0</v>
+      </c>
+      <c r="B785" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C785" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D785" t="s" s="0">
+        <v>885</v>
+      </c>
+      <c r="E785" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F785" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G785" t="s" s="0">
+        <v>878</v>
+      </c>
+      <c r="H785" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I785" t="s" s="0">
+        <v>1542</v>
+      </c>
+      <c r="J785" t="s" s="0">
+        <v>1543</v>
+      </c>
+      <c r="K785" s="0"/>
+      <c r="L785" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M785" s="0"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="n" s="0">
+        <v>785.0</v>
+      </c>
+      <c r="B786" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C786" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D786" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E786" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F786" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G786" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H786" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I786" t="s" s="0">
+        <v>1544</v>
+      </c>
+      <c r="J786" t="s" s="0">
+        <v>1545</v>
+      </c>
+      <c r="K786" s="0"/>
+      <c r="L786" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M786" s="0"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="n" s="0">
+        <v>786.0</v>
+      </c>
+      <c r="B787" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C787" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D787" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E787" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F787" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G787" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H787" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I787" t="s" s="0">
+        <v>945</v>
+      </c>
+      <c r="J787" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="K787" s="0"/>
+      <c r="L787" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M787" s="0"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="n" s="0">
+        <v>787.0</v>
+      </c>
+      <c r="B788" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C788" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="D788" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="E788" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="F788" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="G788" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H788" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I788" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="J788" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="K788" s="0"/>
+      <c r="L788" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M788" s="0"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="n" s="0">
+        <v>788.0</v>
+      </c>
+      <c r="B789" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C789" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="D789" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E789" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F789" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G789" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H789" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I789" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="J789" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="K789" s="0"/>
+      <c r="L789" t="s" s="0">
+        <v>1546</v>
+      </c>
+      <c r="M789" s="0"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="n" s="0">
+        <v>789.0</v>
+      </c>
+      <c r="B790" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C790" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D790" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E790" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F790" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G790" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H790" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I790" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J790" t="s" s="0">
+        <v>1083</v>
+      </c>
+      <c r="K790" s="0"/>
+      <c r="L790" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M790" s="0"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="n" s="0">
+        <v>790.0</v>
+      </c>
+      <c r="B791" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C791" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="D791" t="s" s="0">
+        <v>1184</v>
+      </c>
+      <c r="E791" t="s" s="0">
+        <v>1185</v>
+      </c>
+      <c r="F791" t="s" s="0">
+        <v>1186</v>
+      </c>
+      <c r="G791" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H791" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I791" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J791" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="K791" s="0"/>
+      <c r="L791" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M791" s="0"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="n" s="0">
+        <v>791.0</v>
+      </c>
+      <c r="B792" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C792" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D792" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="E792" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F792" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G792" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H792" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I792" t="s" s="0">
+        <v>1547</v>
+      </c>
+      <c r="J792" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="K792" s="0"/>
+      <c r="L792" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M792" s="0"/>
+    </row>
+    <row r="793">
+      <c r="A793" t="n" s="0">
+        <v>792.0</v>
+      </c>
+      <c r="B793" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C793" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D793" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E793" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F793" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G793" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H793" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I793" t="s" s="0">
+        <v>1548</v>
+      </c>
+      <c r="J793" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="K793" s="0"/>
+      <c r="L793" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M793" s="0"/>
+    </row>
+    <row r="794">
+      <c r="A794" t="n" s="0">
+        <v>793.0</v>
+      </c>
+      <c r="B794" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C794" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="D794" t="s" s="0">
+        <v>957</v>
+      </c>
+      <c r="E794" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F794" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G794" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H794" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I794" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J794" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="K794" s="0"/>
+      <c r="L794" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M794" s="0"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="n" s="0">
+        <v>794.0</v>
+      </c>
+      <c r="B795" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C795" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="D795" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="E795" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="F795" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="G795" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H795" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I795" t="s" s="0">
+        <v>1549</v>
+      </c>
+      <c r="J795" t="s" s="0">
+        <v>1550</v>
+      </c>
+      <c r="K795" s="0"/>
+      <c r="L795" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M795" s="0"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="n" s="0">
+        <v>795.0</v>
+      </c>
+      <c r="B796" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C796" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D796" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="E796" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="F796" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="G796" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H796" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I796" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="J796" t="s" s="0">
+        <v>1195</v>
+      </c>
+      <c r="K796" s="0"/>
+      <c r="L796" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M796" s="0"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="n" s="0">
+        <v>796.0</v>
+      </c>
+      <c r="B797" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C797" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D797" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E797" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F797" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G797" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H797" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I797" t="s" s="0">
+        <v>1551</v>
+      </c>
+      <c r="J797" t="s" s="0">
+        <v>942</v>
+      </c>
+      <c r="K797" s="0"/>
+      <c r="L797" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M797" s="0"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="n" s="0">
+        <v>797.0</v>
+      </c>
+      <c r="B798" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C798" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D798" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="E798" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F798" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G798" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H798" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I798" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J798" t="s" s="0">
+        <v>1552</v>
+      </c>
+      <c r="K798" s="0"/>
+      <c r="L798" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M798" s="0"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="n" s="0">
+        <v>798.0</v>
+      </c>
+      <c r="B799" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C799" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D799" t="s" s="0">
+        <v>1200</v>
+      </c>
+      <c r="E799" t="s" s="0">
+        <v>1201</v>
+      </c>
+      <c r="F799" t="s" s="0">
+        <v>1202</v>
+      </c>
+      <c r="G799" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H799" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I799" t="s" s="0">
+        <v>1203</v>
+      </c>
+      <c r="J799" t="s" s="0">
+        <v>1553</v>
+      </c>
+      <c r="K799" s="0"/>
+      <c r="L799" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="M799" s="0"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="n" s="0">
+        <v>799.0</v>
+      </c>
+      <c r="B800" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C800" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D800" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E800" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F800" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G800" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H800" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I800" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="J800" t="s" s="0">
+        <v>944</v>
+      </c>
+      <c r="K800" s="0"/>
+      <c r="L800" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M800" s="0"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="n" s="0">
+        <v>800.0</v>
+      </c>
+      <c r="B801" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C801" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="D801" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E801" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F801" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G801" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H801" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I801" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J801" t="s" s="0">
+        <v>1204</v>
+      </c>
+      <c r="K801" s="0"/>
+      <c r="L801" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M801" s="0"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="n" s="0">
+        <v>801.0</v>
+      </c>
+      <c r="B802" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C802" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D802" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E802" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F802" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G802" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H802" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I802" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="J802" t="s" s="0">
+        <v>1410</v>
+      </c>
+      <c r="K802" s="0"/>
+      <c r="L802" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M802" s="0"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="n" s="0">
+        <v>802.0</v>
+      </c>
+      <c r="B803" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C803" t="s" s="0">
+        <v>1011</v>
+      </c>
+      <c r="D803" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E803" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F803" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G803" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H803" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I803" t="s" s="0">
+        <v>1555</v>
+      </c>
+      <c r="J803" t="s" s="0">
+        <v>1556</v>
+      </c>
+      <c r="K803" s="0"/>
+      <c r="L803" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M803" s="0"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="n" s="0">
+        <v>803.0</v>
+      </c>
+      <c r="B804" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C804" t="s" s="0">
+        <v>1206</v>
+      </c>
+      <c r="D804" t="s" s="0">
+        <v>864</v>
+      </c>
+      <c r="E804" t="s" s="0">
+        <v>865</v>
+      </c>
+      <c r="F804" t="s" s="0">
+        <v>866</v>
+      </c>
+      <c r="G804" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H804" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I804" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J804" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="K804" s="0"/>
+      <c r="L804" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M804" s="0"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="n" s="0">
+        <v>804.0</v>
+      </c>
+      <c r="B805" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C805" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D805" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="E805" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="F805" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="G805" t="s" s="0">
+        <v>1557</v>
+      </c>
+      <c r="H805" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I805" t="s" s="0">
+        <v>1558</v>
+      </c>
+      <c r="J805" t="s" s="0">
+        <v>659</v>
+      </c>
+      <c r="K805" s="0"/>
+      <c r="L805" t="s" s="0">
+        <v>1559</v>
+      </c>
+      <c r="M805" s="0"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="n" s="0">
+        <v>805.0</v>
+      </c>
+      <c r="B806" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C806" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D806" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E806" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F806" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G806" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H806" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I806" t="s" s="0">
+        <v>721</v>
+      </c>
+      <c r="J806" t="s" s="0">
+        <v>1213</v>
+      </c>
+      <c r="K806" s="0"/>
+      <c r="L806" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M806" s="0"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="n" s="0">
+        <v>806.0</v>
+      </c>
+      <c r="B807" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C807" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="D807" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E807" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="F807" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="G807" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H807" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I807" t="s" s="0">
+        <v>786</v>
+      </c>
+      <c r="J807" t="s" s="0">
+        <v>1281</v>
+      </c>
+      <c r="K807" s="0"/>
+      <c r="L807" t="s" s="0">
+        <v>987</v>
+      </c>
+      <c r="M807" s="0"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="n" s="0">
+        <v>807.0</v>
+      </c>
+      <c r="B808" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C808" t="s" s="0">
+        <v>626</v>
+      </c>
+      <c r="D808" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="E808" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="F808" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="G808" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H808" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I808" t="s" s="0">
+        <v>1560</v>
+      </c>
+      <c r="J808" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="K808" s="0"/>
+      <c r="L808" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="M808" s="0"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="n" s="0">
+        <v>808.0</v>
+      </c>
+      <c r="B809" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C809" t="s" s="0">
+        <v>855</v>
+      </c>
+      <c r="D809" t="s" s="0">
+        <v>1013</v>
+      </c>
+      <c r="E809" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F809" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G809" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H809" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I809" t="s" s="0">
+        <v>1014</v>
+      </c>
+      <c r="J809" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="K809" s="0"/>
+      <c r="L809" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="M809" s="0"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="n" s="0">
+        <v>809.0</v>
+      </c>
+      <c r="B810" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C810" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="D810" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E810" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F810" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G810" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H810" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I810" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="J810" t="s" s="0">
+        <v>1561</v>
+      </c>
+      <c r="K810" s="0"/>
+      <c r="L810" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M810" s="0"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="n" s="0">
+        <v>810.0</v>
+      </c>
+      <c r="B811" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C811" t="s" s="0">
+        <v>856</v>
+      </c>
+      <c r="D811" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="E811" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="F811" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="G811" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H811" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I811" t="s" s="0">
+        <v>1562</v>
+      </c>
+      <c r="J811" t="s" s="0">
+        <v>973</v>
+      </c>
+      <c r="K811" s="0"/>
+      <c r="L811" t="s" s="0">
+        <v>1563</v>
+      </c>
+      <c r="M811" s="0"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="n" s="0">
+        <v>811.0</v>
+      </c>
+      <c r="B812" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C812" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D812" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E812" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F812" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G812" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H812" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I812" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="J812" t="s" s="0">
+        <v>1430</v>
+      </c>
+      <c r="K812" s="0"/>
+      <c r="L812" t="s" s="0">
+        <v>1131</v>
+      </c>
+      <c r="M812" s="0"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="n" s="0">
+        <v>812.0</v>
+      </c>
+      <c r="B813" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C813" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D813" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="E813" t="s" s="0">
+        <v>410</v>
+      </c>
+      <c r="F813" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="G813" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H813" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I813" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J813" t="s" s="0">
+        <v>1564</v>
+      </c>
+      <c r="K813" s="0"/>
+      <c r="L813" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M813" s="0"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="n" s="0">
+        <v>813.0</v>
+      </c>
+      <c r="B814" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C814" t="s" s="0">
+        <v>640</v>
+      </c>
+      <c r="D814" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="E814" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="F814" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="G814" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H814" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I814" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J814" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="K814" s="0"/>
+      <c r="L814" t="s" s="0">
+        <v>1565</v>
+      </c>
+      <c r="M814" s="0"/>
+    </row>
+    <row r="815">
+      <c r="A815" t="n" s="0">
+        <v>814.0</v>
+      </c>
+      <c r="B815" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C815" t="s" s="0">
+        <v>858</v>
+      </c>
+      <c r="D815" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E815" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F815" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G815" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H815" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I815" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J815" t="s" s="0">
+        <v>1357</v>
+      </c>
+      <c r="K815" s="0"/>
+      <c r="L815" t="s" s="0">
+        <v>1554</v>
+      </c>
+      <c r="M815" s="0"/>
+    </row>
+    <row r="816">
+      <c r="A816" t="n" s="0">
+        <v>815.0</v>
+      </c>
+      <c r="B816" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C816" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="D816" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E816" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F816" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G816" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H816" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I816" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="J816" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="K816" s="0"/>
+      <c r="L816" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M816" s="0"/>
+    </row>
+    <row r="817">
+      <c r="A817" t="n" s="0">
+        <v>816.0</v>
+      </c>
+      <c r="B817" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C817" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="D817" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="E817" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F817" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="G817" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H817" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I817" t="s" s="0">
+        <v>1221</v>
+      </c>
+      <c r="J817" t="s" s="0">
+        <v>1284</v>
+      </c>
+      <c r="K817" s="0"/>
+      <c r="L817" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="M817" s="0"/>
+    </row>
+    <row r="818">
+      <c r="A818" t="n" s="0">
+        <v>817.0</v>
+      </c>
+      <c r="B818" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C818" t="s" s="0">
+        <v>1019</v>
+      </c>
+      <c r="D818" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="E818" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F818" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G818" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H818" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I818" t="s" s="0">
+        <v>1222</v>
+      </c>
+      <c r="J818" t="s" s="0">
+        <v>1290</v>
+      </c>
+      <c r="K818" s="0"/>
+      <c r="L818" t="s" s="0">
+        <v>1219</v>
+      </c>
+      <c r="M818" s="0"/>
+    </row>
+    <row r="819">
+      <c r="A819" t="n" s="0">
+        <v>818.0</v>
+      </c>
+      <c r="B819" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C819" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D819" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E819" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F819" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G819" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H819" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I819" t="s" s="0">
+        <v>1566</v>
+      </c>
+      <c r="J819" t="s" s="0">
+        <v>1567</v>
+      </c>
+      <c r="K819" s="0"/>
+      <c r="L819" t="s" s="0">
+        <v>1568</v>
+      </c>
+      <c r="M819" s="0"/>
+    </row>
+    <row r="820">
+      <c r="A820" t="n" s="0">
+        <v>819.0</v>
+      </c>
+      <c r="B820" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C820" t="s" s="0">
+        <v>872</v>
+      </c>
+      <c r="D820" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E820" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F820" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="G820" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H820" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I820" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J820" t="s" s="0">
+        <v>966</v>
+      </c>
+      <c r="K820" s="0"/>
+      <c r="L820" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M820" s="0"/>
+    </row>
+    <row r="821">
+      <c r="A821" t="n" s="0">
+        <v>820.0</v>
+      </c>
+      <c r="B821" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C821" t="s" s="0">
+        <v>1223</v>
+      </c>
+      <c r="D821" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E821" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F821" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G821" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H821" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I821" t="s" s="0">
+        <v>1252</v>
+      </c>
+      <c r="J821" t="s" s="0">
+        <v>1569</v>
+      </c>
+      <c r="K821" s="0"/>
+      <c r="L821" t="s" s="0">
+        <v>1570</v>
+      </c>
+      <c r="M821" s="0"/>
+    </row>
+    <row r="822">
+      <c r="A822" t="n" s="0">
+        <v>821.0</v>
+      </c>
+      <c r="B822" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C822" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="D822" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="E822" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="F822" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="G822" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H822" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I822" t="s" s="0">
+        <v>603</v>
+      </c>
+      <c r="J822" t="s" s="0">
+        <v>884</v>
+      </c>
+      <c r="K822" s="0"/>
+      <c r="L822" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M822" s="0"/>
+    </row>
+    <row r="823">
+      <c r="A823" t="n" s="0">
+        <v>822.0</v>
+      </c>
+      <c r="B823" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C823" t="s" s="0">
+        <v>964</v>
+      </c>
+      <c r="D823" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E823" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F823" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G823" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H823" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I823" t="s" s="0">
+        <v>1571</v>
+      </c>
+      <c r="J823" t="s" s="0">
+        <v>1572</v>
+      </c>
+      <c r="K823" s="0"/>
+      <c r="L823" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="M823" s="0"/>
+    </row>
+    <row r="824">
+      <c r="A824" t="n" s="0">
+        <v>823.0</v>
+      </c>
+      <c r="B824" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C824" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="D824" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="E824" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F824" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G824" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H824" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I824" t="s" s="0">
+        <v>1573</v>
+      </c>
+      <c r="J824" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="K824" s="0"/>
+      <c r="L824" t="s" s="0">
+        <v>1178</v>
+      </c>
+      <c r="M824" s="0"/>
+    </row>
+    <row r="825">
+      <c r="A825" t="n" s="0">
+        <v>824.0</v>
+      </c>
+      <c r="B825" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C825" t="s" s="0">
+        <v>881</v>
+      </c>
+      <c r="D825" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="E825" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="F825" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="G825" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H825" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I825" t="s" s="0">
+        <v>1360</v>
+      </c>
+      <c r="J825" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="K825" s="0"/>
+      <c r="L825" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="M825" s="0"/>
+    </row>
+    <row r="826">
+      <c r="A826" t="n" s="0">
+        <v>825.0</v>
+      </c>
+      <c r="B826" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C826" t="s" s="0">
+        <v>887</v>
+      </c>
+      <c r="D826" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="E826" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="F826" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="G826" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H826" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I826" t="s" s="0">
+        <v>1413</v>
+      </c>
+      <c r="J826" t="s" s="0">
+        <v>1575</v>
+      </c>
+      <c r="K826" s="0"/>
+      <c r="L826" t="s" s="0">
+        <v>1576</v>
+      </c>
+      <c r="M826" s="0"/>
+    </row>
+    <row r="827">
+      <c r="A827" t="n" s="0">
+        <v>826.0</v>
+      </c>
+      <c r="B827" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C827" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D827" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E827" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F827" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G827" t="s" s="0">
+        <v>1577</v>
+      </c>
+      <c r="H827" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I827" t="s" s="0">
+        <v>1578</v>
+      </c>
+      <c r="J827" t="s" s="0">
+        <v>1579</v>
+      </c>
+      <c r="K827" s="0"/>
+      <c r="L827" t="s" s="0">
+        <v>1580</v>
+      </c>
+      <c r="M827" s="0"/>
+    </row>
+    <row r="828">
+      <c r="A828" t="n" s="0">
+        <v>827.0</v>
+      </c>
+      <c r="B828" t="s" s="0">
+        <v>1520</v>
+      </c>
+      <c r="C828" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D828" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E828" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F828" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G828" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H828" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I828" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="J828" t="s" s="0">
+        <v>889</v>
+      </c>
+      <c r="K828" s="0"/>
+      <c r="L828" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="M828" s="0"/>
+    </row>
+    <row r="829">
+      <c r="A829" t="n" s="0">
+        <v>828.0</v>
+      </c>
+      <c r="B829" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C829" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D829" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E829" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F829" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G829" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H829" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I829" t="s" s="0">
+        <v>986</v>
+      </c>
+      <c r="J829" t="s" s="0">
+        <v>897</v>
+      </c>
+      <c r="K829" s="0"/>
+      <c r="L829" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M829" s="0"/>
+    </row>
+    <row r="830">
+      <c r="A830" t="n" s="0">
+        <v>829.0</v>
+      </c>
+      <c r="B830" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C830" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D830" t="s" s="0">
+        <v>899</v>
+      </c>
+      <c r="E830" t="s" s="0">
+        <v>900</v>
+      </c>
+      <c r="F830" t="s" s="0">
+        <v>901</v>
+      </c>
+      <c r="G830" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H830" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I830" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="J830" t="s" s="0">
+        <v>1057</v>
+      </c>
+      <c r="K830" s="0"/>
+      <c r="L830" t="s" s="0">
+        <v>1582</v>
+      </c>
+      <c r="M830" s="0"/>
+    </row>
+    <row r="831">
+      <c r="A831" t="n" s="0">
+        <v>830.0</v>
+      </c>
+      <c r="B831" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C831" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D831" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E831" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F831" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G831" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H831" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I831" t="s" s="0">
+        <v>1049</v>
+      </c>
+      <c r="J831" t="s" s="0">
+        <v>1384</v>
+      </c>
+      <c r="K831" s="0"/>
+      <c r="L831" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="M831" s="0"/>
+    </row>
+    <row r="832">
+      <c r="A832" t="n" s="0">
+        <v>831.0</v>
+      </c>
+      <c r="B832" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C832" t="s" s="0">
+        <v>898</v>
+      </c>
+      <c r="D832" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E832" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="F832" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="G832" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H832" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I832" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J832" t="s" s="0">
+        <v>905</v>
+      </c>
+      <c r="K832" s="0"/>
+      <c r="L832" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="M832" s="0"/>
+    </row>
+    <row r="833">
+      <c r="A833" t="n" s="0">
+        <v>832.0</v>
+      </c>
+      <c r="B833" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C833" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D833" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E833" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F833" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G833" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="H833" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I833" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="J833" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="K833" s="0"/>
+      <c r="L833" t="s" s="0">
+        <v>1583</v>
+      </c>
+      <c r="M833" s="0"/>
+    </row>
+    <row r="834">
+      <c r="A834" t="n" s="0">
+        <v>833.0</v>
+      </c>
+      <c r="B834" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C834" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D834" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E834" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F834" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G834" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H834" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I834" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="J834" t="s" s="0">
+        <v>1584</v>
+      </c>
+      <c r="K834" s="0"/>
+      <c r="L834" t="s" s="0">
+        <v>1582</v>
+      </c>
+      <c r="M834" s="0"/>
+    </row>
+    <row r="835">
+      <c r="A835" t="n" s="0">
+        <v>834.0</v>
+      </c>
+      <c r="B835" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C835" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D835" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E835" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F835" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G835" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H835" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I835" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J835" t="s" s="0">
+        <v>1149</v>
+      </c>
+      <c r="K835" s="0"/>
+      <c r="L835" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="M835" s="0"/>
+    </row>
+    <row r="836">
+      <c r="A836" t="n" s="0">
+        <v>835.0</v>
+      </c>
+      <c r="B836" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C836" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D836" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E836" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F836" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G836" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H836" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I836" t="s" s="0">
+        <v>1529</v>
+      </c>
+      <c r="J836" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="K836" s="0"/>
+      <c r="L836" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="M836" s="0"/>
+    </row>
+    <row r="837">
+      <c r="A837" t="n" s="0">
+        <v>836.0</v>
+      </c>
+      <c r="B837" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C837" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D837" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E837" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F837" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G837" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H837" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I837" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J837" t="s" s="0">
+        <v>1585</v>
+      </c>
+      <c r="K837" s="0"/>
+      <c r="L837" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="M837" s="0"/>
+    </row>
+    <row r="838">
+      <c r="A838" t="n" s="0">
+        <v>837.0</v>
+      </c>
+      <c r="B838" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C838" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D838" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E838" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F838" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G838" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H838" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I838" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J838" t="s" s="0">
+        <v>1310</v>
+      </c>
+      <c r="K838" s="0"/>
+      <c r="L838" t="s" s="0">
+        <v>1586</v>
+      </c>
+      <c r="M838" s="0"/>
+    </row>
+    <row r="839">
+      <c r="A839" t="n" s="0">
+        <v>838.0</v>
+      </c>
+      <c r="B839" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C839" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D839" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="E839" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="F839" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="G839" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H839" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I839" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J839" t="s" s="0">
+        <v>1251</v>
+      </c>
+      <c r="K839" s="0"/>
+      <c r="L839" t="s" s="0">
+        <v>1587</v>
+      </c>
+      <c r="M839" s="0"/>
+    </row>
+    <row r="840">
+      <c r="A840" t="n" s="0">
+        <v>839.0</v>
+      </c>
+      <c r="B840" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C840" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D840" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E840" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F840" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G840" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H840" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I840" t="s" s="0">
+        <v>943</v>
+      </c>
+      <c r="J840" t="s" s="0">
+        <v>1588</v>
+      </c>
+      <c r="K840" s="0"/>
+      <c r="L840" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="M840" s="0"/>
+    </row>
+    <row r="841">
+      <c r="A841" t="n" s="0">
+        <v>840.0</v>
+      </c>
+      <c r="B841" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C841" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D841" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="E841" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F841" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G841" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H841" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I841" t="s" s="0">
+        <v>1589</v>
+      </c>
+      <c r="J841" t="s" s="0">
+        <v>1530</v>
+      </c>
+      <c r="K841" s="0"/>
+      <c r="L841" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="M841" s="0"/>
+    </row>
+    <row r="842">
+      <c r="A842" t="n" s="0">
+        <v>841.0</v>
+      </c>
+      <c r="B842" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C842" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D842" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E842" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F842" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G842" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H842" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I842" t="s" s="0">
+        <v>1448</v>
+      </c>
+      <c r="J842" t="s" s="0">
+        <v>1590</v>
+      </c>
+      <c r="K842" s="0"/>
+      <c r="L842" t="s" s="0">
+        <v>1591</v>
+      </c>
+      <c r="M842" s="0"/>
+    </row>
+    <row r="843">
+      <c r="A843" t="n" s="0">
+        <v>842.0</v>
+      </c>
+      <c r="B843" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C843" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D843" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E843" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F843" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G843" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H843" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I843" t="s" s="0">
+        <v>1286</v>
+      </c>
+      <c r="J843" t="s" s="0">
+        <v>1592</v>
+      </c>
+      <c r="K843" s="0"/>
+      <c r="L843" t="s" s="0">
+        <v>1593</v>
+      </c>
+      <c r="M843" s="0"/>
+    </row>
+    <row r="844">
+      <c r="A844" t="n" s="0">
+        <v>843.0</v>
+      </c>
+      <c r="B844" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C844" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="D844" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="E844" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="F844" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="G844" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H844" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I844" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J844" t="s" s="0">
+        <v>1594</v>
+      </c>
+      <c r="K844" s="0"/>
+      <c r="L844" t="s" s="0">
+        <v>1595</v>
+      </c>
+      <c r="M844" s="0"/>
+    </row>
+    <row r="845">
+      <c r="A845" t="n" s="0">
+        <v>844.0</v>
+      </c>
+      <c r="B845" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C845" t="s" s="0">
+        <v>912</v>
+      </c>
+      <c r="D845" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="E845" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="F845" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="G845" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H845" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I845" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J845" t="s" s="0">
+        <v>1596</v>
+      </c>
+      <c r="K845" s="0"/>
+      <c r="L845" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M845" s="0"/>
+    </row>
+    <row r="846">
+      <c r="A846" t="n" s="0">
+        <v>845.0</v>
+      </c>
+      <c r="B846" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C846" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D846" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E846" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F846" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G846" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H846" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I846" t="s" s="0">
+        <v>1311</v>
+      </c>
+      <c r="J846" t="s" s="0">
+        <v>1597</v>
+      </c>
+      <c r="K846" s="0"/>
+      <c r="L846" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="M846" s="0"/>
+    </row>
+    <row r="847">
+      <c r="A847" t="n" s="0">
+        <v>846.0</v>
+      </c>
+      <c r="B847" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C847" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D847" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E847" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F847" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G847" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H847" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I847" t="s" s="0">
+        <v>1177</v>
+      </c>
+      <c r="J847" t="s" s="0">
+        <v>752</v>
+      </c>
+      <c r="K847" s="0"/>
+      <c r="L847" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M847" s="0"/>
+    </row>
+    <row r="848">
+      <c r="A848" t="n" s="0">
+        <v>847.0</v>
+      </c>
+      <c r="B848" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C848" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D848" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E848" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F848" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G848" t="s" s="0">
+        <v>1557</v>
+      </c>
+      <c r="H848" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I848" t="s" s="0">
+        <v>1558</v>
+      </c>
+      <c r="J848" t="s" s="0">
+        <v>1598</v>
+      </c>
+      <c r="K848" s="0"/>
+      <c r="L848" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="M848" s="0"/>
+    </row>
+    <row r="849">
+      <c r="A849" t="n" s="0">
+        <v>848.0</v>
+      </c>
+      <c r="B849" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C849" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="D849" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E849" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F849" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="G849" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H849" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I849" t="s" s="0">
+        <v>1599</v>
+      </c>
+      <c r="J849" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="K849" s="0"/>
+      <c r="L849" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M849" s="0"/>
+    </row>
+    <row r="850">
+      <c r="A850" t="n" s="0">
+        <v>849.0</v>
+      </c>
+      <c r="B850" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C850" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D850" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E850" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="F850" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="G850" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="H850" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I850" t="s" s="0">
+        <v>1600</v>
+      </c>
+      <c r="J850" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="K850" s="0"/>
+      <c r="L850" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M850" s="0"/>
+    </row>
+    <row r="851">
+      <c r="A851" t="n" s="0">
+        <v>850.0</v>
+      </c>
+      <c r="B851" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C851" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D851" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E851" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F851" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G851" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H851" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I851" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="J851" t="s" s="0">
+        <v>1070</v>
+      </c>
+      <c r="K851" s="0"/>
+      <c r="L851" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M851" s="0"/>
+    </row>
+    <row r="852">
+      <c r="A852" t="n" s="0">
+        <v>851.0</v>
+      </c>
+      <c r="B852" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C852" t="s" s="0">
+        <v>1257</v>
+      </c>
+      <c r="D852" t="s" s="0">
+        <v>1258</v>
+      </c>
+      <c r="E852" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F852" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G852" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H852" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I852" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J852" t="s" s="0">
+        <v>1602</v>
+      </c>
+      <c r="K852" s="0"/>
+      <c r="L852" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M852" s="0"/>
+    </row>
+    <row r="853">
+      <c r="A853" t="n" s="0">
+        <v>852.0</v>
+      </c>
+      <c r="B853" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C853" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="D853" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E853" t="s" s="0">
+        <v>1603</v>
+      </c>
+      <c r="F853" t="s" s="0">
+        <v>1604</v>
+      </c>
+      <c r="G853" t="s" s="0">
+        <v>923</v>
+      </c>
+      <c r="H853" t="s" s="0">
+        <v>924</v>
+      </c>
+      <c r="I853" t="s" s="0">
+        <v>1605</v>
+      </c>
+      <c r="J853" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="K853" s="0"/>
+      <c r="L853" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M853" s="0"/>
+    </row>
+    <row r="854">
+      <c r="A854" t="n" s="0">
+        <v>853.0</v>
+      </c>
+      <c r="B854" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C854" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D854" t="s" s="0">
+        <v>1260</v>
+      </c>
+      <c r="E854" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F854" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G854" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H854" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I854" t="s" s="0">
+        <v>1196</v>
+      </c>
+      <c r="J854" t="s" s="0">
+        <v>1071</v>
+      </c>
+      <c r="K854" s="0"/>
+      <c r="L854" t="s" s="0">
+        <v>1333</v>
+      </c>
+      <c r="M854" s="0"/>
+    </row>
+    <row r="855">
+      <c r="A855" t="n" s="0">
+        <v>854.0</v>
+      </c>
+      <c r="B855" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C855" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D855" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E855" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F855" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G855" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H855" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I855" t="s" s="0">
+        <v>1606</v>
+      </c>
+      <c r="J855" t="s" s="0">
+        <v>1607</v>
+      </c>
+      <c r="K855" s="0"/>
+      <c r="L855" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M855" s="0"/>
+    </row>
+    <row r="856">
+      <c r="A856" t="n" s="0">
+        <v>855.0</v>
+      </c>
+      <c r="B856" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C856" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D856" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E856" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F856" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G856" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H856" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I856" t="s" s="0">
+        <v>1608</v>
+      </c>
+      <c r="J856" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="K856" s="0"/>
+      <c r="L856" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M856" s="0"/>
+    </row>
+    <row r="857">
+      <c r="A857" t="n" s="0">
+        <v>856.0</v>
+      </c>
+      <c r="B857" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C857" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D857" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E857" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F857" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="G857" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H857" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I857" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="J857" t="s" s="0">
+        <v>1543</v>
+      </c>
+      <c r="K857" s="0"/>
+      <c r="L857" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="M857" s="0"/>
+    </row>
+    <row r="858">
+      <c r="A858" t="n" s="0">
+        <v>857.0</v>
+      </c>
+      <c r="B858" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C858" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D858" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E858" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F858" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G858" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H858" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I858" t="s" s="0">
+        <v>934</v>
+      </c>
+      <c r="J858" t="s" s="0">
+        <v>939</v>
+      </c>
+      <c r="K858" s="0"/>
+      <c r="L858" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M858" s="0"/>
+    </row>
+    <row r="859">
+      <c r="A859" t="n" s="0">
+        <v>858.0</v>
+      </c>
+      <c r="B859" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C859" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D859" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E859" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F859" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G859" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H859" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I859" t="s" s="0">
+        <v>1609</v>
+      </c>
+      <c r="J859" t="s" s="0">
+        <v>1610</v>
+      </c>
+      <c r="K859" s="0"/>
+      <c r="L859" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="M859" s="0"/>
+    </row>
+    <row r="860">
+      <c r="A860" t="n" s="0">
+        <v>859.0</v>
+      </c>
+      <c r="B860" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C860" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="D860" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E860" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F860" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G860" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H860" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I860" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J860" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="K860" s="0"/>
+      <c r="L860" t="s" s="0">
+        <v>1611</v>
+      </c>
+      <c r="M860" s="0"/>
+    </row>
+    <row r="861">
+      <c r="A861" t="n" s="0">
+        <v>860.0</v>
+      </c>
+      <c r="B861" t="s" s="0">
+        <v>1581</v>
+      </c>
+      <c r="C861" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D861" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="E861" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F861" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G861" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H861" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I861" t="s" s="0">
+        <v>1527</v>
+      </c>
+      <c r="J861" t="s" s="0">
+        <v>941</v>
+      </c>
+      <c r="K861" s="0"/>
+      <c r="L861" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="M861" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/KRK_Departures.xlsx
+++ b/DataBase/KRK_Departures.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10708" uniqueCount="1757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12068" uniqueCount="1851">
   <si>
     <t>NUMBER</t>
   </si>
@@ -5283,6 +5283,288 @@
   </si>
   <si>
     <t>3:03 PM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>6:48 AM</t>
+  </si>
+  <si>
+    <t>(D-AIRK)</t>
+  </si>
+  <si>
+    <t>LH9962</t>
+  </si>
+  <si>
+    <t>(I-JENE)</t>
+  </si>
+  <si>
+    <t>7:46 AM</t>
+  </si>
+  <si>
+    <t>7:19 AM</t>
+  </si>
+  <si>
+    <t>7:05 AM</t>
+  </si>
+  <si>
+    <t>7:52 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 3 minutes</t>
+  </si>
+  <si>
+    <t>8:14 AM</t>
+  </si>
+  <si>
+    <t>Salalah</t>
+  </si>
+  <si>
+    <t>(SLL)</t>
+  </si>
+  <si>
+    <t>9:09 AM</t>
+  </si>
+  <si>
+    <t>(HB-JCT)</t>
+  </si>
+  <si>
+    <t>10:07 AM</t>
+  </si>
+  <si>
+    <t>(EI-EKT)</t>
+  </si>
+  <si>
+    <t>(D-AIBG)</t>
+  </si>
+  <si>
+    <t>(EI-EBW)</t>
+  </si>
+  <si>
+    <t>(EI-DLG)</t>
+  </si>
+  <si>
+    <t>11:44 AM</t>
+  </si>
+  <si>
+    <t>(OE-LZO)</t>
+  </si>
+  <si>
+    <t>(A6-FPD)</t>
+  </si>
+  <si>
+    <t>1 hours, 35 minutes</t>
+  </si>
+  <si>
+    <t>(SP-LNI)</t>
+  </si>
+  <si>
+    <t>12:28 PM</t>
+  </si>
+  <si>
+    <t>(9H-WAD)</t>
+  </si>
+  <si>
+    <t>1 hours, 42 minutes</t>
+  </si>
+  <si>
+    <t>1:24 PM</t>
+  </si>
+  <si>
+    <t>(OE-IVC)</t>
+  </si>
+  <si>
+    <t>2:51 PM</t>
+  </si>
+  <si>
+    <t>4:48 PM</t>
+  </si>
+  <si>
+    <t>(9H-QBM)</t>
+  </si>
+  <si>
+    <t>(SP-RKK)</t>
+  </si>
+  <si>
+    <t>4:37 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOT (Retro Livery) </t>
+  </si>
+  <si>
+    <t>(SP-LIM)</t>
+  </si>
+  <si>
+    <t>(G-EZWP)</t>
+  </si>
+  <si>
+    <t>(PH-EZD)</t>
+  </si>
+  <si>
+    <t>5:38 PM</t>
+  </si>
+  <si>
+    <t>5:29 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBE)</t>
+  </si>
+  <si>
+    <t>1 hours, 28 minutes</t>
+  </si>
+  <si>
+    <t>6:28 PM</t>
+  </si>
+  <si>
+    <t>7:08 PM</t>
+  </si>
+  <si>
+    <t>6:33 PM</t>
+  </si>
+  <si>
+    <t>(OH-LVI)</t>
+  </si>
+  <si>
+    <t>(G-EZTG)</t>
+  </si>
+  <si>
+    <t>1 hours, 13 minutes</t>
+  </si>
+  <si>
+    <t>LO7030</t>
+  </si>
+  <si>
+    <t>(SP-LIG)</t>
+  </si>
+  <si>
+    <t>(EI-DPV)</t>
+  </si>
+  <si>
+    <t>(EI-GXN)</t>
+  </si>
+  <si>
+    <t>9:07 PM</t>
+  </si>
+  <si>
+    <t>8:56 PM</t>
+  </si>
+  <si>
+    <t>(G-UZLL)</t>
+  </si>
+  <si>
+    <t>(SP-LVL)</t>
+  </si>
+  <si>
+    <t>10:27 PM</t>
+  </si>
+  <si>
+    <t>(EI-HAY)</t>
+  </si>
+  <si>
+    <t>10:20 PM</t>
+  </si>
+  <si>
+    <t>10:37 PM</t>
+  </si>
+  <si>
+    <t>(LN-ENU)</t>
+  </si>
+  <si>
+    <t>Monday, Jan 30</t>
+  </si>
+  <si>
+    <t>(SP-LWD)</t>
+  </si>
+  <si>
+    <t>5:58 AM</t>
+  </si>
+  <si>
+    <t>5:49 AM</t>
+  </si>
+  <si>
+    <t>(PH-EXD)</t>
+  </si>
+  <si>
+    <t>6:38 AM</t>
+  </si>
+  <si>
+    <t>(D-AINF)</t>
+  </si>
+  <si>
+    <t>(D-AIZG)</t>
+  </si>
+  <si>
+    <t>7:42 AM</t>
+  </si>
+  <si>
+    <t>8:26 AM</t>
+  </si>
+  <si>
+    <t>9:16 AM</t>
+  </si>
+  <si>
+    <t>10:52 AM</t>
+  </si>
+  <si>
+    <t>11:21 AM</t>
+  </si>
+  <si>
+    <t>(SP-RKT)</t>
+  </si>
+  <si>
+    <t>11:14 AM</t>
+  </si>
+  <si>
+    <t>(OH-LKR)</t>
+  </si>
+  <si>
+    <t>(EI-DYN)</t>
+  </si>
+  <si>
+    <t>(SP-LNN)</t>
+  </si>
+  <si>
+    <t>(G-EUYL)</t>
+  </si>
+  <si>
+    <t>(D-AIRF)</t>
+  </si>
+  <si>
+    <t>(G-EZDA)</t>
+  </si>
+  <si>
+    <t>1:43 PM</t>
+  </si>
+  <si>
+    <t>(EI-IFX)</t>
+  </si>
+  <si>
+    <t>2:01 PM</t>
+  </si>
+  <si>
+    <t>2:58 PM</t>
+  </si>
+  <si>
+    <t>(HB-AZK)</t>
+  </si>
+  <si>
+    <t>3:12 PM</t>
+  </si>
+  <si>
+    <t>3:44 PM</t>
+  </si>
+  <si>
+    <t>3:57 PM</t>
+  </si>
+  <si>
+    <t>(EI-EKO)</t>
+  </si>
+  <si>
+    <t>(OE-IVQ)</t>
+  </si>
+  <si>
+    <t>(PH-EZB)</t>
   </si>
 </sst>
 </file>
@@ -5327,7 +5609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M1071"/>
+  <dimension ref="A1:M1207"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -44952,6 +45234,5038 @@
       </c>
       <c r="M1071" s="0"/>
     </row>
+    <row r="1072">
+      <c r="A1072" t="n" s="0">
+        <v>1071.0</v>
+      </c>
+      <c r="B1072" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1072" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D1072" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E1072" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F1072" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G1072" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H1072" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I1072" t="s" s="0">
+        <v>1299</v>
+      </c>
+      <c r="J1072" t="s" s="0">
+        <v>722</v>
+      </c>
+      <c r="K1072" s="0"/>
+      <c r="L1072" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M1072" s="0"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="n" s="0">
+        <v>1072.0</v>
+      </c>
+      <c r="B1073" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1073" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D1073" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="E1073" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="F1073" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="G1073" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1073" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I1073" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="J1073" t="s" s="0">
+        <v>1758</v>
+      </c>
+      <c r="K1073" s="0"/>
+      <c r="L1073" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M1073" s="0"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="n" s="0">
+        <v>1073.0</v>
+      </c>
+      <c r="B1074" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1074" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D1074" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E1074" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F1074" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G1074" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1074" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1074" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J1074" t="s" s="0">
+        <v>733</v>
+      </c>
+      <c r="K1074" s="0"/>
+      <c r="L1074" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M1074" s="0"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="n" s="0">
+        <v>1074.0</v>
+      </c>
+      <c r="B1075" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1075" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D1075" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E1075" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1075" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1075" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1075" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I1075" t="s" s="0">
+        <v>1759</v>
+      </c>
+      <c r="J1075" t="s" s="0">
+        <v>1684</v>
+      </c>
+      <c r="K1075" s="0"/>
+      <c r="L1075" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1075" s="0"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="n" s="0">
+        <v>1075.0</v>
+      </c>
+      <c r="B1076" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1076" t="s" s="0">
+        <v>1056</v>
+      </c>
+      <c r="D1076" t="s" s="0">
+        <v>1760</v>
+      </c>
+      <c r="E1076" t="s" s="0">
+        <v>1637</v>
+      </c>
+      <c r="F1076" t="s" s="0">
+        <v>1638</v>
+      </c>
+      <c r="G1076" t="s" s="0">
+        <v>1431</v>
+      </c>
+      <c r="H1076" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1076" t="s" s="0">
+        <v>1761</v>
+      </c>
+      <c r="J1076" t="s" s="0">
+        <v>1762</v>
+      </c>
+      <c r="K1076" s="0"/>
+      <c r="L1076" t="s" s="0">
+        <v>1395</v>
+      </c>
+      <c r="M1076" s="0"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="n" s="0">
+        <v>1076.0</v>
+      </c>
+      <c r="B1077" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1077" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D1077" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="E1077" t="s" s="0">
+        <v>421</v>
+      </c>
+      <c r="F1077" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="G1077" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1077" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1077" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J1077" t="s" s="0">
+        <v>1763</v>
+      </c>
+      <c r="K1077" s="0"/>
+      <c r="L1077" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M1077" s="0"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="n" s="0">
+        <v>1077.0</v>
+      </c>
+      <c r="B1078" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1078" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D1078" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="E1078" t="s" s="0">
+        <v>437</v>
+      </c>
+      <c r="F1078" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="G1078" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1078" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1078" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J1078" t="s" s="0">
+        <v>1663</v>
+      </c>
+      <c r="K1078" s="0"/>
+      <c r="L1078" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M1078" s="0"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="n" s="0">
+        <v>1078.0</v>
+      </c>
+      <c r="B1079" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1079" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D1079" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="E1079" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F1079" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="G1079" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1079" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1079" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="J1079" t="s" s="0">
+        <v>1764</v>
+      </c>
+      <c r="K1079" s="0"/>
+      <c r="L1079" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M1079" s="0"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="n" s="0">
+        <v>1079.0</v>
+      </c>
+      <c r="B1080" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1080" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="D1080" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="E1080" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F1080" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G1080" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1080" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1080" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J1080" t="s" s="0">
+        <v>1249</v>
+      </c>
+      <c r="K1080" s="0"/>
+      <c r="L1080" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M1080" s="0"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="n" s="0">
+        <v>1080.0</v>
+      </c>
+      <c r="B1081" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1081" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D1081" t="s" s="0">
+        <v>1304</v>
+      </c>
+      <c r="E1081" t="s" s="0">
+        <v>1305</v>
+      </c>
+      <c r="F1081" t="s" s="0">
+        <v>1306</v>
+      </c>
+      <c r="G1081" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1081" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1081" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J1081" t="s" s="0">
+        <v>909</v>
+      </c>
+      <c r="K1081" s="0"/>
+      <c r="L1081" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M1081" s="0"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n" s="0">
+        <v>1081.0</v>
+      </c>
+      <c r="B1082" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1082" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D1082" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="E1082" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="F1082" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="G1082" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1082" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1082" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J1082" t="s" s="0">
+        <v>1310</v>
+      </c>
+      <c r="K1082" s="0"/>
+      <c r="L1082" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="M1082" s="0"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n" s="0">
+        <v>1082.0</v>
+      </c>
+      <c r="B1083" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1083" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D1083" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E1083" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F1083" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1083" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1083" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1083" t="s" s="0">
+        <v>801</v>
+      </c>
+      <c r="J1083" t="s" s="0">
+        <v>1765</v>
+      </c>
+      <c r="K1083" s="0"/>
+      <c r="L1083" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M1083" s="0"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n" s="0">
+        <v>1083.0</v>
+      </c>
+      <c r="B1084" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1084" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D1084" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E1084" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F1084" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G1084" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1084" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1084" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J1084" t="s" s="0">
+        <v>751</v>
+      </c>
+      <c r="K1084" s="0"/>
+      <c r="L1084" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="M1084" s="0"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n" s="0">
+        <v>1084.0</v>
+      </c>
+      <c r="B1085" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1085" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="D1085" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E1085" t="s" s="0">
+        <v>454</v>
+      </c>
+      <c r="F1085" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1085" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1085" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1085" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J1085" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="K1085" s="0"/>
+      <c r="L1085" t="s" s="0">
+        <v>1766</v>
+      </c>
+      <c r="M1085" s="0"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n" s="0">
+        <v>1085.0</v>
+      </c>
+      <c r="B1086" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1086" t="s" s="0">
+        <v>1309</v>
+      </c>
+      <c r="D1086" t="s" s="0">
+        <v>1005</v>
+      </c>
+      <c r="E1086" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F1086" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G1086" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1086" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1086" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J1086" t="s" s="0">
+        <v>1767</v>
+      </c>
+      <c r="K1086" s="0"/>
+      <c r="L1086" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M1086" s="0"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n" s="0">
+        <v>1086.0</v>
+      </c>
+      <c r="B1087" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1087" t="s" s="0">
+        <v>1309</v>
+      </c>
+      <c r="D1087" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="E1087" t="s" s="0">
+        <v>1768</v>
+      </c>
+      <c r="F1087" t="s" s="0">
+        <v>1769</v>
+      </c>
+      <c r="G1087" t="s" s="0">
+        <v>977</v>
+      </c>
+      <c r="H1087" t="s" s="0">
+        <v>978</v>
+      </c>
+      <c r="I1087" t="s" s="0">
+        <v>979</v>
+      </c>
+      <c r="J1087" t="s" s="0">
+        <v>1314</v>
+      </c>
+      <c r="K1087" s="0"/>
+      <c r="L1087" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="M1087" s="0"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n" s="0">
+        <v>1087.0</v>
+      </c>
+      <c r="B1088" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1088" t="s" s="0">
+        <v>457</v>
+      </c>
+      <c r="D1088" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="E1088" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="F1088" t="s" s="0">
+        <v>460</v>
+      </c>
+      <c r="G1088" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1088" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1088" t="s" s="0">
+        <v>1524</v>
+      </c>
+      <c r="J1088" t="s" s="0">
+        <v>1770</v>
+      </c>
+      <c r="K1088" s="0"/>
+      <c r="L1088" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M1088" s="0"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n" s="0">
+        <v>1088.0</v>
+      </c>
+      <c r="B1089" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1089" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D1089" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E1089" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1089" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1089" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1089" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1089" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J1089" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="K1089" s="0"/>
+      <c r="L1089" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="M1089" s="0"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n" s="0">
+        <v>1089.0</v>
+      </c>
+      <c r="B1090" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1090" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D1090" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E1090" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1090" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1090" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1090" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I1090" t="s" s="0">
+        <v>1476</v>
+      </c>
+      <c r="J1090" t="s" s="0">
+        <v>1156</v>
+      </c>
+      <c r="K1090" s="0"/>
+      <c r="L1090" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M1090" s="0"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n" s="0">
+        <v>1090.0</v>
+      </c>
+      <c r="B1091" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1091" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D1091" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="E1091" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="F1091" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G1091" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="H1091" t="s" s="0">
+        <v>1162</v>
+      </c>
+      <c r="I1091" t="s" s="0">
+        <v>1771</v>
+      </c>
+      <c r="J1091" t="s" s="0">
+        <v>1772</v>
+      </c>
+      <c r="K1091" s="0"/>
+      <c r="L1091" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="M1091" s="0"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n" s="0">
+        <v>1091.0</v>
+      </c>
+      <c r="B1092" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1092" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="D1092" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E1092" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1092" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G1092" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1092" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1092" t="s" s="0">
+        <v>1773</v>
+      </c>
+      <c r="J1092" t="s" s="0">
+        <v>1316</v>
+      </c>
+      <c r="K1092" s="0"/>
+      <c r="L1092" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M1092" s="0"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n" s="0">
+        <v>1092.0</v>
+      </c>
+      <c r="B1093" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1093" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D1093" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="E1093" t="s" s="0">
+        <v>482</v>
+      </c>
+      <c r="F1093" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="G1093" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H1093" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1093" t="s" s="0">
+        <v>1320</v>
+      </c>
+      <c r="J1093" t="s" s="0">
+        <v>1166</v>
+      </c>
+      <c r="K1093" s="0"/>
+      <c r="L1093" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="M1093" s="0"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n" s="0">
+        <v>1093.0</v>
+      </c>
+      <c r="B1094" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1094" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D1094" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="E1094" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1094" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1094" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1094" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I1094" t="s" s="0">
+        <v>1774</v>
+      </c>
+      <c r="J1094" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K1094" s="0"/>
+      <c r="L1094" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M1094" s="0"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n" s="0">
+        <v>1094.0</v>
+      </c>
+      <c r="B1095" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1095" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="D1095" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="E1095" t="s" s="0">
+        <v>511</v>
+      </c>
+      <c r="F1095" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="G1095" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1095" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1095" t="s" s="0">
+        <v>1484</v>
+      </c>
+      <c r="J1095" t="s" s="0">
+        <v>784</v>
+      </c>
+      <c r="K1095" s="0"/>
+      <c r="L1095" t="s" s="0">
+        <v>1445</v>
+      </c>
+      <c r="M1095" s="0"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n" s="0">
+        <v>1095.0</v>
+      </c>
+      <c r="B1096" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1096" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="D1096" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E1096" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F1096" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G1096" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1096" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1096" t="s" s="0">
+        <v>1775</v>
+      </c>
+      <c r="J1096" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="K1096" s="0"/>
+      <c r="L1096" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="M1096" s="0"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n" s="0">
+        <v>1096.0</v>
+      </c>
+      <c r="B1097" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1097" t="s" s="0">
+        <v>527</v>
+      </c>
+      <c r="D1097" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="E1097" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F1097" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G1097" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1097" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1097" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J1097" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="K1097" s="0"/>
+      <c r="L1097" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M1097" s="0"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n" s="0">
+        <v>1097.0</v>
+      </c>
+      <c r="B1098" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1098" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="D1098" t="s" s="0">
+        <v>530</v>
+      </c>
+      <c r="E1098" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="F1098" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="G1098" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1098" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1098" t="s" s="0">
+        <v>1776</v>
+      </c>
+      <c r="J1098" t="s" s="0">
+        <v>1585</v>
+      </c>
+      <c r="K1098" s="0"/>
+      <c r="L1098" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M1098" s="0"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n" s="0">
+        <v>1098.0</v>
+      </c>
+      <c r="B1099" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1099" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D1099" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E1099" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1099" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G1099" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H1099" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1099" t="s" s="0">
+        <v>1187</v>
+      </c>
+      <c r="J1099" t="s" s="0">
+        <v>1777</v>
+      </c>
+      <c r="K1099" s="0"/>
+      <c r="L1099" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M1099" s="0"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n" s="0">
+        <v>1099.0</v>
+      </c>
+      <c r="B1100" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1100" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D1100" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E1100" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F1100" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G1100" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1100" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1100" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J1100" t="s" s="0">
+        <v>1331</v>
+      </c>
+      <c r="K1100" s="0"/>
+      <c r="L1100" t="s" s="0">
+        <v>1403</v>
+      </c>
+      <c r="M1100" s="0"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n" s="0">
+        <v>1100.0</v>
+      </c>
+      <c r="B1101" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1101" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D1101" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E1101" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F1101" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G1101" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H1101" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1101" t="s" s="0">
+        <v>1778</v>
+      </c>
+      <c r="J1101" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="K1101" s="0"/>
+      <c r="L1101" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M1101" s="0"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n" s="0">
+        <v>1101.0</v>
+      </c>
+      <c r="B1102" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1102" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D1102" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E1102" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="F1102" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="G1102" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="H1102" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1102" t="s" s="0">
+        <v>1779</v>
+      </c>
+      <c r="J1102" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="K1102" s="0"/>
+      <c r="L1102" t="s" s="0">
+        <v>1780</v>
+      </c>
+      <c r="M1102" s="0"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n" s="0">
+        <v>1102.0</v>
+      </c>
+      <c r="B1103" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1103" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D1103" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E1103" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1103" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1103" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1103" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I1103" t="s" s="0">
+        <v>1781</v>
+      </c>
+      <c r="J1103" t="s" s="0">
+        <v>777</v>
+      </c>
+      <c r="K1103" s="0"/>
+      <c r="L1103" t="s" s="0">
+        <v>1157</v>
+      </c>
+      <c r="M1103" s="0"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n" s="0">
+        <v>1103.0</v>
+      </c>
+      <c r="B1104" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1104" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D1104" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E1104" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1104" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G1104" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1104" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1104" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="J1104" t="s" s="0">
+        <v>1782</v>
+      </c>
+      <c r="K1104" s="0"/>
+      <c r="L1104" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M1104" s="0"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n" s="0">
+        <v>1104.0</v>
+      </c>
+      <c r="B1105" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1105" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="D1105" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E1105" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1105" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G1105" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H1105" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1105" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="J1105" t="s" s="0">
+        <v>1082</v>
+      </c>
+      <c r="K1105" s="0"/>
+      <c r="L1105" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M1105" s="0"/>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="n" s="0">
+        <v>1105.0</v>
+      </c>
+      <c r="B1106" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1106" t="s" s="0">
+        <v>1331</v>
+      </c>
+      <c r="D1106" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E1106" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F1106" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="G1106" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1106" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1106" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="J1106" t="s" s="0">
+        <v>1008</v>
+      </c>
+      <c r="K1106" s="0"/>
+      <c r="L1106" t="s" s="0">
+        <v>1784</v>
+      </c>
+      <c r="M1106" s="0"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="n" s="0">
+        <v>1106.0</v>
+      </c>
+      <c r="B1107" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1107" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D1107" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="E1107" t="s" s="0">
+        <v>556</v>
+      </c>
+      <c r="F1107" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="G1107" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1107" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1107" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J1107" t="s" s="0">
+        <v>1151</v>
+      </c>
+      <c r="K1107" s="0"/>
+      <c r="L1107" t="s" s="0">
+        <v>1433</v>
+      </c>
+      <c r="M1107" s="0"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="n" s="0">
+        <v>1107.0</v>
+      </c>
+      <c r="B1108" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1108" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D1108" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="E1108" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F1108" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="G1108" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1108" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1108" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="J1108" t="s" s="0">
+        <v>1785</v>
+      </c>
+      <c r="K1108" s="0"/>
+      <c r="L1108" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M1108" s="0"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="n" s="0">
+        <v>1108.0</v>
+      </c>
+      <c r="B1109" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1109" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D1109" t="s" s="0">
+        <v>562</v>
+      </c>
+      <c r="E1109" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="F1109" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="G1109" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1109" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1109" t="s" s="0">
+        <v>846</v>
+      </c>
+      <c r="J1109" t="s" s="0">
+        <v>799</v>
+      </c>
+      <c r="K1109" s="0"/>
+      <c r="L1109" t="s" s="0">
+        <v>1333</v>
+      </c>
+      <c r="M1109" s="0"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="n" s="0">
+        <v>1109.0</v>
+      </c>
+      <c r="B1110" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1110" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D1110" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E1110" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F1110" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1110" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1110" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1110" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="J1110" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="K1110" s="0"/>
+      <c r="L1110" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="M1110" s="0"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="n" s="0">
+        <v>1110.0</v>
+      </c>
+      <c r="B1111" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1111" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D1111" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E1111" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F1111" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G1111" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1111" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1111" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J1111" t="s" s="0">
+        <v>1406</v>
+      </c>
+      <c r="K1111" s="0"/>
+      <c r="L1111" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M1111" s="0"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n" s="0">
+        <v>1111.0</v>
+      </c>
+      <c r="B1112" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1112" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="D1112" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E1112" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F1112" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G1112" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1112" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1112" t="s" s="0">
+        <v>1786</v>
+      </c>
+      <c r="J1112" t="s" s="0">
+        <v>1601</v>
+      </c>
+      <c r="K1112" s="0"/>
+      <c r="L1112" t="s" s="0">
+        <v>970</v>
+      </c>
+      <c r="M1112" s="0"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n" s="0">
+        <v>1112.0</v>
+      </c>
+      <c r="B1113" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1113" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="D1113" t="s" s="0">
+        <v>584</v>
+      </c>
+      <c r="E1113" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="F1113" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="G1113" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1113" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1113" t="s" s="0">
+        <v>888</v>
+      </c>
+      <c r="J1113" t="s" s="0">
+        <v>1787</v>
+      </c>
+      <c r="K1113" s="0"/>
+      <c r="L1113" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="M1113" s="0"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n" s="0">
+        <v>1113.0</v>
+      </c>
+      <c r="B1114" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1114" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="D1114" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="E1114" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F1114" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G1114" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1114" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1114" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J1114" t="s" s="0">
+        <v>815</v>
+      </c>
+      <c r="K1114" s="0"/>
+      <c r="L1114" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M1114" s="0"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n" s="0">
+        <v>1114.0</v>
+      </c>
+      <c r="B1115" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1115" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D1115" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E1115" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1115" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1115" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1115" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1115" t="s" s="0">
+        <v>993</v>
+      </c>
+      <c r="J1115" t="s" s="0">
+        <v>840</v>
+      </c>
+      <c r="K1115" s="0"/>
+      <c r="L1115" t="s" s="0">
+        <v>1312</v>
+      </c>
+      <c r="M1115" s="0"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n" s="0">
+        <v>1115.0</v>
+      </c>
+      <c r="B1116" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1116" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D1116" t="s" s="0">
+        <v>596</v>
+      </c>
+      <c r="E1116" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="F1116" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="G1116" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1116" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1116" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J1116" t="s" s="0">
+        <v>1788</v>
+      </c>
+      <c r="K1116" s="0"/>
+      <c r="L1116" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="M1116" s="0"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n" s="0">
+        <v>1116.0</v>
+      </c>
+      <c r="B1117" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1117" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D1117" t="s" s="0">
+        <v>600</v>
+      </c>
+      <c r="E1117" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="F1117" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="G1117" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1117" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1117" t="s" s="0">
+        <v>1789</v>
+      </c>
+      <c r="J1117" t="s" s="0">
+        <v>844</v>
+      </c>
+      <c r="K1117" s="0"/>
+      <c r="L1117" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M1117" s="0"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="n" s="0">
+        <v>1117.0</v>
+      </c>
+      <c r="B1118" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1118" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D1118" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="E1118" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F1118" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G1118" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1118" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1118" t="s" s="0">
+        <v>1790</v>
+      </c>
+      <c r="J1118" t="s" s="0">
+        <v>1791</v>
+      </c>
+      <c r="K1118" s="0"/>
+      <c r="L1118" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M1118" s="0"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="n" s="0">
+        <v>1118.0</v>
+      </c>
+      <c r="B1119" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1119" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D1119" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="E1119" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="F1119" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="G1119" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1119" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1119" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J1119" t="s" s="0">
+        <v>819</v>
+      </c>
+      <c r="K1119" s="0"/>
+      <c r="L1119" t="s" s="0">
+        <v>818</v>
+      </c>
+      <c r="M1119" s="0"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="n" s="0">
+        <v>1119.0</v>
+      </c>
+      <c r="B1120" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1120" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D1120" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="E1120" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="F1120" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="G1120" t="s" s="0">
+        <v>1792</v>
+      </c>
+      <c r="H1120" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I1120" t="s" s="0">
+        <v>1793</v>
+      </c>
+      <c r="J1120" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="K1120" s="0"/>
+      <c r="L1120" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M1120" s="0"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="n" s="0">
+        <v>1120.0</v>
+      </c>
+      <c r="B1121" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1121" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="D1121" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="E1121" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1121" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G1121" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1121" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1121" t="s" s="0">
+        <v>1794</v>
+      </c>
+      <c r="J1121" t="s" s="0">
+        <v>850</v>
+      </c>
+      <c r="K1121" s="0"/>
+      <c r="L1121" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M1121" s="0"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="n" s="0">
+        <v>1121.0</v>
+      </c>
+      <c r="B1122" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1122" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D1122" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E1122" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F1122" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G1122" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H1122" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1122" t="s" s="0">
+        <v>1795</v>
+      </c>
+      <c r="J1122" t="s" s="0">
+        <v>1616</v>
+      </c>
+      <c r="K1122" s="0"/>
+      <c r="L1122" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="M1122" s="0"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="n" s="0">
+        <v>1122.0</v>
+      </c>
+      <c r="B1123" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1123" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="D1123" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E1123" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1123" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G1123" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1123" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1123" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J1123" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="K1123" s="0"/>
+      <c r="L1123" t="s" s="0">
+        <v>1752</v>
+      </c>
+      <c r="M1123" s="0"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="n" s="0">
+        <v>1123.0</v>
+      </c>
+      <c r="B1124" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1124" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D1124" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="E1124" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="F1124" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="G1124" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1124" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1124" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="J1124" t="s" s="0">
+        <v>1652</v>
+      </c>
+      <c r="K1124" s="0"/>
+      <c r="L1124" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="M1124" s="0"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="n" s="0">
+        <v>1124.0</v>
+      </c>
+      <c r="B1125" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1125" t="s" s="0">
+        <v>1351</v>
+      </c>
+      <c r="D1125" t="s" s="0">
+        <v>1059</v>
+      </c>
+      <c r="E1125" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="F1125" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="G1125" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1125" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1125" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J1125" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="K1125" s="0"/>
+      <c r="L1125" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M1125" s="0"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="n" s="0">
+        <v>1125.0</v>
+      </c>
+      <c r="B1126" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1126" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="D1126" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="E1126" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="F1126" t="s" s="0">
+        <v>636</v>
+      </c>
+      <c r="G1126" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1126" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1126" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J1126" t="s" s="0">
+        <v>1797</v>
+      </c>
+      <c r="K1126" s="0"/>
+      <c r="L1126" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M1126" s="0"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="n" s="0">
+        <v>1126.0</v>
+      </c>
+      <c r="B1127" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1127" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D1127" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E1127" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1127" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1127" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1127" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1127" t="s" s="0">
+        <v>1798</v>
+      </c>
+      <c r="J1127" t="s" s="0">
+        <v>654</v>
+      </c>
+      <c r="K1127" s="0"/>
+      <c r="L1127" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="M1127" s="0"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="n" s="0">
+        <v>1127.0</v>
+      </c>
+      <c r="B1128" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1128" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D1128" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E1128" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1128" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G1128" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1128" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1128" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="J1128" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="K1128" s="0"/>
+      <c r="L1128" t="s" s="0">
+        <v>1799</v>
+      </c>
+      <c r="M1128" s="0"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="n" s="0">
+        <v>1128.0</v>
+      </c>
+      <c r="B1129" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1129" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D1129" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E1129" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F1129" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G1129" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1129" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1129" t="s" s="0">
+        <v>1537</v>
+      </c>
+      <c r="J1129" t="s" s="0">
+        <v>1471</v>
+      </c>
+      <c r="K1129" s="0"/>
+      <c r="L1129" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M1129" s="0"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n" s="0">
+        <v>1129.0</v>
+      </c>
+      <c r="B1130" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1130" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="D1130" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E1130" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1130" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1130" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1130" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1130" t="s" s="0">
+        <v>1047</v>
+      </c>
+      <c r="J1130" t="s" s="0">
+        <v>1800</v>
+      </c>
+      <c r="K1130" s="0"/>
+      <c r="L1130" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M1130" s="0"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n" s="0">
+        <v>1130.0</v>
+      </c>
+      <c r="B1131" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1131" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="D1131" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E1131" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F1131" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G1131" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1131" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1131" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J1131" t="s" s="0">
+        <v>1801</v>
+      </c>
+      <c r="K1131" s="0"/>
+      <c r="L1131" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="M1131" s="0"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n" s="0">
+        <v>1131.0</v>
+      </c>
+      <c r="B1132" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1132" t="s" s="0">
+        <v>653</v>
+      </c>
+      <c r="D1132" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E1132" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1132" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G1132" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1132" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1132" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J1132" t="s" s="0">
+        <v>1802</v>
+      </c>
+      <c r="K1132" s="0"/>
+      <c r="L1132" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M1132" s="0"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n" s="0">
+        <v>1132.0</v>
+      </c>
+      <c r="B1133" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1133" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D1133" t="s" s="0">
+        <v>1020</v>
+      </c>
+      <c r="E1133" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F1133" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G1133" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H1133" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I1133" t="s" s="0">
+        <v>1803</v>
+      </c>
+      <c r="J1133" t="s" s="0">
+        <v>962</v>
+      </c>
+      <c r="K1133" s="0"/>
+      <c r="L1133" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M1133" s="0"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n" s="0">
+        <v>1133.0</v>
+      </c>
+      <c r="B1134" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1134" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D1134" t="s" s="0">
+        <v>331</v>
+      </c>
+      <c r="E1134" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1134" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1134" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1134" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="I1134" t="s" s="0">
+        <v>1653</v>
+      </c>
+      <c r="J1134" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="K1134" s="0"/>
+      <c r="L1134" t="s" s="0">
+        <v>707</v>
+      </c>
+      <c r="M1134" s="0"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n" s="0">
+        <v>1134.0</v>
+      </c>
+      <c r="B1135" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1135" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D1135" t="s" s="0">
+        <v>657</v>
+      </c>
+      <c r="E1135" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1135" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G1135" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1135" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1135" t="s" s="0">
+        <v>1804</v>
+      </c>
+      <c r="J1135" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="K1135" s="0"/>
+      <c r="L1135" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1135" s="0"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="n" s="0">
+        <v>1135.0</v>
+      </c>
+      <c r="B1136" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1136" t="s" s="0">
+        <v>660</v>
+      </c>
+      <c r="D1136" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="E1136" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F1136" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="G1136" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1136" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1136" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J1136" t="s" s="0">
+        <v>869</v>
+      </c>
+      <c r="K1136" s="0"/>
+      <c r="L1136" t="s" s="0">
+        <v>1805</v>
+      </c>
+      <c r="M1136" s="0"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="n" s="0">
+        <v>1136.0</v>
+      </c>
+      <c r="B1137" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1137" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="D1137" t="s" s="0">
+        <v>665</v>
+      </c>
+      <c r="E1137" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="F1137" t="s" s="0">
+        <v>666</v>
+      </c>
+      <c r="G1137" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1137" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1137" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="J1137" t="s" s="0">
+        <v>667</v>
+      </c>
+      <c r="K1137" s="0"/>
+      <c r="L1137" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1137" s="0"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="n" s="0">
+        <v>1137.0</v>
+      </c>
+      <c r="B1138" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1138" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="D1138" t="s" s="0">
+        <v>1806</v>
+      </c>
+      <c r="E1138" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1138" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1138" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1138" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I1138" t="s" s="0">
+        <v>1807</v>
+      </c>
+      <c r="J1138" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="K1138" s="0"/>
+      <c r="L1138" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M1138" s="0"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="n" s="0">
+        <v>1138.0</v>
+      </c>
+      <c r="B1139" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1139" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="D1139" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E1139" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1139" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1139" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1139" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1139" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J1139" t="s" s="0">
+        <v>882</v>
+      </c>
+      <c r="K1139" s="0"/>
+      <c r="L1139" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="M1139" s="0"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="n" s="0">
+        <v>1139.0</v>
+      </c>
+      <c r="B1140" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1140" t="s" s="0">
+        <v>669</v>
+      </c>
+      <c r="D1140" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="E1140" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="F1140" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="G1140" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1140" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1140" t="s" s="0">
+        <v>1808</v>
+      </c>
+      <c r="J1140" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="K1140" s="0"/>
+      <c r="L1140" t="s" s="0">
+        <v>982</v>
+      </c>
+      <c r="M1140" s="0"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="n" s="0">
+        <v>1140.0</v>
+      </c>
+      <c r="B1141" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1141" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D1141" t="s" s="0">
+        <v>685</v>
+      </c>
+      <c r="E1141" t="s" s="0">
+        <v>686</v>
+      </c>
+      <c r="F1141" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="G1141" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1141" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1141" t="s" s="0">
+        <v>1809</v>
+      </c>
+      <c r="J1141" t="s" s="0">
+        <v>1810</v>
+      </c>
+      <c r="K1141" s="0"/>
+      <c r="L1141" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="M1141" s="0"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="n" s="0">
+        <v>1141.0</v>
+      </c>
+      <c r="B1142" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1142" t="s" s="0">
+        <v>684</v>
+      </c>
+      <c r="D1142" t="s" s="0">
+        <v>690</v>
+      </c>
+      <c r="E1142" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F1142" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G1142" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1142" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1142" t="s" s="0">
+        <v>1786</v>
+      </c>
+      <c r="J1142" t="s" s="0">
+        <v>1811</v>
+      </c>
+      <c r="K1142" s="0"/>
+      <c r="L1142" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M1142" s="0"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="n" s="0">
+        <v>1142.0</v>
+      </c>
+      <c r="B1143" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1143" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="D1143" t="s" s="0">
+        <v>694</v>
+      </c>
+      <c r="E1143" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F1143" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G1143" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1143" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1143" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J1143" t="s" s="0">
+        <v>1038</v>
+      </c>
+      <c r="K1143" s="0"/>
+      <c r="L1143" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M1143" s="0"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="n" s="0">
+        <v>1143.0</v>
+      </c>
+      <c r="B1144" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1144" t="s" s="0">
+        <v>1368</v>
+      </c>
+      <c r="D1144" t="s" s="0">
+        <v>1173</v>
+      </c>
+      <c r="E1144" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="F1144" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="G1144" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1144" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1144" t="s" s="0">
+        <v>1812</v>
+      </c>
+      <c r="J1144" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="K1144" s="0"/>
+      <c r="L1144" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="M1144" s="0"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="n" s="0">
+        <v>1144.0</v>
+      </c>
+      <c r="B1145" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1145" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="D1145" t="s" s="0">
+        <v>698</v>
+      </c>
+      <c r="E1145" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1145" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1145" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1145" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1145" t="s" s="0">
+        <v>1813</v>
+      </c>
+      <c r="J1145" t="s" s="0">
+        <v>1814</v>
+      </c>
+      <c r="K1145" s="0"/>
+      <c r="L1145" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="M1145" s="0"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="n" s="0">
+        <v>1145.0</v>
+      </c>
+      <c r="B1146" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1146" t="s" s="0">
+        <v>1235</v>
+      </c>
+      <c r="D1146" t="s" s="0">
+        <v>1373</v>
+      </c>
+      <c r="E1146" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1146" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G1146" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1146" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1146" t="s" s="0">
+        <v>1815</v>
+      </c>
+      <c r="J1146" t="s" s="0">
+        <v>1816</v>
+      </c>
+      <c r="K1146" s="0"/>
+      <c r="L1146" t="s" s="0">
+        <v>871</v>
+      </c>
+      <c r="M1146" s="0"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="n" s="0">
+        <v>1146.0</v>
+      </c>
+      <c r="B1147" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1147" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="D1147" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E1147" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F1147" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="G1147" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1147" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1147" t="s" s="0">
+        <v>1564</v>
+      </c>
+      <c r="J1147" t="s" s="0">
+        <v>1817</v>
+      </c>
+      <c r="K1147" s="0"/>
+      <c r="L1147" t="s" s="0">
+        <v>1429</v>
+      </c>
+      <c r="M1147" s="0"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="n" s="0">
+        <v>1147.0</v>
+      </c>
+      <c r="B1148" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1148" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="D1148" t="s" s="0">
+        <v>704</v>
+      </c>
+      <c r="E1148" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1148" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G1148" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H1148" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1148" t="s" s="0">
+        <v>1818</v>
+      </c>
+      <c r="J1148" t="s" s="0">
+        <v>711</v>
+      </c>
+      <c r="K1148" s="0"/>
+      <c r="L1148" t="s" s="0">
+        <v>1694</v>
+      </c>
+      <c r="M1148" s="0"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="n" s="0">
+        <v>1148.0</v>
+      </c>
+      <c r="B1149" t="s" s="0">
+        <v>1757</v>
+      </c>
+      <c r="C1149" t="s" s="0">
+        <v>708</v>
+      </c>
+      <c r="D1149" t="s" s="0">
+        <v>709</v>
+      </c>
+      <c r="E1149" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F1149" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G1149" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1149" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1149" t="s" s="0">
+        <v>710</v>
+      </c>
+      <c r="J1149" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="K1149" s="0"/>
+      <c r="L1149" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="M1149" s="0"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="n" s="0">
+        <v>1149.0</v>
+      </c>
+      <c r="B1150" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1150" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D1150" t="s" s="0">
+        <v>1141</v>
+      </c>
+      <c r="E1150" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1150" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1150" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1150" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1150" t="s" s="0">
+        <v>1820</v>
+      </c>
+      <c r="J1150" t="s" s="0">
+        <v>1821</v>
+      </c>
+      <c r="K1150" s="0"/>
+      <c r="L1150" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M1150" s="0"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="n" s="0">
+        <v>1150.0</v>
+      </c>
+      <c r="B1151" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1151" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D1151" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E1151" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1151" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1151" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1151" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I1151" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="J1151" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="K1151" s="0"/>
+      <c r="L1151" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M1151" s="0"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="n" s="0">
+        <v>1151.0</v>
+      </c>
+      <c r="B1152" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1152" t="s" s="0">
+        <v>714</v>
+      </c>
+      <c r="D1152" t="s" s="0">
+        <v>715</v>
+      </c>
+      <c r="E1152" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1152" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1152" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1152" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1152" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="J1152" t="s" s="0">
+        <v>1822</v>
+      </c>
+      <c r="K1152" s="0"/>
+      <c r="L1152" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="M1152" s="0"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="n" s="0">
+        <v>1152.0</v>
+      </c>
+      <c r="B1153" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1153" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D1153" t="s" s="0">
+        <v>717</v>
+      </c>
+      <c r="E1153" t="s" s="0">
+        <v>718</v>
+      </c>
+      <c r="F1153" t="s" s="0">
+        <v>719</v>
+      </c>
+      <c r="G1153" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1153" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1153" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J1153" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="K1153" s="0"/>
+      <c r="L1153" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M1153" s="0"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n" s="0">
+        <v>1153.0</v>
+      </c>
+      <c r="B1154" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1154" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="D1154" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="E1154" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F1154" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G1154" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H1154" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1154" t="s" s="0">
+        <v>1823</v>
+      </c>
+      <c r="J1154" t="s" s="0">
+        <v>1051</v>
+      </c>
+      <c r="K1154" s="0"/>
+      <c r="L1154" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="M1154" s="0"/>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n" s="0">
+        <v>1154.0</v>
+      </c>
+      <c r="B1155" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1155" t="s" s="0">
+        <v>723</v>
+      </c>
+      <c r="D1155" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="E1155" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1155" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G1155" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1155" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1155" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J1155" t="s" s="0">
+        <v>1824</v>
+      </c>
+      <c r="K1155" s="0"/>
+      <c r="L1155" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M1155" s="0"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n" s="0">
+        <v>1155.0</v>
+      </c>
+      <c r="B1156" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1156" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1156" t="s" s="0">
+        <v>724</v>
+      </c>
+      <c r="E1156" t="s" s="0">
+        <v>725</v>
+      </c>
+      <c r="F1156" t="s" s="0">
+        <v>726</v>
+      </c>
+      <c r="G1156" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1156" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1156" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J1156" t="s" s="0">
+        <v>1052</v>
+      </c>
+      <c r="K1156" s="0"/>
+      <c r="L1156" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="M1156" s="0"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n" s="0">
+        <v>1156.0</v>
+      </c>
+      <c r="B1157" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1157" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D1157" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E1157" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1157" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1157" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1157" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I1157" t="s" s="0">
+        <v>1825</v>
+      </c>
+      <c r="J1157" t="s" s="0">
+        <v>1480</v>
+      </c>
+      <c r="K1157" s="0"/>
+      <c r="L1157" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M1157" s="0"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n" s="0">
+        <v>1157.0</v>
+      </c>
+      <c r="B1158" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1158" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="D1158" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="E1158" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="F1158" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="G1158" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1158" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1158" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J1158" t="s" s="0">
+        <v>424</v>
+      </c>
+      <c r="K1158" s="0"/>
+      <c r="L1158" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1158" s="0"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n" s="0">
+        <v>1158.0</v>
+      </c>
+      <c r="B1159" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1159" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D1159" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="E1159" t="s" s="0">
+        <v>731</v>
+      </c>
+      <c r="F1159" t="s" s="0">
+        <v>732</v>
+      </c>
+      <c r="G1159" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1159" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1159" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J1159" t="s" s="0">
+        <v>1243</v>
+      </c>
+      <c r="K1159" s="0"/>
+      <c r="L1159" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="M1159" s="0"/>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="n" s="0">
+        <v>1159.0</v>
+      </c>
+      <c r="B1160" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1160" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D1160" t="s" s="0">
+        <v>734</v>
+      </c>
+      <c r="E1160" t="s" s="0">
+        <v>735</v>
+      </c>
+      <c r="F1160" t="s" s="0">
+        <v>736</v>
+      </c>
+      <c r="G1160" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1160" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1160" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J1160" t="s" s="0">
+        <v>739</v>
+      </c>
+      <c r="K1160" s="0"/>
+      <c r="L1160" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M1160" s="0"/>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="n" s="0">
+        <v>1160.0</v>
+      </c>
+      <c r="B1161" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1161" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D1161" t="s" s="0">
+        <v>432</v>
+      </c>
+      <c r="E1161" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1161" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1161" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1161" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1161" t="s" s="0">
+        <v>1447</v>
+      </c>
+      <c r="J1161" t="s" s="0">
+        <v>1147</v>
+      </c>
+      <c r="K1161" s="0"/>
+      <c r="L1161" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M1161" s="0"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="n" s="0">
+        <v>1161.0</v>
+      </c>
+      <c r="B1162" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1162" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D1162" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E1162" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1162" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="G1162" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1162" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1162" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J1162" t="s" s="0">
+        <v>1148</v>
+      </c>
+      <c r="K1162" s="0"/>
+      <c r="L1162" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M1162" s="0"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="n" s="0">
+        <v>1162.0</v>
+      </c>
+      <c r="B1163" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1163" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D1163" t="s" s="0">
+        <v>741</v>
+      </c>
+      <c r="E1163" t="s" s="0">
+        <v>742</v>
+      </c>
+      <c r="F1163" t="s" s="0">
+        <v>743</v>
+      </c>
+      <c r="G1163" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1163" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1163" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J1163" t="s" s="0">
+        <v>1245</v>
+      </c>
+      <c r="K1163" s="0"/>
+      <c r="L1163" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M1163" s="0"/>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="n" s="0">
+        <v>1163.0</v>
+      </c>
+      <c r="B1164" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1164" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="D1164" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E1164" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F1164" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G1164" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H1164" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I1164" t="s" s="0">
+        <v>1660</v>
+      </c>
+      <c r="J1164" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="K1164" s="0"/>
+      <c r="L1164" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="M1164" s="0"/>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="n" s="0">
+        <v>1164.0</v>
+      </c>
+      <c r="B1165" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1165" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D1165" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="E1165" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F1165" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1165" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1165" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1165" t="s" s="0">
+        <v>1826</v>
+      </c>
+      <c r="J1165" t="s" s="0">
+        <v>1827</v>
+      </c>
+      <c r="K1165" s="0"/>
+      <c r="L1165" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="M1165" s="0"/>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="n" s="0">
+        <v>1165.0</v>
+      </c>
+      <c r="B1166" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1166" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="D1166" t="s" s="0">
+        <v>750</v>
+      </c>
+      <c r="E1166" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="F1166" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="G1166" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1166" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1166" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="J1166" t="s" s="0">
+        <v>1828</v>
+      </c>
+      <c r="K1166" s="0"/>
+      <c r="L1166" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M1166" s="0"/>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="n" s="0">
+        <v>1166.0</v>
+      </c>
+      <c r="B1167" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1167" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="D1167" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="E1167" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1167" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1167" t="s" s="0">
+        <v>1792</v>
+      </c>
+      <c r="H1167" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="I1167" t="s" s="0">
+        <v>1793</v>
+      </c>
+      <c r="J1167" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="K1167" s="0"/>
+      <c r="L1167" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M1167" s="0"/>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="n" s="0">
+        <v>1167.0</v>
+      </c>
+      <c r="B1168" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1168" t="s" s="0">
+        <v>753</v>
+      </c>
+      <c r="D1168" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E1168" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F1168" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G1168" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1168" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1168" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J1168" t="s" s="0">
+        <v>1829</v>
+      </c>
+      <c r="K1168" s="0"/>
+      <c r="L1168" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="M1168" s="0"/>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="n" s="0">
+        <v>1168.0</v>
+      </c>
+      <c r="B1169" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1169" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D1169" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="E1169" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1169" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="G1169" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1169" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1169" t="s" s="0">
+        <v>1633</v>
+      </c>
+      <c r="J1169" t="s" s="0">
+        <v>1746</v>
+      </c>
+      <c r="K1169" s="0"/>
+      <c r="L1169" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M1169" s="0"/>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="n" s="0">
+        <v>1169.0</v>
+      </c>
+      <c r="B1170" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1170" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="D1170" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="E1170" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="F1170" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="G1170" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1170" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1170" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J1170" t="s" s="0">
+        <v>1830</v>
+      </c>
+      <c r="K1170" s="0"/>
+      <c r="L1170" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="M1170" s="0"/>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="n" s="0">
+        <v>1170.0</v>
+      </c>
+      <c r="B1171" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1171" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="D1171" t="s" s="0">
+        <v>759</v>
+      </c>
+      <c r="E1171" t="s" s="0">
+        <v>760</v>
+      </c>
+      <c r="F1171" t="s" s="0">
+        <v>761</v>
+      </c>
+      <c r="G1171" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1171" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1171" t="s" s="0">
+        <v>762</v>
+      </c>
+      <c r="J1171" t="s" s="0">
+        <v>1831</v>
+      </c>
+      <c r="K1171" s="0"/>
+      <c r="L1171" t="s" s="0">
+        <v>794</v>
+      </c>
+      <c r="M1171" s="0"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="n" s="0">
+        <v>1171.0</v>
+      </c>
+      <c r="B1172" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1172" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="D1172" t="s" s="0">
+        <v>764</v>
+      </c>
+      <c r="E1172" t="s" s="0">
+        <v>765</v>
+      </c>
+      <c r="F1172" t="s" s="0">
+        <v>766</v>
+      </c>
+      <c r="G1172" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1172" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1172" t="s" s="0">
+        <v>1832</v>
+      </c>
+      <c r="J1172" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="K1172" s="0"/>
+      <c r="L1172" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="M1172" s="0"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="n" s="0">
+        <v>1172.0</v>
+      </c>
+      <c r="B1173" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1173" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="D1173" t="s" s="0">
+        <v>670</v>
+      </c>
+      <c r="E1173" t="s" s="0">
+        <v>671</v>
+      </c>
+      <c r="F1173" t="s" s="0">
+        <v>672</v>
+      </c>
+      <c r="G1173" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1173" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1173" t="s" s="0">
+        <v>1583</v>
+      </c>
+      <c r="J1173" t="s" s="0">
+        <v>1833</v>
+      </c>
+      <c r="K1173" s="0"/>
+      <c r="L1173" t="s" s="0">
+        <v>738</v>
+      </c>
+      <c r="M1173" s="0"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="n" s="0">
+        <v>1173.0</v>
+      </c>
+      <c r="B1174" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1174" t="s" s="0">
+        <v>769</v>
+      </c>
+      <c r="D1174" t="s" s="0">
+        <v>770</v>
+      </c>
+      <c r="E1174" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="F1174" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G1174" t="s" s="0">
+        <v>771</v>
+      </c>
+      <c r="H1174" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1174" t="s" s="0">
+        <v>1834</v>
+      </c>
+      <c r="J1174" t="s" s="0">
+        <v>1324</v>
+      </c>
+      <c r="K1174" s="0"/>
+      <c r="L1174" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="M1174" s="0"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="n" s="0">
+        <v>1174.0</v>
+      </c>
+      <c r="B1175" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1175" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D1175" t="s" s="0">
+        <v>773</v>
+      </c>
+      <c r="E1175" t="s" s="0">
+        <v>774</v>
+      </c>
+      <c r="F1175" t="s" s="0">
+        <v>775</v>
+      </c>
+      <c r="G1175" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1175" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1175" t="s" s="0">
+        <v>1586</v>
+      </c>
+      <c r="J1175" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="K1175" s="0"/>
+      <c r="L1175" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="M1175" s="0"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="n" s="0">
+        <v>1175.0</v>
+      </c>
+      <c r="B1176" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1176" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="D1176" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E1176" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1176" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G1176" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1176" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1176" t="s" s="0">
+        <v>1835</v>
+      </c>
+      <c r="J1176" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="K1176" s="0"/>
+      <c r="L1176" t="s" s="0">
+        <v>1121</v>
+      </c>
+      <c r="M1176" s="0"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="n" s="0">
+        <v>1176.0</v>
+      </c>
+      <c r="B1177" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1177" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D1177" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="E1177" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="F1177" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G1177" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1177" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1177" t="s" s="0">
+        <v>1526</v>
+      </c>
+      <c r="J1177" t="s" s="0">
+        <v>1079</v>
+      </c>
+      <c r="K1177" s="0"/>
+      <c r="L1177" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="M1177" s="0"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="n" s="0">
+        <v>1177.0</v>
+      </c>
+      <c r="B1178" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1178" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D1178" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E1178" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1178" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1178" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1178" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I1178" t="s" s="0">
+        <v>1836</v>
+      </c>
+      <c r="J1178" t="s" s="0">
+        <v>1183</v>
+      </c>
+      <c r="K1178" s="0"/>
+      <c r="L1178" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="M1178" s="0"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="n" s="0">
+        <v>1178.0</v>
+      </c>
+      <c r="B1179" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1179" t="s" s="0">
+        <v>780</v>
+      </c>
+      <c r="D1179" t="s" s="0">
+        <v>781</v>
+      </c>
+      <c r="E1179" t="s" s="0">
+        <v>782</v>
+      </c>
+      <c r="F1179" t="s" s="0">
+        <v>783</v>
+      </c>
+      <c r="G1179" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1179" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1179" t="s" s="0">
+        <v>1250</v>
+      </c>
+      <c r="J1179" t="s" s="0">
+        <v>938</v>
+      </c>
+      <c r="K1179" s="0"/>
+      <c r="L1179" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="M1179" s="0"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="n" s="0">
+        <v>1179.0</v>
+      </c>
+      <c r="B1180" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1180" t="s" s="0">
+        <v>785</v>
+      </c>
+      <c r="D1180" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="E1180" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1180" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G1180" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1180" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1180" t="s" s="0">
+        <v>1783</v>
+      </c>
+      <c r="J1180" t="s" s="0">
+        <v>1492</v>
+      </c>
+      <c r="K1180" s="0"/>
+      <c r="L1180" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="M1180" s="0"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="n" s="0">
+        <v>1180.0</v>
+      </c>
+      <c r="B1181" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1181" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="D1181" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="E1181" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1181" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="G1181" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="H1181" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1181" t="s" s="0">
+        <v>1837</v>
+      </c>
+      <c r="J1181" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="K1181" s="0"/>
+      <c r="L1181" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M1181" s="0"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="n" s="0">
+        <v>1181.0</v>
+      </c>
+      <c r="B1182" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1182" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D1182" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="E1182" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F1182" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="G1182" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="H1182" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1182" t="s" s="0">
+        <v>705</v>
+      </c>
+      <c r="J1182" t="s" s="0">
+        <v>998</v>
+      </c>
+      <c r="K1182" s="0"/>
+      <c r="L1182" t="s" s="0">
+        <v>692</v>
+      </c>
+      <c r="M1182" s="0"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="n" s="0">
+        <v>1182.0</v>
+      </c>
+      <c r="B1183" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1183" t="s" s="0">
+        <v>789</v>
+      </c>
+      <c r="D1183" t="s" s="0">
+        <v>791</v>
+      </c>
+      <c r="E1183" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F1183" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1183" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1183" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="I1183" t="s" s="0">
+        <v>1838</v>
+      </c>
+      <c r="J1183" t="s" s="0">
+        <v>1704</v>
+      </c>
+      <c r="K1183" s="0"/>
+      <c r="L1183" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="M1183" s="0"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="n" s="0">
+        <v>1183.0</v>
+      </c>
+      <c r="B1184" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1184" t="s" s="0">
+        <v>795</v>
+      </c>
+      <c r="D1184" t="s" s="0">
+        <v>796</v>
+      </c>
+      <c r="E1184" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1184" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="G1184" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1184" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I1184" t="s" s="0">
+        <v>1839</v>
+      </c>
+      <c r="J1184" t="s" s="0">
+        <v>1087</v>
+      </c>
+      <c r="K1184" s="0"/>
+      <c r="L1184" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="M1184" s="0"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="n" s="0">
+        <v>1184.0</v>
+      </c>
+      <c r="B1185" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1185" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="D1185" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="E1185" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="F1185" t="s" s="0">
+        <v>630</v>
+      </c>
+      <c r="G1185" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1185" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1185" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="J1185" t="s" s="0">
+        <v>830</v>
+      </c>
+      <c r="K1185" s="0"/>
+      <c r="L1185" t="s" s="0">
+        <v>990</v>
+      </c>
+      <c r="M1185" s="0"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="n" s="0">
+        <v>1185.0</v>
+      </c>
+      <c r="B1186" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1186" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D1186" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="E1186" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="F1186" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="G1186" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1186" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1186" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="J1186" t="s" s="0">
+        <v>1840</v>
+      </c>
+      <c r="K1186" s="0"/>
+      <c r="L1186" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="M1186" s="0"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n" s="0">
+        <v>1186.0</v>
+      </c>
+      <c r="B1187" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1187" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="D1187" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E1187" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F1187" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1187" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H1187" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1187" t="s" s="0">
+        <v>1001</v>
+      </c>
+      <c r="J1187" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="K1187" s="0"/>
+      <c r="L1187" t="s" s="0">
+        <v>419</v>
+      </c>
+      <c r="M1187" s="0"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="n" s="0">
+        <v>1187.0</v>
+      </c>
+      <c r="B1188" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1188" t="s" s="0">
+        <v>802</v>
+      </c>
+      <c r="D1188" t="s" s="0">
+        <v>803</v>
+      </c>
+      <c r="E1188" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F1188" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="G1188" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1188" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1188" t="s" s="0">
+        <v>1841</v>
+      </c>
+      <c r="J1188" t="s" s="0">
+        <v>1842</v>
+      </c>
+      <c r="K1188" s="0"/>
+      <c r="L1188" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="M1188" s="0"/>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n" s="0">
+        <v>1188.0</v>
+      </c>
+      <c r="B1189" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1189" t="s" s="0">
+        <v>806</v>
+      </c>
+      <c r="D1189" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="E1189" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="F1189" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="G1189" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1189" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1189" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="J1189" t="s" s="0">
+        <v>1097</v>
+      </c>
+      <c r="K1189" s="0"/>
+      <c r="L1189" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="M1189" s="0"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="n" s="0">
+        <v>1189.0</v>
+      </c>
+      <c r="B1190" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1190" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D1190" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="E1190" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="F1190" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="G1190" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1190" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1190" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="J1190" t="s" s="0">
+        <v>1843</v>
+      </c>
+      <c r="K1190" s="0"/>
+      <c r="L1190" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="M1190" s="0"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="n" s="0">
+        <v>1190.0</v>
+      </c>
+      <c r="B1191" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1191" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D1191" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="E1191" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="F1191" t="s" s="0">
+        <v>472</v>
+      </c>
+      <c r="G1191" t="s" s="0">
+        <v>809</v>
+      </c>
+      <c r="H1191" t="s" s="0">
+        <v>810</v>
+      </c>
+      <c r="I1191" t="s" s="0">
+        <v>1844</v>
+      </c>
+      <c r="J1191" t="s" s="0">
+        <v>1845</v>
+      </c>
+      <c r="K1191" s="0"/>
+      <c r="L1191" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="M1191" s="0"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n" s="0">
+        <v>1191.0</v>
+      </c>
+      <c r="B1192" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1192" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="D1192" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="E1192" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F1192" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="G1192" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="H1192" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I1192" t="s" s="0">
+        <v>908</v>
+      </c>
+      <c r="J1192" t="s" s="0">
+        <v>1408</v>
+      </c>
+      <c r="K1192" s="0"/>
+      <c r="L1192" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="M1192" s="0"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="n" s="0">
+        <v>1192.0</v>
+      </c>
+      <c r="B1193" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1193" t="s" s="0">
+        <v>814</v>
+      </c>
+      <c r="D1193" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="E1193" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="F1193" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="G1193" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1193" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1193" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="J1193" t="s" s="0">
+        <v>1503</v>
+      </c>
+      <c r="K1193" s="0"/>
+      <c r="L1193" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="M1193" s="0"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n" s="0">
+        <v>1193.0</v>
+      </c>
+      <c r="B1194" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1194" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D1194" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="E1194" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1194" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1194" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1194" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="I1194" t="s" s="0">
+        <v>1409</v>
+      </c>
+      <c r="J1194" t="s" s="0">
+        <v>1846</v>
+      </c>
+      <c r="K1194" s="0"/>
+      <c r="L1194" t="s" s="0">
+        <v>1218</v>
+      </c>
+      <c r="M1194" s="0"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n" s="0">
+        <v>1194.0</v>
+      </c>
+      <c r="B1195" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1195" t="s" s="0">
+        <v>821</v>
+      </c>
+      <c r="D1195" t="s" s="0">
+        <v>822</v>
+      </c>
+      <c r="E1195" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="F1195" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="G1195" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1195" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1195" t="s" s="0">
+        <v>1411</v>
+      </c>
+      <c r="J1195" t="s" s="0">
+        <v>1847</v>
+      </c>
+      <c r="K1195" s="0"/>
+      <c r="L1195" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M1195" s="0"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="n" s="0">
+        <v>1195.0</v>
+      </c>
+      <c r="B1196" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1196" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="D1196" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E1196" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="F1196" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1196" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1196" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1196" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J1196" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="K1196" s="0"/>
+      <c r="L1196" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="M1196" s="0"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="n" s="0">
+        <v>1196.0</v>
+      </c>
+      <c r="B1197" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1197" t="s" s="0">
+        <v>824</v>
+      </c>
+      <c r="D1197" t="s" s="0">
+        <v>826</v>
+      </c>
+      <c r="E1197" t="s" s="0">
+        <v>827</v>
+      </c>
+      <c r="F1197" t="s" s="0">
+        <v>828</v>
+      </c>
+      <c r="G1197" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1197" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1197" t="s" s="0">
+        <v>1848</v>
+      </c>
+      <c r="J1197" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="K1197" s="0"/>
+      <c r="L1197" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="M1197" s="0"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n" s="0">
+        <v>1197.0</v>
+      </c>
+      <c r="B1198" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1198" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="D1198" t="s" s="0">
+        <v>661</v>
+      </c>
+      <c r="E1198" t="s" s="0">
+        <v>662</v>
+      </c>
+      <c r="F1198" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="G1198" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1198" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1198" t="s" s="0">
+        <v>1468</v>
+      </c>
+      <c r="J1198" t="s" s="0">
+        <v>1469</v>
+      </c>
+      <c r="K1198" s="0"/>
+      <c r="L1198" t="s" s="0">
+        <v>935</v>
+      </c>
+      <c r="M1198" s="0"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n" s="0">
+        <v>1198.0</v>
+      </c>
+      <c r="B1199" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1199" t="s" s="0">
+        <v>831</v>
+      </c>
+      <c r="D1199" t="s" s="0">
+        <v>834</v>
+      </c>
+      <c r="E1199" t="s" s="0">
+        <v>835</v>
+      </c>
+      <c r="F1199" t="s" s="0">
+        <v>836</v>
+      </c>
+      <c r="G1199" t="s" s="0">
+        <v>837</v>
+      </c>
+      <c r="H1199" t="s" s="0">
+        <v>838</v>
+      </c>
+      <c r="I1199" t="s" s="0">
+        <v>839</v>
+      </c>
+      <c r="J1199" t="s" s="0">
+        <v>1270</v>
+      </c>
+      <c r="K1199" s="0"/>
+      <c r="L1199" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="M1199" s="0"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n" s="0">
+        <v>1199.0</v>
+      </c>
+      <c r="B1200" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1200" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="D1200" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E1200" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F1200" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G1200" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1200" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I1200" t="s" s="0">
+        <v>1849</v>
+      </c>
+      <c r="J1200" t="s" s="0">
+        <v>1416</v>
+      </c>
+      <c r="K1200" s="0"/>
+      <c r="L1200" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="M1200" s="0"/>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n" s="0">
+        <v>1200.0</v>
+      </c>
+      <c r="B1201" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1201" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="D1201" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="E1201" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="F1201" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="G1201" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1201" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1201" t="s" s="0">
+        <v>1242</v>
+      </c>
+      <c r="J1201" t="s" s="0">
+        <v>1210</v>
+      </c>
+      <c r="K1201" s="0"/>
+      <c r="L1201" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="M1201" s="0"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n" s="0">
+        <v>1201.0</v>
+      </c>
+      <c r="B1202" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1202" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D1202" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E1202" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F1202" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="G1202" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="H1202" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I1202" t="s" s="0">
+        <v>1296</v>
+      </c>
+      <c r="J1202" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="K1202" s="0"/>
+      <c r="L1202" t="s" s="0">
+        <v>1024</v>
+      </c>
+      <c r="M1202" s="0"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n" s="0">
+        <v>1202.0</v>
+      </c>
+      <c r="B1203" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1203" t="s" s="0">
+        <v>845</v>
+      </c>
+      <c r="D1203" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="E1203" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F1203" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1203" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="H1203" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="I1203" t="s" s="0">
+        <v>1285</v>
+      </c>
+      <c r="J1203" t="s" s="0">
+        <v>1277</v>
+      </c>
+      <c r="K1203" s="0"/>
+      <c r="L1203" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="M1203" s="0"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n" s="0">
+        <v>1203.0</v>
+      </c>
+      <c r="B1204" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1204" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="D1204" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="E1204" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="F1204" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="G1204" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="H1204" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1204" t="s" s="0">
+        <v>1850</v>
+      </c>
+      <c r="J1204" t="s" s="0">
+        <v>1117</v>
+      </c>
+      <c r="K1204" s="0"/>
+      <c r="L1204" t="s" s="0">
+        <v>541</v>
+      </c>
+      <c r="M1204" s="0"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n" s="0">
+        <v>1204.0</v>
+      </c>
+      <c r="B1205" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1205" t="s" s="0">
+        <v>847</v>
+      </c>
+      <c r="D1205" t="s" s="0">
+        <v>851</v>
+      </c>
+      <c r="E1205" t="s" s="0">
+        <v>852</v>
+      </c>
+      <c r="F1205" t="s" s="0">
+        <v>853</v>
+      </c>
+      <c r="G1205" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="H1205" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="I1205" t="s" s="0">
+        <v>1574</v>
+      </c>
+      <c r="J1205" t="s" s="0">
+        <v>1796</v>
+      </c>
+      <c r="K1205" s="0"/>
+      <c r="L1205" t="s" s="0">
+        <v>1393</v>
+      </c>
+      <c r="M1205" s="0"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n" s="0">
+        <v>1205.0</v>
+      </c>
+      <c r="B1206" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1206" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D1206" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E1206" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F1206" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G1206" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="H1206" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="I1206" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="J1206" t="s" s="0">
+        <v>1652</v>
+      </c>
+      <c r="K1206" s="0"/>
+      <c r="L1206" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="M1206" s="0"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="n" s="0">
+        <v>1206.0</v>
+      </c>
+      <c r="B1207" t="s" s="0">
+        <v>1819</v>
+      </c>
+      <c r="C1207" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="D1207" t="s" s="0">
+        <v>859</v>
+      </c>
+      <c r="E1207" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="F1207" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="G1207" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="H1207" t="s" s="0">
+        <v>797</v>
+      </c>
+      <c r="I1207" t="s" s="0">
+        <v>1618</v>
+      </c>
+      <c r="J1207" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="K1207" s="0"/>
+      <c r="L1207" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="M1207" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
